--- a/Documenti di Progetto/Revision History - Figma.xlsx
+++ b/Documenti di Progetto/Revision History - Figma.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raffaella/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salva\GitHub\WoodLot\Documenti di Progetto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6AC4EB2-A5DA-214C-80ED-068065B6D375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B9EBCC0-B270-4E22-883E-F94E51AD2F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15840" xr2:uid="{4A92E1C4-0C03-B648-8F37-4C727B03EE17}"/>
+    <workbookView xWindow="3450" yWindow="2550" windowWidth="21600" windowHeight="11295" xr2:uid="{4A92E1C4-0C03-B648-8F37-4C727B03EE17}"/>
   </bookViews>
   <sheets>
     <sheet name="Use Case Diagram" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>DATA</t>
   </si>
@@ -60,6 +60,15 @@
   </si>
   <si>
     <t>REVISON HISTORY - USE CASE DIAGRAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use Case Diagram Ospite </t>
+  </si>
+  <si>
+    <t>SDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use Case Diagram Utente </t>
   </si>
 </sst>
 </file>
@@ -103,7 +112,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -120,14 +129,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -139,6 +148,9 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -154,7 +166,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BFD3B3F1-39AF-574B-B4E2-6DD2F98814AC}" name="Tabella1" displayName="Tabella1" ref="B2:E23" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BFD3B3F1-39AF-574B-B4E2-6DD2F98814AC}" name="Tabella1" displayName="Tabella1" ref="B2:E23" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="B2:E23" xr:uid="{BFD3B3F1-39AF-574B-B4E2-6DD2F98814AC}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -162,10 +174,10 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{D2472224-3F02-2744-8657-6A872C869000}" name="DATA" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{7FA9BCB9-E897-B440-9BF5-675437705F38}" name="VERSIONE" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{287F26B4-1CCD-AC44-AD6B-D76F16EAB32B}" name="DESCRIZIONE" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{8213545A-71F5-B24E-B9A1-3418391DCE22}" name="AUTORE" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{D2472224-3F02-2744-8657-6A872C869000}" name="DATA" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{7FA9BCB9-E897-B440-9BF5-675437705F38}" name="VERSIONE" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{287F26B4-1CCD-AC44-AD6B-D76F16EAB32B}" name="DESCRIZIONE" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{8213545A-71F5-B24E-B9A1-3418391DCE22}" name="AUTORE" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -471,19 +483,19 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="3" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B1" s="5" t="s">
         <v>7</v>
       </c>
@@ -491,7 +503,7 @@
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -505,7 +517,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
         <v>44860</v>
       </c>
@@ -519,121 +531,137 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="3"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="3"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="6">
+        <v>44861</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="6">
+        <v>44861</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
       <c r="C6" s="1"/>
       <c r="D6" s="4"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
       <c r="C7" s="1"/>
       <c r="D7" s="4"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
       <c r="C8" s="1"/>
       <c r="D8" s="4"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
       <c r="C9" s="1"/>
       <c r="D9" s="4"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
       <c r="C10" s="1"/>
       <c r="D10" s="4"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
       <c r="C11" s="1"/>
       <c r="D11" s="4"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="3"/>
       <c r="C12" s="1"/>
       <c r="D12" s="4"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="3"/>
       <c r="C13" s="1"/>
       <c r="D13" s="4"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
       <c r="C14" s="1"/>
       <c r="D14" s="4"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
       <c r="C15" s="1"/>
       <c r="D15" s="4"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
       <c r="C16" s="1"/>
       <c r="D16" s="4"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="3"/>
       <c r="C17" s="1"/>
       <c r="D17" s="4"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
       <c r="C18" s="1"/>
       <c r="D18" s="4"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
       <c r="C19" s="1"/>
       <c r="D19" s="4"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
       <c r="C20" s="1"/>
       <c r="D20" s="4"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
       <c r="C21" s="1"/>
       <c r="D21" s="4"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
       <c r="C22" s="1"/>
       <c r="D22" s="4"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
       <c r="C23" s="1"/>
       <c r="D23" s="4"/>

--- a/Documenti di Progetto/Revision History - Figma.xlsx
+++ b/Documenti di Progetto/Revision History - Figma.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salva\GitHub\WoodLot\Documenti di Progetto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raffaella/Documents/WoodLot/Documenti di Progetto/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B9EBCC0-B270-4E22-883E-F94E51AD2F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB480D5-3CAE-F94B-965D-56F9144035D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3450" yWindow="2550" windowWidth="21600" windowHeight="11295" xr2:uid="{4A92E1C4-0C03-B648-8F37-4C727B03EE17}"/>
+    <workbookView xWindow="3460" yWindow="2560" windowWidth="21600" windowHeight="11300" xr2:uid="{4A92E1C4-0C03-B648-8F37-4C727B03EE17}"/>
   </bookViews>
   <sheets>
     <sheet name="Use Case Diagram" sheetId="1" r:id="rId1"/>
@@ -112,7 +112,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -128,9 +128,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -483,19 +480,19 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" style="3" customWidth="1"/>
-    <col min="2" max="2" width="10.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B1" s="5" t="s">
         <v>7</v>
       </c>
@@ -503,7 +500,7 @@
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -517,7 +514,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="2">
         <v>44860</v>
       </c>
@@ -531,137 +528,137 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="6">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="2">
         <v>44861</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="6">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="2">
         <v>44861</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="3"/>
       <c r="C6" s="1"/>
       <c r="D6" s="4"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="3"/>
       <c r="C7" s="1"/>
       <c r="D7" s="4"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="3"/>
       <c r="C8" s="1"/>
       <c r="D8" s="4"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="3"/>
       <c r="C9" s="1"/>
       <c r="D9" s="4"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="3"/>
       <c r="C10" s="1"/>
       <c r="D10" s="4"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="3"/>
       <c r="C11" s="1"/>
       <c r="D11" s="4"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="3"/>
       <c r="C12" s="1"/>
       <c r="D12" s="4"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="3"/>
       <c r="C13" s="1"/>
       <c r="D13" s="4"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="3"/>
       <c r="C14" s="1"/>
       <c r="D14" s="4"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="3"/>
       <c r="C15" s="1"/>
       <c r="D15" s="4"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="3"/>
       <c r="C16" s="1"/>
       <c r="D16" s="4"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="3"/>
       <c r="C17" s="1"/>
       <c r="D17" s="4"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="3"/>
       <c r="C18" s="1"/>
       <c r="D18" s="4"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="3"/>
       <c r="C19" s="1"/>
       <c r="D19" s="4"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="3"/>
       <c r="C20" s="1"/>
       <c r="D20" s="4"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="3"/>
       <c r="C21" s="1"/>
       <c r="D21" s="4"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="3"/>
       <c r="C22" s="1"/>
       <c r="D22" s="4"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="3"/>
       <c r="C23" s="1"/>
       <c r="D23" s="4"/>

--- a/Documenti di Progetto/Revision History - Figma.xlsx
+++ b/Documenti di Progetto/Revision History - Figma.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raffaella/Documents/WoodLot/Documenti di Progetto/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB480D5-3CAE-F94B-965D-56F9144035D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B37AC483-71D8-1E4A-B267-7193C316C9EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3460" yWindow="2560" windowWidth="21600" windowHeight="11300" xr2:uid="{4A92E1C4-0C03-B648-8F37-4C727B03EE17}"/>
+    <workbookView xWindow="4960" yWindow="-15260" windowWidth="21600" windowHeight="11300" xr2:uid="{4A92E1C4-0C03-B648-8F37-4C727B03EE17}"/>
   </bookViews>
   <sheets>
     <sheet name="Use Case Diagram" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>DATA</t>
   </si>
@@ -62,13 +62,25 @@
     <t>REVISON HISTORY - USE CASE DIAGRAM</t>
   </si>
   <si>
-    <t xml:space="preserve">Use Case Diagram Ospite </t>
-  </si>
-  <si>
     <t>SDS</t>
   </si>
   <si>
-    <t xml:space="preserve">Use Case Diagram Utente </t>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aggiunta Use Case Diagram Ospite </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aggiunta Use Case Diagram Utente </t>
+  </si>
+  <si>
+    <t>Aggiunta Use Case Diagram Contadino</t>
+  </si>
+  <si>
+    <t>RS</t>
+  </si>
+  <si>
+    <t>Aggiunta Use Case Diagram Catalogo</t>
   </si>
 </sst>
 </file>
@@ -479,8 +491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9A7717B-E787-F440-A477-62CF32499A0B}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -532,70 +544,76 @@
       <c r="B4" s="2">
         <v>44861</v>
       </c>
-      <c r="C4" s="1">
-        <v>1</v>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <v>44861</v>
       </c>
-      <c r="C5" s="1">
-        <v>1</v>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="2">
+        <v>44864</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="3"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="3"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="1"/>
+      <c r="B7" s="2">
+        <v>44864</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="3"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="4"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="3"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="4"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="3"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="4"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="3"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="4"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="3"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="4"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">

--- a/Documenti di Progetto/Revision History - Figma.xlsx
+++ b/Documenti di Progetto/Revision History - Figma.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raffaella/Documents/WoodLot/Documenti di Progetto/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B37AC483-71D8-1E4A-B267-7193C316C9EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4683F23-A4C1-604E-BC54-087559925F7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4960" yWindow="-15260" windowWidth="21600" windowHeight="11300" xr2:uid="{4A92E1C4-0C03-B648-8F37-4C727B03EE17}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{4A92E1C4-0C03-B648-8F37-4C727B03EE17}"/>
   </bookViews>
   <sheets>
     <sheet name="Use Case Diagram" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t>DATA</t>
   </si>
@@ -81,6 +81,18 @@
   </si>
   <si>
     <t>Aggiunta Use Case Diagram Catalogo</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>Modificato Use Case Diagram Ospite</t>
+  </si>
+  <si>
+    <t>Modificato Use Case Diagram Utente</t>
+  </si>
+  <si>
+    <t>Modificato Use Case Diagram Catalogo</t>
   </si>
 </sst>
 </file>
@@ -492,7 +504,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -597,16 +609,46 @@
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="B8" s="2">
+        <v>44865</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="B9" s="2">
+        <v>44865</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="B10" s="2">
+        <v>44865</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C11" s="1"/>

--- a/Documenti di Progetto/Revision History - Figma.xlsx
+++ b/Documenti di Progetto/Revision History - Figma.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raffaella/Documents/WoodLot/Documenti di Progetto/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alessiature/Desktop/WoodLot/Documenti di Progetto/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4683F23-A4C1-604E-BC54-087559925F7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2102470-ECAF-3A40-9013-A1603D3B50E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{4A92E1C4-0C03-B648-8F37-4C727B03EE17}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
   <si>
     <t>DATA</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>Modificato Use Case Diagram Catalogo</t>
+  </si>
+  <si>
+    <t>Modificato Use Case Diagram Contadino</t>
   </si>
 </sst>
 </file>
@@ -504,7 +507,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -651,8 +654,18 @@
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="B11" s="2">
+        <v>44865</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C12" s="1"/>

--- a/Documenti di Progetto/Revision History - Figma.xlsx
+++ b/Documenti di Progetto/Revision History - Figma.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alessiature/Desktop/WoodLot/Documenti di Progetto/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salva\GitHub\WoodLot\Documenti di Progetto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2102470-ECAF-3A40-9013-A1603D3B50E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D4970C-889E-4ECF-A307-8D11A1F1FC8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{4A92E1C4-0C03-B648-8F37-4C727B03EE17}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4A92E1C4-0C03-B648-8F37-4C727B03EE17}"/>
   </bookViews>
   <sheets>
     <sheet name="Use Case Diagram" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
   <si>
     <t>DATA</t>
   </si>
@@ -96,6 +96,12 @@
   </si>
   <si>
     <t>Modificato Use Case Diagram Contadino</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>Aggiunta StateChart</t>
   </si>
 </sst>
 </file>
@@ -507,19 +513,19 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B3" sqref="B3:B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="3" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B1" s="5" t="s">
         <v>7</v>
       </c>
@@ -527,7 +533,7 @@
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -541,7 +547,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
         <v>44860</v>
       </c>
@@ -555,7 +561,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>44861</v>
       </c>
@@ -569,7 +575,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>44861</v>
       </c>
@@ -583,7 +589,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>44864</v>
       </c>
@@ -597,7 +603,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>44864</v>
       </c>
@@ -611,7 +617,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>44865</v>
       </c>
@@ -625,7 +631,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>44865</v>
       </c>
@@ -639,7 +645,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <v>44865</v>
       </c>
@@ -653,7 +659,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>44865</v>
       </c>
@@ -667,71 +673,81 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C12" s="1"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="2">
+        <v>44871</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="3"/>
       <c r="C13" s="1"/>
       <c r="D13" s="4"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
       <c r="C14" s="1"/>
       <c r="D14" s="4"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
       <c r="C15" s="1"/>
       <c r="D15" s="4"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
       <c r="C16" s="1"/>
       <c r="D16" s="4"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="3"/>
       <c r="C17" s="1"/>
       <c r="D17" s="4"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
       <c r="C18" s="1"/>
       <c r="D18" s="4"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
       <c r="C19" s="1"/>
       <c r="D19" s="4"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
       <c r="C20" s="1"/>
       <c r="D20" s="4"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
       <c r="C21" s="1"/>
       <c r="D21" s="4"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
       <c r="C22" s="1"/>
       <c r="D22" s="4"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
       <c r="C23" s="1"/>
       <c r="D23" s="4"/>

--- a/Documenti di Progetto/Revision History - Figma.xlsx
+++ b/Documenti di Progetto/Revision History - Figma.xlsx
@@ -1,19 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salva\GitHub\WoodLot\Documenti di Progetto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raffaella/Documents/WoodLot/Documenti di Progetto/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D4970C-889E-4ECF-A307-8D11A1F1FC8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE98416-9567-5249-8858-16E00F5AB5B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4A92E1C4-0C03-B648-8F37-4C727B03EE17}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" activeTab="3" xr2:uid="{4A92E1C4-0C03-B648-8F37-4C727B03EE17}"/>
   </bookViews>
   <sheets>
-    <sheet name="Use Case Diagram" sheetId="1" r:id="rId1"/>
+    <sheet name="Mock-up" sheetId="5" r:id="rId1"/>
+    <sheet name="Use Case Diagram" sheetId="1" r:id="rId2"/>
+    <sheet name="Statechart Diagram" sheetId="3" r:id="rId3"/>
+    <sheet name="Navigational Path" sheetId="7" r:id="rId4"/>
+    <sheet name="Class Diagram" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="26">
   <si>
     <t>DATA</t>
   </si>
@@ -102,6 +106,18 @@
   </si>
   <si>
     <t>Aggiunta StateChart</t>
+  </si>
+  <si>
+    <t>REVISON HISTORY - STATECHRT DIAGRAM</t>
+  </si>
+  <si>
+    <t>REVISON HISTORY - MOCK-UP</t>
+  </si>
+  <si>
+    <t>REVISON HISTORY - CLASS DIAGRAM</t>
+  </si>
+  <si>
+    <t>REVISON HISTORY - NAVIGATIONAL PATH</t>
   </si>
 </sst>
 </file>
@@ -166,7 +182,67 @@
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="25">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -196,7 +272,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BFD3B3F1-39AF-574B-B4E2-6DD2F98814AC}" name="Tabella1" displayName="Tabella1" ref="B2:E23" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{04D74344-D276-384C-86AC-E6FCBC66F272}" name="Tabella15" displayName="Tabella15" ref="B2:E23" totalsRowShown="0" headerRowDxfId="14">
   <autoFilter ref="B2:E23" xr:uid="{BFD3B3F1-39AF-574B-B4E2-6DD2F98814AC}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -204,10 +280,82 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{D2472224-3F02-2744-8657-6A872C869000}" name="DATA" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{7FA9BCB9-E897-B440-9BF5-675437705F38}" name="VERSIONE" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{287F26B4-1CCD-AC44-AD6B-D76F16EAB32B}" name="DESCRIZIONE" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{8213545A-71F5-B24E-B9A1-3418391DCE22}" name="AUTORE" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{9CE3F216-5F00-C949-B764-1C474BC4E6F7}" name="DATA" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{B65B1588-D391-084E-B362-96ACBB55D55F}" name="VERSIONE" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{5A35C614-6143-2E41-B770-E9159B831AC1}" name="DESCRIZIONE" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{9279B9EE-E335-9A4B-A08C-E21EB6909A98}" name="AUTORE" dataDxfId="10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BFD3B3F1-39AF-574B-B4E2-6DD2F98814AC}" name="Tabella1" displayName="Tabella1" ref="B2:E23" totalsRowShown="0" headerRowDxfId="24">
+  <autoFilter ref="B2:E23" xr:uid="{BFD3B3F1-39AF-574B-B4E2-6DD2F98814AC}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{D2472224-3F02-2744-8657-6A872C869000}" name="DATA" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{7FA9BCB9-E897-B440-9BF5-675437705F38}" name="VERSIONE" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{287F26B4-1CCD-AC44-AD6B-D76F16EAB32B}" name="DESCRIZIONE" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{8213545A-71F5-B24E-B9A1-3418391DCE22}" name="AUTORE" dataDxfId="20"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8E559B2E-DA0D-F143-8EFE-D37F837E0651}" name="Tabella14" displayName="Tabella14" ref="B2:E23" totalsRowShown="0" headerRowDxfId="19">
+  <autoFilter ref="B2:E23" xr:uid="{BFD3B3F1-39AF-574B-B4E2-6DD2F98814AC}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{378C1216-916E-5544-9728-AA01BCB8B490}" name="DATA" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{C0CC21E6-1BDA-674A-BF46-2171B580AC90}" name="VERSIONE" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{120155EA-3E0E-6B4B-A0E1-2E2B0D2F3140}" name="DESCRIZIONE" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{93260112-5814-1241-B832-6563BE25C71F}" name="AUTORE" dataDxfId="15"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{54B71CEB-3BE9-2D43-9426-5BB1E770D4EF}" name="Tabella1467" displayName="Tabella1467" ref="B2:E23" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="B2:E23" xr:uid="{BFD3B3F1-39AF-574B-B4E2-6DD2F98814AC}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{EFC912E6-D157-384A-99D5-25B94006AD03}" name="DATA" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{047CD72C-0FBB-A641-99FF-B5F32B6A45C6}" name="VERSIONE" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{57F48B9D-75F1-C546-BE4B-0968141ED3E5}" name="DESCRIZIONE" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{9D7F8A0A-9573-854B-88DF-998DF658CB24}" name="AUTORE" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C631A97A-F7D8-594B-B7D2-25620C66AA81}" name="Tabella146" displayName="Tabella146" ref="B2:E23" totalsRowShown="0" headerRowDxfId="9">
+  <autoFilter ref="B2:E23" xr:uid="{BFD3B3F1-39AF-574B-B4E2-6DD2F98814AC}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{7C7AFF3E-F623-924D-A0B4-16386F27322B}" name="DATA" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{1C2CD86D-9E3B-5A4A-9634-44B2F9F64A34}" name="VERSIONE" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{6B5D89E2-E9F3-0348-AC4F-276719705EF0}" name="DESCRIZIONE" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{6F8E928E-C13E-3441-945B-4D39C4C14E21}" name="AUTORE" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -509,31 +657,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9A7717B-E787-F440-A477-62CF32499A0B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256147BA-D926-674E-96C3-5C4EE21DE2A0}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B12"/>
+    <sheetView zoomScale="135" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B1" s="5" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -547,207 +695,881 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="2">
-        <v>44860</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="2">
-        <v>44861</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="2">
-        <v>44861</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="2">
-        <v>44864</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="2">
-        <v>44864</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="2">
-        <v>44865</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="2">
-        <v>44865</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="2">
-        <v>44865</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="2">
-        <v>44865</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="2">
-        <v>44871</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="2"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="2"/>
+      <c r="C4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="2"/>
+      <c r="C5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="2"/>
+      <c r="C6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="2"/>
+      <c r="C7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="2"/>
+      <c r="C8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="2"/>
+      <c r="C9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="2"/>
+      <c r="C10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="2"/>
+      <c r="C11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="2"/>
+      <c r="C12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="3"/>
       <c r="C13" s="1"/>
       <c r="D13" s="4"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="3"/>
       <c r="C14" s="1"/>
       <c r="D14" s="4"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="3"/>
       <c r="C15" s="1"/>
       <c r="D15" s="4"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="3"/>
       <c r="C16" s="1"/>
       <c r="D16" s="4"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="3"/>
       <c r="C17" s="1"/>
       <c r="D17" s="4"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="3"/>
       <c r="C18" s="1"/>
       <c r="D18" s="4"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="3"/>
       <c r="C19" s="1"/>
       <c r="D19" s="4"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="3"/>
       <c r="C20" s="1"/>
       <c r="D20" s="4"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="3"/>
       <c r="C21" s="1"/>
       <c r="D21" s="4"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="3"/>
       <c r="C22" s="1"/>
       <c r="D22" s="4"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23" s="3"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9A7717B-E787-F440-A477-62CF32499A0B}">
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView zoomScale="135" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="2">
+        <v>44860</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="2">
+        <v>44861</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="2">
+        <v>44861</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="2">
+        <v>44864</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="2">
+        <v>44864</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="2">
+        <v>44865</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="2">
+        <v>44865</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="2">
+        <v>44865</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="2">
+        <v>44865</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="2">
+        <v>44871</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="3"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="3"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="3"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="3"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="3"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="3"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="3"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="3"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B21" s="3"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B22" s="3"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23" s="3"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69F97323-D4EC-FD45-9D8F-7A5F3A227394}">
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView zoomScale="135" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="2">
+        <v>44871</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="2"/>
+      <c r="C4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="2"/>
+      <c r="C5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="2"/>
+      <c r="C6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="2"/>
+      <c r="C7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="2"/>
+      <c r="C8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="2"/>
+      <c r="C9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="2"/>
+      <c r="C10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="2"/>
+      <c r="C11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="2"/>
+      <c r="C12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="3"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="3"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="3"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="3"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="3"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="3"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="3"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="3"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B21" s="3"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B22" s="3"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23" s="3"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AF668EB-F66C-0745-B382-56EACCF4771A}">
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="2"/>
+      <c r="C3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="2"/>
+      <c r="C4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="2"/>
+      <c r="C5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="2"/>
+      <c r="C6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="2"/>
+      <c r="C7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="2"/>
+      <c r="C8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="2"/>
+      <c r="C9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="2"/>
+      <c r="C10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="2"/>
+      <c r="C11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="2"/>
+      <c r="C12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="3"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="3"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="3"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="3"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="3"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="3"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="3"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="3"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B21" s="3"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B22" s="3"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23" s="3"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC713557-CF4C-3449-B7F2-607954CE9E41}">
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView zoomScale="135" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="2"/>
+      <c r="C3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="2"/>
+      <c r="C4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="2"/>
+      <c r="C5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="2"/>
+      <c r="C6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="2"/>
+      <c r="C7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="2"/>
+      <c r="C8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="2"/>
+      <c r="C9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="2"/>
+      <c r="C10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="2"/>
+      <c r="C11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="2"/>
+      <c r="C12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="3"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="3"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="3"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="3"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="3"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="3"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="3"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="3"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B21" s="3"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B22" s="3"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="3"/>
       <c r="C23" s="1"/>
       <c r="D23" s="4"/>

--- a/Documenti di Progetto/Revision History - Figma.xlsx
+++ b/Documenti di Progetto/Revision History - Figma.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raffaella/Documents/WoodLot/Documenti di Progetto/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE98416-9567-5249-8858-16E00F5AB5B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{703F4D0D-7477-964A-8890-A1CF72A55E23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" activeTab="3" xr2:uid="{4A92E1C4-0C03-B648-8F37-4C727B03EE17}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" activeTab="5" xr2:uid="{4A92E1C4-0C03-B648-8F37-4C727B03EE17}"/>
   </bookViews>
   <sheets>
-    <sheet name="Mock-up" sheetId="5" r:id="rId1"/>
-    <sheet name="Use Case Diagram" sheetId="1" r:id="rId2"/>
-    <sheet name="Statechart Diagram" sheetId="3" r:id="rId3"/>
-    <sheet name="Navigational Path" sheetId="7" r:id="rId4"/>
-    <sheet name="Class Diagram" sheetId="6" r:id="rId5"/>
+    <sheet name="Sequence Diagram" sheetId="9" r:id="rId1"/>
+    <sheet name="Mock-up" sheetId="5" r:id="rId2"/>
+    <sheet name="Use Case Diagram" sheetId="1" r:id="rId3"/>
+    <sheet name="Statechart Diagram" sheetId="3" r:id="rId4"/>
+    <sheet name="Navigational Path" sheetId="7" r:id="rId5"/>
+    <sheet name="Class Diagram" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="28">
   <si>
     <t>DATA</t>
   </si>
@@ -72,21 +73,9 @@
     <t>0.2</t>
   </si>
   <si>
-    <t xml:space="preserve">Aggiunta Use Case Diagram Ospite </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aggiunta Use Case Diagram Utente </t>
-  </si>
-  <si>
-    <t>Aggiunta Use Case Diagram Contadino</t>
-  </si>
-  <si>
     <t>RS</t>
   </si>
   <si>
-    <t>Aggiunta Use Case Diagram Catalogo</t>
-  </si>
-  <si>
     <t>0.3</t>
   </si>
   <si>
@@ -102,12 +91,6 @@
     <t>Modificato Use Case Diagram Contadino</t>
   </si>
   <si>
-    <t>0.4</t>
-  </si>
-  <si>
-    <t>Aggiunta StateChart</t>
-  </si>
-  <si>
     <t>REVISON HISTORY - STATECHRT DIAGRAM</t>
   </si>
   <si>
@@ -118,13 +101,37 @@
   </si>
   <si>
     <t>REVISON HISTORY - NAVIGATIONAL PATH</t>
+  </si>
+  <si>
+    <t>REVISON HISTORY - SEQUENCE DIAGRAM</t>
+  </si>
+  <si>
+    <t>Creazione SD - Registrazione utente</t>
+  </si>
+  <si>
+    <t>Creazione SD - Registrazione contadino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creazione Use Case Diagram Ospite </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creazione Use Case Diagram Utente </t>
+  </si>
+  <si>
+    <t>Creazione Use Case Diagram Contadino</t>
+  </si>
+  <si>
+    <t>Creazione Use Case Diagram Catalogo</t>
+  </si>
+  <si>
+    <t>Creazione StateChart Diagram</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -140,16 +147,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFDA"/>
+        <bgColor rgb="FFE2EFDA"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -157,11 +177,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFA9D08E"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFA9D08E"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFA9D08E"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFA9D08E"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFA9D08E"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFA9D08E"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFA9D08E"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFA9D08E"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -178,11 +235,38 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="30">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -272,7 +356,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{04D74344-D276-384C-86AC-E6FCBC66F272}" name="Tabella15" displayName="Tabella15" ref="B2:E23" totalsRowShown="0" headerRowDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A7DC815F-E9FE-7F4D-BB4C-8E30E115A67B}" name="Tabella1463" displayName="Tabella1463" ref="B2:E23" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="B2:E23" xr:uid="{BFD3B3F1-39AF-574B-B4E2-6DD2F98814AC}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -280,16 +364,34 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{9CE3F216-5F00-C949-B764-1C474BC4E6F7}" name="DATA" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{B65B1588-D391-084E-B362-96ACBB55D55F}" name="VERSIONE" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{5A35C614-6143-2E41-B770-E9159B831AC1}" name="DESCRIZIONE" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{9279B9EE-E335-9A4B-A08C-E21EB6909A98}" name="AUTORE" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{384C1BB0-92F1-D249-A07F-24B79BF81468}" name="DATA" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{BBB4116C-4BFC-784D-A0B1-DBEA2E540F59}" name="VERSIONE" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{BBBB8EDF-7DF2-314C-8CD7-5E5A336EABD5}" name="DESCRIZIONE" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{E0EC0EC0-B349-A946-BCE1-53CDEA9E5021}" name="AUTORE" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{04D74344-D276-384C-86AC-E6FCBC66F272}" name="Tabella15" displayName="Tabella15" ref="B2:E23" totalsRowShown="0" headerRowDxfId="29">
+  <autoFilter ref="B2:E23" xr:uid="{BFD3B3F1-39AF-574B-B4E2-6DD2F98814AC}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{9CE3F216-5F00-C949-B764-1C474BC4E6F7}" name="DATA" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{B65B1588-D391-084E-B362-96ACBB55D55F}" name="VERSIONE" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{5A35C614-6143-2E41-B770-E9159B831AC1}" name="DESCRIZIONE" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{9279B9EE-E335-9A4B-A08C-E21EB6909A98}" name="AUTORE" dataDxfId="25"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BFD3B3F1-39AF-574B-B4E2-6DD2F98814AC}" name="Tabella1" displayName="Tabella1" ref="B2:E23" totalsRowShown="0" headerRowDxfId="24">
   <autoFilter ref="B2:E23" xr:uid="{BFD3B3F1-39AF-574B-B4E2-6DD2F98814AC}">
     <filterColumn colId="0" hiddenButton="1"/>
@@ -307,9 +409,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8E559B2E-DA0D-F143-8EFE-D37F837E0651}" name="Tabella14" displayName="Tabella14" ref="B2:E23" totalsRowShown="0" headerRowDxfId="19">
-  <autoFilter ref="B2:E23" xr:uid="{BFD3B3F1-39AF-574B-B4E2-6DD2F98814AC}">
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8E559B2E-DA0D-F143-8EFE-D37F837E0651}" name="Tabella14" displayName="Tabella14" ref="B2:E24" totalsRowShown="0" headerRowDxfId="19">
+  <autoFilter ref="B2:E24" xr:uid="{BFD3B3F1-39AF-574B-B4E2-6DD2F98814AC}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -325,8 +427,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{54B71CEB-3BE9-2D43-9426-5BB1E770D4EF}" name="Tabella1467" displayName="Tabella1467" ref="B2:E23" totalsRowShown="0" headerRowDxfId="4">
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{54B71CEB-3BE9-2D43-9426-5BB1E770D4EF}" name="Tabella1467" displayName="Tabella1467" ref="B2:E23" totalsRowShown="0" headerRowDxfId="14">
   <autoFilter ref="B2:E23" xr:uid="{BFD3B3F1-39AF-574B-B4E2-6DD2F98814AC}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -334,16 +436,16 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{EFC912E6-D157-384A-99D5-25B94006AD03}" name="DATA" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{047CD72C-0FBB-A641-99FF-B5F32B6A45C6}" name="VERSIONE" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{57F48B9D-75F1-C546-BE4B-0968141ED3E5}" name="DESCRIZIONE" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{9D7F8A0A-9573-854B-88DF-998DF658CB24}" name="AUTORE" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{EFC912E6-D157-384A-99D5-25B94006AD03}" name="DATA" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{047CD72C-0FBB-A641-99FF-B5F32B6A45C6}" name="VERSIONE" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{57F48B9D-75F1-C546-BE4B-0968141ED3E5}" name="DESCRIZIONE" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{9D7F8A0A-9573-854B-88DF-998DF658CB24}" name="AUTORE" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C631A97A-F7D8-594B-B7D2-25620C66AA81}" name="Tabella146" displayName="Tabella146" ref="B2:E23" totalsRowShown="0" headerRowDxfId="9">
   <autoFilter ref="B2:E23" xr:uid="{BFD3B3F1-39AF-574B-B4E2-6DD2F98814AC}">
     <filterColumn colId="0" hiddenButton="1"/>
@@ -657,11 +759,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256147BA-D926-674E-96C3-5C4EE21DE2A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4FF433-BE28-5B49-A7A6-6E0656AE40B0}">
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView zoomScale="135" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -675,7 +777,7 @@
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B1" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
@@ -696,20 +798,46 @@
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="2"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="1"/>
+      <c r="B3" s="6">
+        <v>44860</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="2"/>
-      <c r="C4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="B4" s="2">
+        <v>44872</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="2"/>
-      <c r="C5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="B5" s="2">
+        <v>44873</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="2"/>
@@ -824,604 +952,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9A7717B-E787-F440-A477-62CF32499A0B}">
-  <dimension ref="A1:E23"/>
-  <sheetViews>
-    <sheetView zoomScale="135" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="17" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="2">
-        <v>44860</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="2">
-        <v>44861</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="2">
-        <v>44861</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="2">
-        <v>44864</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="2">
-        <v>44864</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="2">
-        <v>44865</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="2">
-        <v>44865</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="2">
-        <v>44865</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="2">
-        <v>44865</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="2">
-        <v>44871</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="3"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="3"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="3"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="3"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="3"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="3"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="3"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="3"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="3"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="3"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="3"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:E1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69F97323-D4EC-FD45-9D8F-7A5F3A227394}">
-  <dimension ref="A1:E23"/>
-  <sheetViews>
-    <sheetView zoomScale="135" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="17" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="2">
-        <v>44871</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="2"/>
-      <c r="C4" s="1"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="2"/>
-      <c r="C5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="2"/>
-      <c r="C6" s="1"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="2"/>
-      <c r="C7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="2"/>
-      <c r="C8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="2"/>
-      <c r="C9" s="1"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="2"/>
-      <c r="C10" s="1"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="2"/>
-      <c r="C11" s="1"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="2"/>
-      <c r="C12" s="1"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="3"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="3"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="3"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="3"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="3"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="3"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="3"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="3"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="3"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="3"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="3"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:E1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AF668EB-F66C-0745-B382-56EACCF4771A}">
-  <dimension ref="A1:E23"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="17" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="2"/>
-      <c r="C3" s="1"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="2"/>
-      <c r="C4" s="1"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="2"/>
-      <c r="C5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="2"/>
-      <c r="C6" s="1"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="2"/>
-      <c r="C7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="2"/>
-      <c r="C8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="2"/>
-      <c r="C9" s="1"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="2"/>
-      <c r="C10" s="1"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="2"/>
-      <c r="C11" s="1"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="2"/>
-      <c r="C12" s="1"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="3"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="3"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="3"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="3"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="3"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="3"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="3"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="3"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="3"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="3"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="3"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:E1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC713557-CF4C-3449-B7F2-607954CE9E41}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256147BA-D926-674E-96C3-5C4EE21DE2A0}">
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView zoomScale="135" workbookViewId="0">
@@ -1439,7 +970,7 @@
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B1" s="5" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
@@ -1460,9 +991,804 @@
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="2"/>
-      <c r="C3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="B3" s="6">
+        <v>44860</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="2"/>
+      <c r="C4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="2"/>
+      <c r="C5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="2"/>
+      <c r="C6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="2"/>
+      <c r="C7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="2"/>
+      <c r="C8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="2"/>
+      <c r="C9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="2"/>
+      <c r="C10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="2"/>
+      <c r="C11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="2"/>
+      <c r="C12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="3"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="3"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="3"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="3"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="3"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="3"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="3"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="3"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B21" s="3"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B22" s="3"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23" s="3"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9A7717B-E787-F440-A477-62CF32499A0B}">
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView zoomScale="135" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="2">
+        <v>44860</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="2">
+        <v>44861</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="2">
+        <v>44861</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="2">
+        <v>44864</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="2">
+        <v>44864</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="2">
+        <v>44865</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="2">
+        <v>44865</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="2">
+        <v>44865</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="2">
+        <v>44865</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="2"/>
+      <c r="C12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="3"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="3"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="3"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="3"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="3"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="3"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="3"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="3"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B21" s="3"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B22" s="3"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23" s="3"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69F97323-D4EC-FD45-9D8F-7A5F3A227394}">
+  <dimension ref="A1:E24"/>
+  <sheetViews>
+    <sheetView zoomScale="135" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="2">
+        <v>44860</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="2">
+        <v>44871</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="2"/>
+      <c r="C5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="2"/>
+      <c r="C6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="2"/>
+      <c r="C7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="2"/>
+      <c r="C8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="2"/>
+      <c r="C9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="2"/>
+      <c r="C10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="2"/>
+      <c r="C11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="2"/>
+      <c r="C12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="2"/>
+      <c r="C13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="3"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="3"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="3"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="3"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="3"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="3"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="3"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B21" s="3"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B22" s="3"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23" s="3"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B24" s="3"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AF668EB-F66C-0745-B382-56EACCF4771A}">
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView zoomScale="135" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="6">
+        <v>44860</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="2"/>
+      <c r="C4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="2"/>
+      <c r="C5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="2"/>
+      <c r="C6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="2"/>
+      <c r="C7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="2"/>
+      <c r="C8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="2"/>
+      <c r="C9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="2"/>
+      <c r="C10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="2"/>
+      <c r="C11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="2"/>
+      <c r="C12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="3"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="3"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="3"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="3"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="3"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="3"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="3"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="3"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B21" s="3"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B22" s="3"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23" s="3"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC713557-CF4C-3449-B7F2-607954CE9E41}">
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="6">
+        <v>44860</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="2"/>

--- a/Documenti di Progetto/Revision History - Figma.xlsx
+++ b/Documenti di Progetto/Revision History - Figma.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raffaella/Documents/WoodLot/Documenti di Progetto/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salva\GitHub\WoodLot\Documenti di Progetto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{703F4D0D-7477-964A-8890-A1CF72A55E23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E062AEA2-2BD9-4F02-8E04-33FBF2817772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" activeTab="5" xr2:uid="{4A92E1C4-0C03-B648-8F37-4C727B03EE17}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{4A92E1C4-0C03-B648-8F37-4C727B03EE17}"/>
   </bookViews>
   <sheets>
     <sheet name="Sequence Diagram" sheetId="9" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="35">
   <si>
     <t>DATA</t>
   </si>
@@ -125,6 +125,27 @@
   </si>
   <si>
     <t>Creazione StateChart Diagram</t>
+  </si>
+  <si>
+    <t>Creazione SD - Effettuare una ricerca</t>
+  </si>
+  <si>
+    <t>Creazione SD - Aggiungere prodotto</t>
+  </si>
+  <si>
+    <t>Creazione SD - Modificare quantita</t>
+  </si>
+  <si>
+    <t>Creazione SD - Eliminare prodotto</t>
+  </si>
+  <si>
+    <t>Creazione SD - Svuotare carrello</t>
+  </si>
+  <si>
+    <t>Creazione SD - Effettuare ordine</t>
+  </si>
+  <si>
+    <t>Creazione SD - Aggiornare dati</t>
   </si>
 </sst>
 </file>
@@ -232,9 +253,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -245,6 +263,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -356,7 +377,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A7DC815F-E9FE-7F4D-BB4C-8E30E115A67B}" name="Tabella1463" displayName="Tabella1463" ref="B2:E23" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A7DC815F-E9FE-7F4D-BB4C-8E30E115A67B}" name="Tabella1463" displayName="Tabella1463" ref="B2:E23" totalsRowShown="0" headerRowDxfId="29">
   <autoFilter ref="B2:E23" xr:uid="{BFD3B3F1-39AF-574B-B4E2-6DD2F98814AC}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -364,17 +385,17 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{384C1BB0-92F1-D249-A07F-24B79BF81468}" name="DATA" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{BBB4116C-4BFC-784D-A0B1-DBEA2E540F59}" name="VERSIONE" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{BBBB8EDF-7DF2-314C-8CD7-5E5A336EABD5}" name="DESCRIZIONE" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{E0EC0EC0-B349-A946-BCE1-53CDEA9E5021}" name="AUTORE" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{384C1BB0-92F1-D249-A07F-24B79BF81468}" name="DATA" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{BBB4116C-4BFC-784D-A0B1-DBEA2E540F59}" name="VERSIONE" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{BBBB8EDF-7DF2-314C-8CD7-5E5A336EABD5}" name="DESCRIZIONE" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{E0EC0EC0-B349-A946-BCE1-53CDEA9E5021}" name="AUTORE" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{04D74344-D276-384C-86AC-E6FCBC66F272}" name="Tabella15" displayName="Tabella15" ref="B2:E23" totalsRowShown="0" headerRowDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{04D74344-D276-384C-86AC-E6FCBC66F272}" name="Tabella15" displayName="Tabella15" ref="B2:E23" totalsRowShown="0" headerRowDxfId="24">
   <autoFilter ref="B2:E23" xr:uid="{BFD3B3F1-39AF-574B-B4E2-6DD2F98814AC}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -382,17 +403,17 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{9CE3F216-5F00-C949-B764-1C474BC4E6F7}" name="DATA" dataDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{B65B1588-D391-084E-B362-96ACBB55D55F}" name="VERSIONE" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{5A35C614-6143-2E41-B770-E9159B831AC1}" name="DESCRIZIONE" dataDxfId="26"/>
-    <tableColumn id="4" xr3:uid="{9279B9EE-E335-9A4B-A08C-E21EB6909A98}" name="AUTORE" dataDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{9CE3F216-5F00-C949-B764-1C474BC4E6F7}" name="DATA" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{B65B1588-D391-084E-B362-96ACBB55D55F}" name="VERSIONE" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{5A35C614-6143-2E41-B770-E9159B831AC1}" name="DESCRIZIONE" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{9279B9EE-E335-9A4B-A08C-E21EB6909A98}" name="AUTORE" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BFD3B3F1-39AF-574B-B4E2-6DD2F98814AC}" name="Tabella1" displayName="Tabella1" ref="B2:E23" totalsRowShown="0" headerRowDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BFD3B3F1-39AF-574B-B4E2-6DD2F98814AC}" name="Tabella1" displayName="Tabella1" ref="B2:E23" totalsRowShown="0" headerRowDxfId="19">
   <autoFilter ref="B2:E23" xr:uid="{BFD3B3F1-39AF-574B-B4E2-6DD2F98814AC}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -400,17 +421,17 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{D2472224-3F02-2744-8657-6A872C869000}" name="DATA" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{7FA9BCB9-E897-B440-9BF5-675437705F38}" name="VERSIONE" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{287F26B4-1CCD-AC44-AD6B-D76F16EAB32B}" name="DESCRIZIONE" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{8213545A-71F5-B24E-B9A1-3418391DCE22}" name="AUTORE" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{D2472224-3F02-2744-8657-6A872C869000}" name="DATA" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{7FA9BCB9-E897-B440-9BF5-675437705F38}" name="VERSIONE" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{287F26B4-1CCD-AC44-AD6B-D76F16EAB32B}" name="DESCRIZIONE" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{8213545A-71F5-B24E-B9A1-3418391DCE22}" name="AUTORE" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8E559B2E-DA0D-F143-8EFE-D37F837E0651}" name="Tabella14" displayName="Tabella14" ref="B2:E24" totalsRowShown="0" headerRowDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8E559B2E-DA0D-F143-8EFE-D37F837E0651}" name="Tabella14" displayName="Tabella14" ref="B2:E24" totalsRowShown="0" headerRowDxfId="14">
   <autoFilter ref="B2:E24" xr:uid="{BFD3B3F1-39AF-574B-B4E2-6DD2F98814AC}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -418,17 +439,17 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{378C1216-916E-5544-9728-AA01BCB8B490}" name="DATA" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{C0CC21E6-1BDA-674A-BF46-2171B580AC90}" name="VERSIONE" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{120155EA-3E0E-6B4B-A0E1-2E2B0D2F3140}" name="DESCRIZIONE" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{93260112-5814-1241-B832-6563BE25C71F}" name="AUTORE" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{378C1216-916E-5544-9728-AA01BCB8B490}" name="DATA" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{C0CC21E6-1BDA-674A-BF46-2171B580AC90}" name="VERSIONE" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{120155EA-3E0E-6B4B-A0E1-2E2B0D2F3140}" name="DESCRIZIONE" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{93260112-5814-1241-B832-6563BE25C71F}" name="AUTORE" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{54B71CEB-3BE9-2D43-9426-5BB1E770D4EF}" name="Tabella1467" displayName="Tabella1467" ref="B2:E23" totalsRowShown="0" headerRowDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{54B71CEB-3BE9-2D43-9426-5BB1E770D4EF}" name="Tabella1467" displayName="Tabella1467" ref="B2:E23" totalsRowShown="0" headerRowDxfId="9">
   <autoFilter ref="B2:E23" xr:uid="{BFD3B3F1-39AF-574B-B4E2-6DD2F98814AC}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -436,17 +457,17 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{EFC912E6-D157-384A-99D5-25B94006AD03}" name="DATA" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{047CD72C-0FBB-A641-99FF-B5F32B6A45C6}" name="VERSIONE" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{57F48B9D-75F1-C546-BE4B-0968141ED3E5}" name="DESCRIZIONE" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{9D7F8A0A-9573-854B-88DF-998DF658CB24}" name="AUTORE" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{EFC912E6-D157-384A-99D5-25B94006AD03}" name="DATA" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{047CD72C-0FBB-A641-99FF-B5F32B6A45C6}" name="VERSIONE" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{57F48B9D-75F1-C546-BE4B-0968141ED3E5}" name="DESCRIZIONE" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{9D7F8A0A-9573-854B-88DF-998DF658CB24}" name="AUTORE" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C631A97A-F7D8-594B-B7D2-25620C66AA81}" name="Tabella146" displayName="Tabella146" ref="B2:E23" totalsRowShown="0" headerRowDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C631A97A-F7D8-594B-B7D2-25620C66AA81}" name="Tabella146" displayName="Tabella146" ref="B2:E23" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="B2:E23" xr:uid="{BFD3B3F1-39AF-574B-B4E2-6DD2F98814AC}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -454,10 +475,10 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{7C7AFF3E-F623-924D-A0B4-16386F27322B}" name="DATA" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{1C2CD86D-9E3B-5A4A-9634-44B2F9F64A34}" name="VERSIONE" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{6B5D89E2-E9F3-0348-AC4F-276719705EF0}" name="DESCRIZIONE" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{6F8E928E-C13E-3441-945B-4D39C4C14E21}" name="AUTORE" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{7C7AFF3E-F623-924D-A0B4-16386F27322B}" name="DATA" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{1C2CD86D-9E3B-5A4A-9634-44B2F9F64A34}" name="VERSIONE" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{6B5D89E2-E9F3-0348-AC4F-276719705EF0}" name="DESCRIZIONE" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{6F8E928E-C13E-3441-945B-4D39C4C14E21}" name="AUTORE" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -762,28 +783,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4FF433-BE28-5B49-A7A6-6E0656AE40B0}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView zoomScale="135" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -797,21 +818,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="6">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="5">
         <v>44860</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>44872</v>
       </c>
@@ -825,7 +846,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>44873</v>
       </c>
@@ -839,105 +860,157 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="2"/>
-      <c r="C6" s="1"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="2"/>
-      <c r="C7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="2"/>
-      <c r="C8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="2"/>
-      <c r="C9" s="1"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="2"/>
-      <c r="C10" s="1"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="2"/>
-      <c r="C11" s="1"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="2"/>
-      <c r="C12" s="1"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>44873</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <v>44873</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <v>44873</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <v>44873</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <v>44873</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
+        <v>44873</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="2">
+        <v>44873</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="3"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="4"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="4"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="4"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="4"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="3"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="4"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="4"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="4"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="4"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="4"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="4"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="4"/>
       <c r="E23" s="1"/>
     </row>
   </sheetData>
@@ -959,24 +1032,24 @@
       <selection activeCell="B3" sqref="B3:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -990,126 +1063,126 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="6">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="5">
         <v>44860</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
       <c r="C4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="3"/>
       <c r="C13" s="1"/>
       <c r="D13" s="4"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
       <c r="C14" s="1"/>
       <c r="D14" s="4"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
       <c r="C15" s="1"/>
       <c r="D15" s="4"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
       <c r="C16" s="1"/>
       <c r="D16" s="4"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="3"/>
       <c r="C17" s="1"/>
       <c r="D17" s="4"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
       <c r="C18" s="1"/>
       <c r="D18" s="4"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
       <c r="C19" s="1"/>
       <c r="D19" s="4"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
       <c r="C20" s="1"/>
       <c r="D20" s="4"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
       <c r="C21" s="1"/>
       <c r="D21" s="4"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
       <c r="C22" s="1"/>
       <c r="D22" s="4"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
       <c r="C23" s="1"/>
       <c r="D23" s="4"/>
@@ -1134,24 +1207,24 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1165,7 +1238,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
         <v>44860</v>
       </c>
@@ -1179,7 +1252,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>44861</v>
       </c>
@@ -1193,7 +1266,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>44861</v>
       </c>
@@ -1207,7 +1280,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>44864</v>
       </c>
@@ -1221,7 +1294,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>44864</v>
       </c>
@@ -1235,7 +1308,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>44865</v>
       </c>
@@ -1249,7 +1322,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>44865</v>
       </c>
@@ -1263,7 +1336,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <v>44865</v>
       </c>
@@ -1277,7 +1350,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>44865</v>
       </c>
@@ -1291,72 +1364,72 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="3"/>
       <c r="C13" s="1"/>
       <c r="D13" s="4"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
       <c r="C14" s="1"/>
       <c r="D14" s="4"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
       <c r="C15" s="1"/>
       <c r="D15" s="4"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
       <c r="C16" s="1"/>
       <c r="D16" s="4"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="3"/>
       <c r="C17" s="1"/>
       <c r="D17" s="4"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
       <c r="C18" s="1"/>
       <c r="D18" s="4"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
       <c r="C19" s="1"/>
       <c r="D19" s="4"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
       <c r="C20" s="1"/>
       <c r="D20" s="4"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
       <c r="C21" s="1"/>
       <c r="D21" s="4"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
       <c r="C22" s="1"/>
       <c r="D22" s="4"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
       <c r="C23" s="1"/>
       <c r="D23" s="4"/>
@@ -1381,24 +1454,24 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1412,7 +1485,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
         <v>44860</v>
       </c>
@@ -1426,7 +1499,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>44871</v>
       </c>
@@ -1440,112 +1513,112 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
       <c r="C14" s="1"/>
       <c r="D14" s="4"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
       <c r="C15" s="1"/>
       <c r="D15" s="4"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
       <c r="C16" s="1"/>
       <c r="D16" s="4"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="3"/>
       <c r="C17" s="1"/>
       <c r="D17" s="4"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
       <c r="C18" s="1"/>
       <c r="D18" s="4"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
       <c r="C19" s="1"/>
       <c r="D19" s="4"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
       <c r="C20" s="1"/>
       <c r="D20" s="4"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
       <c r="C21" s="1"/>
       <c r="D21" s="4"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
       <c r="C22" s="1"/>
       <c r="D22" s="4"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
       <c r="C23" s="1"/>
       <c r="D23" s="4"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="1"/>
       <c r="D24" s="4"/>
@@ -1570,24 +1643,24 @@
       <selection activeCell="B3" sqref="B3:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1601,126 +1674,126 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="6">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="5">
         <v>44860</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
       <c r="C4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="3"/>
       <c r="C13" s="1"/>
       <c r="D13" s="4"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
       <c r="C14" s="1"/>
       <c r="D14" s="4"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
       <c r="C15" s="1"/>
       <c r="D15" s="4"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
       <c r="C16" s="1"/>
       <c r="D16" s="4"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="3"/>
       <c r="C17" s="1"/>
       <c r="D17" s="4"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
       <c r="C18" s="1"/>
       <c r="D18" s="4"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
       <c r="C19" s="1"/>
       <c r="D19" s="4"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
       <c r="C20" s="1"/>
       <c r="D20" s="4"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
       <c r="C21" s="1"/>
       <c r="D21" s="4"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
       <c r="C22" s="1"/>
       <c r="D22" s="4"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
       <c r="C23" s="1"/>
       <c r="D23" s="4"/>
@@ -1741,28 +1814,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC713557-CF4C-3449-B7F2-607954CE9E41}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
+    <sheetView zoomScale="135" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1776,126 +1849,126 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="6">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="5">
         <v>44860</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
       <c r="C4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="3"/>
       <c r="C13" s="1"/>
       <c r="D13" s="4"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
       <c r="C14" s="1"/>
       <c r="D14" s="4"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
       <c r="C15" s="1"/>
       <c r="D15" s="4"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
       <c r="C16" s="1"/>
       <c r="D16" s="4"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="3"/>
       <c r="C17" s="1"/>
       <c r="D17" s="4"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
       <c r="C18" s="1"/>
       <c r="D18" s="4"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
       <c r="C19" s="1"/>
       <c r="D19" s="4"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
       <c r="C20" s="1"/>
       <c r="D20" s="4"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
       <c r="C21" s="1"/>
       <c r="D21" s="4"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
       <c r="C22" s="1"/>
       <c r="D22" s="4"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
       <c r="C23" s="1"/>
       <c r="D23" s="4"/>

--- a/Documenti di Progetto/Revision History - Figma.xlsx
+++ b/Documenti di Progetto/Revision History - Figma.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salva\GitHub\WoodLot\Documenti di Progetto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raffaella/Documents/WoodLot/Documenti di Progetto/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E062AEA2-2BD9-4F02-8E04-33FBF2817772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7731BF1-E6C4-4A46-9B23-15F837F934FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{4A92E1C4-0C03-B648-8F37-4C727B03EE17}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{4A92E1C4-0C03-B648-8F37-4C727B03EE17}"/>
   </bookViews>
   <sheets>
     <sheet name="Sequence Diagram" sheetId="9" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="38">
   <si>
     <t>DATA</t>
   </si>
@@ -146,6 +146,15 @@
   </si>
   <si>
     <t>Creazione SD - Aggiornare dati</t>
+  </si>
+  <si>
+    <t>Creazione SD - Login</t>
+  </si>
+  <si>
+    <t>Creazione SD - Logout</t>
+  </si>
+  <si>
+    <t>Creazione SD - Reimposta Password</t>
   </si>
 </sst>
 </file>
@@ -784,19 +793,19 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B1" s="9" t="s">
         <v>20</v>
       </c>
@@ -804,7 +813,7 @@
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -818,7 +827,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="5">
         <v>44860</v>
       </c>
@@ -832,7 +841,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
         <v>44872</v>
       </c>
@@ -846,7 +855,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <v>44873</v>
       </c>
@@ -860,7 +869,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="2">
         <v>44873</v>
       </c>
@@ -874,7 +883,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="2">
         <v>44873</v>
       </c>
@@ -888,7 +897,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="2">
         <v>44873</v>
       </c>
@@ -902,7 +911,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="2">
         <v>44873</v>
       </c>
@@ -916,7 +925,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="2">
         <v>44873</v>
       </c>
@@ -930,7 +939,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="2">
         <v>44873</v>
       </c>
@@ -944,7 +953,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="2">
         <v>44873</v>
       </c>
@@ -958,57 +967,84 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="3"/>
-      <c r="C13" s="1"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="3"/>
-      <c r="C14" s="1"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="3"/>
-      <c r="C15" s="1"/>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="2">
+        <v>44873</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="2">
+        <v>44873</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="5">
+        <v>44873</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="3"/>
       <c r="C16" s="1"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="3"/>
       <c r="C17" s="1"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="3"/>
       <c r="C18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="3"/>
       <c r="C19" s="1"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="3"/>
       <c r="C20" s="1"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="3"/>
       <c r="C21" s="1"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="3"/>
       <c r="C22" s="1"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="3"/>
       <c r="C23" s="1"/>
       <c r="E23" s="1"/>
@@ -1032,16 +1068,16 @@
       <selection activeCell="B3" sqref="B3:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B1" s="9" t="s">
         <v>17</v>
       </c>
@@ -1049,7 +1085,7 @@
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1063,7 +1099,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="5">
         <v>44860</v>
       </c>
@@ -1077,112 +1113,112 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="2"/>
       <c r="C4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
       <c r="C5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="2"/>
       <c r="C6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="2"/>
       <c r="C7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
       <c r="C8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="2"/>
       <c r="C9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="2"/>
       <c r="C10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="2"/>
       <c r="C11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="2"/>
       <c r="C12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="3"/>
       <c r="C13" s="1"/>
       <c r="D13" s="4"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="3"/>
       <c r="C14" s="1"/>
       <c r="D14" s="4"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="3"/>
       <c r="C15" s="1"/>
       <c r="D15" s="4"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="3"/>
       <c r="C16" s="1"/>
       <c r="D16" s="4"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="3"/>
       <c r="C17" s="1"/>
       <c r="D17" s="4"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="3"/>
       <c r="C18" s="1"/>
       <c r="D18" s="4"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="3"/>
       <c r="C19" s="1"/>
       <c r="D19" s="4"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="3"/>
       <c r="C20" s="1"/>
       <c r="D20" s="4"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="3"/>
       <c r="C21" s="1"/>
       <c r="D21" s="4"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="3"/>
       <c r="C22" s="1"/>
       <c r="D22" s="4"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="3"/>
       <c r="C23" s="1"/>
       <c r="D23" s="4"/>
@@ -1207,16 +1243,16 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B1" s="9" t="s">
         <v>7</v>
       </c>
@@ -1224,7 +1260,7 @@
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1238,7 +1274,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="2">
         <v>44860</v>
       </c>
@@ -1252,7 +1288,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
         <v>44861</v>
       </c>
@@ -1266,7 +1302,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <v>44861</v>
       </c>
@@ -1280,7 +1316,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="2">
         <v>44864</v>
       </c>
@@ -1294,7 +1330,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="2">
         <v>44864</v>
       </c>
@@ -1308,7 +1344,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="2">
         <v>44865</v>
       </c>
@@ -1322,7 +1358,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="2">
         <v>44865</v>
       </c>
@@ -1336,7 +1372,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="2">
         <v>44865</v>
       </c>
@@ -1350,7 +1386,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="2">
         <v>44865</v>
       </c>
@@ -1364,72 +1400,72 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="2"/>
       <c r="C12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="3"/>
       <c r="C13" s="1"/>
       <c r="D13" s="4"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="3"/>
       <c r="C14" s="1"/>
       <c r="D14" s="4"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="3"/>
       <c r="C15" s="1"/>
       <c r="D15" s="4"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="3"/>
       <c r="C16" s="1"/>
       <c r="D16" s="4"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="3"/>
       <c r="C17" s="1"/>
       <c r="D17" s="4"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="3"/>
       <c r="C18" s="1"/>
       <c r="D18" s="4"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="3"/>
       <c r="C19" s="1"/>
       <c r="D19" s="4"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="3"/>
       <c r="C20" s="1"/>
       <c r="D20" s="4"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="3"/>
       <c r="C21" s="1"/>
       <c r="D21" s="4"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="3"/>
       <c r="C22" s="1"/>
       <c r="D22" s="4"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="3"/>
       <c r="C23" s="1"/>
       <c r="D23" s="4"/>
@@ -1454,16 +1490,16 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B1" s="9" t="s">
         <v>16</v>
       </c>
@@ -1471,7 +1507,7 @@
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1485,7 +1521,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="2">
         <v>44860</v>
       </c>
@@ -1499,7 +1535,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
         <v>44871</v>
       </c>
@@ -1513,112 +1549,112 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
       <c r="C5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="2"/>
       <c r="C6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="2"/>
       <c r="C7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
       <c r="C8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="2"/>
       <c r="C9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="2"/>
       <c r="C10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="2"/>
       <c r="C11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="2"/>
       <c r="C12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
       <c r="C13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="3"/>
       <c r="C14" s="1"/>
       <c r="D14" s="4"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="3"/>
       <c r="C15" s="1"/>
       <c r="D15" s="4"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="3"/>
       <c r="C16" s="1"/>
       <c r="D16" s="4"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="3"/>
       <c r="C17" s="1"/>
       <c r="D17" s="4"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="3"/>
       <c r="C18" s="1"/>
       <c r="D18" s="4"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="3"/>
       <c r="C19" s="1"/>
       <c r="D19" s="4"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="3"/>
       <c r="C20" s="1"/>
       <c r="D20" s="4"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="3"/>
       <c r="C21" s="1"/>
       <c r="D21" s="4"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="3"/>
       <c r="C22" s="1"/>
       <c r="D22" s="4"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="3"/>
       <c r="C23" s="1"/>
       <c r="D23" s="4"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="3"/>
       <c r="C24" s="1"/>
       <c r="D24" s="4"/>
@@ -1643,16 +1679,16 @@
       <selection activeCell="B3" sqref="B3:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B1" s="9" t="s">
         <v>19</v>
       </c>
@@ -1660,7 +1696,7 @@
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1674,7 +1710,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="5">
         <v>44860</v>
       </c>
@@ -1688,112 +1724,112 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="2"/>
       <c r="C4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
       <c r="C5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="2"/>
       <c r="C6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="2"/>
       <c r="C7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
       <c r="C8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="2"/>
       <c r="C9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="2"/>
       <c r="C10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="2"/>
       <c r="C11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="2"/>
       <c r="C12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="3"/>
       <c r="C13" s="1"/>
       <c r="D13" s="4"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="3"/>
       <c r="C14" s="1"/>
       <c r="D14" s="4"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="3"/>
       <c r="C15" s="1"/>
       <c r="D15" s="4"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="3"/>
       <c r="C16" s="1"/>
       <c r="D16" s="4"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="3"/>
       <c r="C17" s="1"/>
       <c r="D17" s="4"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="3"/>
       <c r="C18" s="1"/>
       <c r="D18" s="4"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="3"/>
       <c r="C19" s="1"/>
       <c r="D19" s="4"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="3"/>
       <c r="C20" s="1"/>
       <c r="D20" s="4"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="3"/>
       <c r="C21" s="1"/>
       <c r="D21" s="4"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="3"/>
       <c r="C22" s="1"/>
       <c r="D22" s="4"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="3"/>
       <c r="C23" s="1"/>
       <c r="D23" s="4"/>
@@ -1818,16 +1854,16 @@
       <selection activeCell="B3" sqref="B3:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B1" s="9" t="s">
         <v>18</v>
       </c>
@@ -1835,7 +1871,7 @@
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1849,7 +1885,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="5">
         <v>44860</v>
       </c>
@@ -1863,112 +1899,112 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="2"/>
       <c r="C4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
       <c r="C5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="2"/>
       <c r="C6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="2"/>
       <c r="C7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
       <c r="C8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="2"/>
       <c r="C9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="2"/>
       <c r="C10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="2"/>
       <c r="C11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="2"/>
       <c r="C12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="3"/>
       <c r="C13" s="1"/>
       <c r="D13" s="4"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="3"/>
       <c r="C14" s="1"/>
       <c r="D14" s="4"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="3"/>
       <c r="C15" s="1"/>
       <c r="D15" s="4"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="3"/>
       <c r="C16" s="1"/>
       <c r="D16" s="4"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="3"/>
       <c r="C17" s="1"/>
       <c r="D17" s="4"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="3"/>
       <c r="C18" s="1"/>
       <c r="D18" s="4"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="3"/>
       <c r="C19" s="1"/>
       <c r="D19" s="4"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="3"/>
       <c r="C20" s="1"/>
       <c r="D20" s="4"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="3"/>
       <c r="C21" s="1"/>
       <c r="D21" s="4"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="3"/>
       <c r="C22" s="1"/>
       <c r="D22" s="4"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="3"/>
       <c r="C23" s="1"/>
       <c r="D23" s="4"/>

--- a/Documenti di Progetto/Revision History - Figma.xlsx
+++ b/Documenti di Progetto/Revision History - Figma.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raffaella/Documents/WoodLot/Documenti di Progetto/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alessiature/Desktop/WoodLot/Documenti di Progetto/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7731BF1-E6C4-4A46-9B23-15F837F934FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1832B3D-2031-D048-B2FB-DFD5D8B6CD72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{4A92E1C4-0C03-B648-8F37-4C727B03EE17}"/>
+    <workbookView xWindow="-620" yWindow="500" windowWidth="17920" windowHeight="15720" xr2:uid="{4A92E1C4-0C03-B648-8F37-4C727B03EE17}"/>
   </bookViews>
   <sheets>
     <sheet name="Sequence Diagram" sheetId="9" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="46">
   <si>
     <t>DATA</t>
   </si>
@@ -155,6 +155,30 @@
   </si>
   <si>
     <t>Creazione SD - Reimposta Password</t>
+  </si>
+  <si>
+    <t>Creazione SD - Codice Sconto</t>
+  </si>
+  <si>
+    <t>Creazione SD - Creare Foresta</t>
+  </si>
+  <si>
+    <t>Creazione SD - Aggiungere albero</t>
+  </si>
+  <si>
+    <t>Creazione SD - Modificare dati pagamento</t>
+  </si>
+  <si>
+    <t>Creazione SD - Inserimento nuovo prodotto</t>
+  </si>
+  <si>
+    <t>Creazione SD - Modificare prodotto</t>
+  </si>
+  <si>
+    <t>Creazione SD - Modificare dati foresta</t>
+  </si>
+  <si>
+    <t>Creazione SD - Riscattare TreeCode</t>
   </si>
 </sst>
 </file>
@@ -248,7 +272,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -277,15 +301,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="31">
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -293,9 +326,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -386,7 +416,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A7DC815F-E9FE-7F4D-BB4C-8E30E115A67B}" name="Tabella1463" displayName="Tabella1463" ref="B2:E23" totalsRowShown="0" headerRowDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A7DC815F-E9FE-7F4D-BB4C-8E30E115A67B}" name="Tabella1463" displayName="Tabella1463" ref="B2:E24" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="B2:E24" xr:uid="{BFD3B3F1-39AF-574B-B4E2-6DD2F98814AC}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{384C1BB0-92F1-D249-A07F-24B79BF81468}" name="DATA" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{BBB4116C-4BFC-784D-A0B1-DBEA2E540F59}" name="VERSIONE" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{BBBB8EDF-7DF2-314C-8CD7-5E5A336EABD5}" name="DESCRIZIONE" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{E0EC0EC0-B349-A946-BCE1-53CDEA9E5021}" name="AUTORE" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{04D74344-D276-384C-86AC-E6FCBC66F272}" name="Tabella15" displayName="Tabella15" ref="B2:E23" totalsRowShown="0" headerRowDxfId="30">
   <autoFilter ref="B2:E23" xr:uid="{BFD3B3F1-39AF-574B-B4E2-6DD2F98814AC}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -394,17 +442,17 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{384C1BB0-92F1-D249-A07F-24B79BF81468}" name="DATA" dataDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{BBB4116C-4BFC-784D-A0B1-DBEA2E540F59}" name="VERSIONE" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{BBBB8EDF-7DF2-314C-8CD7-5E5A336EABD5}" name="DESCRIZIONE" dataDxfId="26"/>
-    <tableColumn id="4" xr3:uid="{E0EC0EC0-B349-A946-BCE1-53CDEA9E5021}" name="AUTORE" dataDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{9CE3F216-5F00-C949-B764-1C474BC4E6F7}" name="DATA" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{B65B1588-D391-084E-B362-96ACBB55D55F}" name="VERSIONE" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{5A35C614-6143-2E41-B770-E9159B831AC1}" name="DESCRIZIONE" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{9279B9EE-E335-9A4B-A08C-E21EB6909A98}" name="AUTORE" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{04D74344-D276-384C-86AC-E6FCBC66F272}" name="Tabella15" displayName="Tabella15" ref="B2:E23" totalsRowShown="0" headerRowDxfId="24">
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BFD3B3F1-39AF-574B-B4E2-6DD2F98814AC}" name="Tabella1" displayName="Tabella1" ref="B2:E23" totalsRowShown="0" headerRowDxfId="25">
   <autoFilter ref="B2:E23" xr:uid="{BFD3B3F1-39AF-574B-B4E2-6DD2F98814AC}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -412,17 +460,35 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{9CE3F216-5F00-C949-B764-1C474BC4E6F7}" name="DATA" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{B65B1588-D391-084E-B362-96ACBB55D55F}" name="VERSIONE" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{5A35C614-6143-2E41-B770-E9159B831AC1}" name="DESCRIZIONE" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{9279B9EE-E335-9A4B-A08C-E21EB6909A98}" name="AUTORE" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{D2472224-3F02-2744-8657-6A872C869000}" name="DATA" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{7FA9BCB9-E897-B440-9BF5-675437705F38}" name="VERSIONE" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{287F26B4-1CCD-AC44-AD6B-D76F16EAB32B}" name="DESCRIZIONE" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{8213545A-71F5-B24E-B9A1-3418391DCE22}" name="AUTORE" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BFD3B3F1-39AF-574B-B4E2-6DD2F98814AC}" name="Tabella1" displayName="Tabella1" ref="B2:E23" totalsRowShown="0" headerRowDxfId="19">
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8E559B2E-DA0D-F143-8EFE-D37F837E0651}" name="Tabella14" displayName="Tabella14" ref="B2:E24" totalsRowShown="0" headerRowDxfId="20">
+  <autoFilter ref="B2:E24" xr:uid="{BFD3B3F1-39AF-574B-B4E2-6DD2F98814AC}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{378C1216-916E-5544-9728-AA01BCB8B490}" name="DATA" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{C0CC21E6-1BDA-674A-BF46-2171B580AC90}" name="VERSIONE" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{120155EA-3E0E-6B4B-A0E1-2E2B0D2F3140}" name="DESCRIZIONE" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{93260112-5814-1241-B832-6563BE25C71F}" name="AUTORE" dataDxfId="16"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{54B71CEB-3BE9-2D43-9426-5BB1E770D4EF}" name="Tabella1467" displayName="Tabella1467" ref="B2:E23" totalsRowShown="0" headerRowDxfId="15">
   <autoFilter ref="B2:E23" xr:uid="{BFD3B3F1-39AF-574B-B4E2-6DD2F98814AC}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -430,35 +496,17 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{D2472224-3F02-2744-8657-6A872C869000}" name="DATA" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{7FA9BCB9-E897-B440-9BF5-675437705F38}" name="VERSIONE" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{287F26B4-1CCD-AC44-AD6B-D76F16EAB32B}" name="DESCRIZIONE" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{8213545A-71F5-B24E-B9A1-3418391DCE22}" name="AUTORE" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{EFC912E6-D157-384A-99D5-25B94006AD03}" name="DATA" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{047CD72C-0FBB-A641-99FF-B5F32B6A45C6}" name="VERSIONE" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{57F48B9D-75F1-C546-BE4B-0968141ED3E5}" name="DESCRIZIONE" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{9D7F8A0A-9573-854B-88DF-998DF658CB24}" name="AUTORE" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8E559B2E-DA0D-F143-8EFE-D37F837E0651}" name="Tabella14" displayName="Tabella14" ref="B2:E24" totalsRowShown="0" headerRowDxfId="14">
-  <autoFilter ref="B2:E24" xr:uid="{BFD3B3F1-39AF-574B-B4E2-6DD2F98814AC}">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-    <filterColumn colId="2" hiddenButton="1"/>
-    <filterColumn colId="3" hiddenButton="1"/>
-  </autoFilter>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{378C1216-916E-5544-9728-AA01BCB8B490}" name="DATA" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{C0CC21E6-1BDA-674A-BF46-2171B580AC90}" name="VERSIONE" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{120155EA-3E0E-6B4B-A0E1-2E2B0D2F3140}" name="DESCRIZIONE" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{93260112-5814-1241-B832-6563BE25C71F}" name="AUTORE" dataDxfId="10"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{54B71CEB-3BE9-2D43-9426-5BB1E770D4EF}" name="Tabella1467" displayName="Tabella1467" ref="B2:E23" totalsRowShown="0" headerRowDxfId="9">
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C631A97A-F7D8-594B-B7D2-25620C66AA81}" name="Tabella146" displayName="Tabella146" ref="B2:E23" totalsRowShown="0" headerRowDxfId="10">
   <autoFilter ref="B2:E23" xr:uid="{BFD3B3F1-39AF-574B-B4E2-6DD2F98814AC}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -466,28 +514,10 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{EFC912E6-D157-384A-99D5-25B94006AD03}" name="DATA" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{047CD72C-0FBB-A641-99FF-B5F32B6A45C6}" name="VERSIONE" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{57F48B9D-75F1-C546-BE4B-0968141ED3E5}" name="DESCRIZIONE" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{9D7F8A0A-9573-854B-88DF-998DF658CB24}" name="AUTORE" dataDxfId="5"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C631A97A-F7D8-594B-B7D2-25620C66AA81}" name="Tabella146" displayName="Tabella146" ref="B2:E23" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="B2:E23" xr:uid="{BFD3B3F1-39AF-574B-B4E2-6DD2F98814AC}">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-    <filterColumn colId="2" hiddenButton="1"/>
-    <filterColumn colId="3" hiddenButton="1"/>
-  </autoFilter>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{7C7AFF3E-F623-924D-A0B4-16386F27322B}" name="DATA" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{1C2CD86D-9E3B-5A4A-9634-44B2F9F64A34}" name="VERSIONE" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{6B5D89E2-E9F3-0348-AC4F-276719705EF0}" name="DESCRIZIONE" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{6F8E928E-C13E-3441-945B-4D39C4C14E21}" name="AUTORE" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{7C7AFF3E-F623-924D-A0B4-16386F27322B}" name="DATA" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{1C2CD86D-9E3B-5A4A-9634-44B2F9F64A34}" name="VERSIONE" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{6B5D89E2-E9F3-0348-AC4F-276719705EF0}" name="DESCRIZIONE" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{6F8E928E-C13E-3441-945B-4D39C4C14E21}" name="AUTORE" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -790,10 +820,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4FF433-BE28-5B49-A7A6-6E0656AE40B0}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1010,44 +1040,130 @@
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="3"/>
-      <c r="C16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="B16" s="10">
+        <v>44873</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="3"/>
-      <c r="C17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="B17" s="10">
+        <v>44873</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="3"/>
-      <c r="C18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="B18" s="10">
+        <v>44873</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="3"/>
-      <c r="C19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="B19" s="10">
+        <v>44873</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="3"/>
-      <c r="C20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="B20" s="10">
+        <v>44873</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="3"/>
-      <c r="C21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="B21" s="10">
+        <v>44873</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="3"/>
-      <c r="C22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="B22" s="10">
+        <v>44873</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="3"/>
-      <c r="C23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="B23" s="10">
+        <v>44873</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B24" s="10">
+        <v>44873</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Documenti di Progetto/Revision History - Figma.xlsx
+++ b/Documenti di Progetto/Revision History - Figma.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alessiature/Desktop/WoodLot/Documenti di Progetto/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salva\GitHub\WoodLot\Documenti di Progetto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1832B3D-2031-D048-B2FB-DFD5D8B6CD72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D95D9A-1EBE-4640-96ED-E02D5C61739B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-620" yWindow="500" windowWidth="17920" windowHeight="15720" xr2:uid="{4A92E1C4-0C03-B648-8F37-4C727B03EE17}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{4A92E1C4-0C03-B648-8F37-4C727B03EE17}"/>
   </bookViews>
   <sheets>
     <sheet name="Sequence Diagram" sheetId="9" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="54">
   <si>
     <t>DATA</t>
   </si>
@@ -179,13 +179,37 @@
   </si>
   <si>
     <t>Creazione SD - Riscattare TreeCode</t>
+  </si>
+  <si>
+    <t>Modifica SD - Effettuare una ricerca</t>
+  </si>
+  <si>
+    <t>Modifica SD - Aggiungere prodotto</t>
+  </si>
+  <si>
+    <t>Modifica SD - Modificare quantita</t>
+  </si>
+  <si>
+    <t>Modifica SD - Eliminare prodotto</t>
+  </si>
+  <si>
+    <t>Modifica SD - Svuotare carrello</t>
+  </si>
+  <si>
+    <t>Modifica SD - Effettuare ordine</t>
+  </si>
+  <si>
+    <t>Modifica SD - Aggiornare dati</t>
+  </si>
+  <si>
+    <t>Modifica StateChart Diagram</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -204,6 +228,12 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -298,11 +328,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -310,94 +340,94 @@
   </cellStyles>
   <dxfs count="31">
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -416,7 +446,61 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A7DC815F-E9FE-7F4D-BB4C-8E30E115A67B}" name="Tabella1463" displayName="Tabella1463" ref="B2:E24" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A7DC815F-E9FE-7F4D-BB4C-8E30E115A67B}" name="Tabella1463" displayName="Tabella1463" ref="B2:E31" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
+  <autoFilter ref="B2:E31" xr:uid="{BFD3B3F1-39AF-574B-B4E2-6DD2F98814AC}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{384C1BB0-92F1-D249-A07F-24B79BF81468}" name="DATA" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{BBB4116C-4BFC-784D-A0B1-DBEA2E540F59}" name="VERSIONE" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{BBBB8EDF-7DF2-314C-8CD7-5E5A336EABD5}" name="DESCRIZIONE" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{E0EC0EC0-B349-A946-BCE1-53CDEA9E5021}" name="AUTORE" dataDxfId="25"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{04D74344-D276-384C-86AC-E6FCBC66F272}" name="Tabella15" displayName="Tabella15" ref="B2:E23" totalsRowShown="0" headerRowDxfId="24">
+  <autoFilter ref="B2:E23" xr:uid="{BFD3B3F1-39AF-574B-B4E2-6DD2F98814AC}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{9CE3F216-5F00-C949-B764-1C474BC4E6F7}" name="DATA" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{B65B1588-D391-084E-B362-96ACBB55D55F}" name="VERSIONE" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{5A35C614-6143-2E41-B770-E9159B831AC1}" name="DESCRIZIONE" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{9279B9EE-E335-9A4B-A08C-E21EB6909A98}" name="AUTORE" dataDxfId="20"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BFD3B3F1-39AF-574B-B4E2-6DD2F98814AC}" name="Tabella1" displayName="Tabella1" ref="B2:E23" totalsRowShown="0" headerRowDxfId="19">
+  <autoFilter ref="B2:E23" xr:uid="{BFD3B3F1-39AF-574B-B4E2-6DD2F98814AC}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{D2472224-3F02-2744-8657-6A872C869000}" name="DATA" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{7FA9BCB9-E897-B440-9BF5-675437705F38}" name="VERSIONE" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{287F26B4-1CCD-AC44-AD6B-D76F16EAB32B}" name="DESCRIZIONE" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{8213545A-71F5-B24E-B9A1-3418391DCE22}" name="AUTORE" dataDxfId="15"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8E559B2E-DA0D-F143-8EFE-D37F837E0651}" name="Tabella14" displayName="Tabella14" ref="B2:E24" totalsRowShown="0" headerRowDxfId="14">
   <autoFilter ref="B2:E24" xr:uid="{BFD3B3F1-39AF-574B-B4E2-6DD2F98814AC}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -424,17 +508,17 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{384C1BB0-92F1-D249-A07F-24B79BF81468}" name="DATA" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{BBB4116C-4BFC-784D-A0B1-DBEA2E540F59}" name="VERSIONE" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{BBBB8EDF-7DF2-314C-8CD7-5E5A336EABD5}" name="DESCRIZIONE" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{E0EC0EC0-B349-A946-BCE1-53CDEA9E5021}" name="AUTORE" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{378C1216-916E-5544-9728-AA01BCB8B490}" name="DATA" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{C0CC21E6-1BDA-674A-BF46-2171B580AC90}" name="VERSIONE" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{120155EA-3E0E-6B4B-A0E1-2E2B0D2F3140}" name="DESCRIZIONE" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{93260112-5814-1241-B832-6563BE25C71F}" name="AUTORE" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{04D74344-D276-384C-86AC-E6FCBC66F272}" name="Tabella15" displayName="Tabella15" ref="B2:E23" totalsRowShown="0" headerRowDxfId="30">
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{54B71CEB-3BE9-2D43-9426-5BB1E770D4EF}" name="Tabella1467" displayName="Tabella1467" ref="B2:E23" totalsRowShown="0" headerRowDxfId="9">
   <autoFilter ref="B2:E23" xr:uid="{BFD3B3F1-39AF-574B-B4E2-6DD2F98814AC}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -442,17 +526,17 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{9CE3F216-5F00-C949-B764-1C474BC4E6F7}" name="DATA" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{B65B1588-D391-084E-B362-96ACBB55D55F}" name="VERSIONE" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{5A35C614-6143-2E41-B770-E9159B831AC1}" name="DESCRIZIONE" dataDxfId="27"/>
-    <tableColumn id="4" xr3:uid="{9279B9EE-E335-9A4B-A08C-E21EB6909A98}" name="AUTORE" dataDxfId="26"/>
+    <tableColumn id="1" xr3:uid="{EFC912E6-D157-384A-99D5-25B94006AD03}" name="DATA" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{047CD72C-0FBB-A641-99FF-B5F32B6A45C6}" name="VERSIONE" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{57F48B9D-75F1-C546-BE4B-0968141ED3E5}" name="DESCRIZIONE" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{9D7F8A0A-9573-854B-88DF-998DF658CB24}" name="AUTORE" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BFD3B3F1-39AF-574B-B4E2-6DD2F98814AC}" name="Tabella1" displayName="Tabella1" ref="B2:E23" totalsRowShown="0" headerRowDxfId="25">
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C631A97A-F7D8-594B-B7D2-25620C66AA81}" name="Tabella146" displayName="Tabella146" ref="B2:E23" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="B2:E23" xr:uid="{BFD3B3F1-39AF-574B-B4E2-6DD2F98814AC}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -460,64 +544,10 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{D2472224-3F02-2744-8657-6A872C869000}" name="DATA" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{7FA9BCB9-E897-B440-9BF5-675437705F38}" name="VERSIONE" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{287F26B4-1CCD-AC44-AD6B-D76F16EAB32B}" name="DESCRIZIONE" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{8213545A-71F5-B24E-B9A1-3418391DCE22}" name="AUTORE" dataDxfId="21"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8E559B2E-DA0D-F143-8EFE-D37F837E0651}" name="Tabella14" displayName="Tabella14" ref="B2:E24" totalsRowShown="0" headerRowDxfId="20">
-  <autoFilter ref="B2:E24" xr:uid="{BFD3B3F1-39AF-574B-B4E2-6DD2F98814AC}">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-    <filterColumn colId="2" hiddenButton="1"/>
-    <filterColumn colId="3" hiddenButton="1"/>
-  </autoFilter>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{378C1216-916E-5544-9728-AA01BCB8B490}" name="DATA" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{C0CC21E6-1BDA-674A-BF46-2171B580AC90}" name="VERSIONE" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{120155EA-3E0E-6B4B-A0E1-2E2B0D2F3140}" name="DESCRIZIONE" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{93260112-5814-1241-B832-6563BE25C71F}" name="AUTORE" dataDxfId="16"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{54B71CEB-3BE9-2D43-9426-5BB1E770D4EF}" name="Tabella1467" displayName="Tabella1467" ref="B2:E23" totalsRowShown="0" headerRowDxfId="15">
-  <autoFilter ref="B2:E23" xr:uid="{BFD3B3F1-39AF-574B-B4E2-6DD2F98814AC}">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-    <filterColumn colId="2" hiddenButton="1"/>
-    <filterColumn colId="3" hiddenButton="1"/>
-  </autoFilter>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{EFC912E6-D157-384A-99D5-25B94006AD03}" name="DATA" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{047CD72C-0FBB-A641-99FF-B5F32B6A45C6}" name="VERSIONE" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{57F48B9D-75F1-C546-BE4B-0968141ED3E5}" name="DESCRIZIONE" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{9D7F8A0A-9573-854B-88DF-998DF658CB24}" name="AUTORE" dataDxfId="11"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C631A97A-F7D8-594B-B7D2-25620C66AA81}" name="Tabella146" displayName="Tabella146" ref="B2:E23" totalsRowShown="0" headerRowDxfId="10">
-  <autoFilter ref="B2:E23" xr:uid="{BFD3B3F1-39AF-574B-B4E2-6DD2F98814AC}">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-    <filterColumn colId="2" hiddenButton="1"/>
-    <filterColumn colId="3" hiddenButton="1"/>
-  </autoFilter>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{7C7AFF3E-F623-924D-A0B4-16386F27322B}" name="DATA" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{1C2CD86D-9E3B-5A4A-9634-44B2F9F64A34}" name="VERSIONE" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{6B5D89E2-E9F3-0348-AC4F-276719705EF0}" name="DESCRIZIONE" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{6F8E928E-C13E-3441-945B-4D39C4C14E21}" name="AUTORE" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{7C7AFF3E-F623-924D-A0B4-16386F27322B}" name="DATA" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{1C2CD86D-9E3B-5A4A-9634-44B2F9F64A34}" name="VERSIONE" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{6B5D89E2-E9F3-0348-AC4F-276719705EF0}" name="DESCRIZIONE" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{6F8E928E-C13E-3441-945B-4D39C4C14E21}" name="AUTORE" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -820,30 +850,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4FF433-BE28-5B49-A7A6-6E0656AE40B0}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B1" s="9" t="s">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -857,7 +887,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="5">
         <v>44860</v>
       </c>
@@ -871,7 +901,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>44872</v>
       </c>
@@ -885,7 +915,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>44873</v>
       </c>
@@ -899,7 +929,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>44873</v>
       </c>
@@ -913,7 +943,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>44873</v>
       </c>
@@ -927,7 +957,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>44873</v>
       </c>
@@ -941,7 +971,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>44873</v>
       </c>
@@ -955,7 +985,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <v>44873</v>
       </c>
@@ -969,7 +999,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>44873</v>
       </c>
@@ -983,7 +1013,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <v>44873</v>
       </c>
@@ -997,7 +1027,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <v>44873</v>
       </c>
@@ -1011,7 +1041,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <v>44873</v>
       </c>
@@ -1025,7 +1055,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="5">
         <v>44873</v>
       </c>
@@ -1039,8 +1069,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="10">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="9">
         <v>44873</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -1053,8 +1083,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="10">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="9">
         <v>44873</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -1067,8 +1097,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="10">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="9">
         <v>44873</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -1081,8 +1111,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="10">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="9">
         <v>44873</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -1095,8 +1125,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="10">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="9">
         <v>44873</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -1109,8 +1139,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="10">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="9">
         <v>44873</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -1123,8 +1153,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="10">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="9">
         <v>44873</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -1137,8 +1167,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="10">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="9">
         <v>44873</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -1151,8 +1181,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B24" s="10">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="9">
         <v>44873</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -1163,12 +1193,111 @@
       </c>
       <c r="E24" s="1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="2">
+        <v>44875</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="2">
+        <v>44875</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="2">
+        <v>44875</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="2">
+        <v>44875</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="2">
+        <v>44875</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="2">
+        <v>44875</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="2">
+        <v>44875</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:E1"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -1184,24 +1313,24 @@
       <selection activeCell="B3" sqref="B3:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B1" s="9" t="s">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1215,7 +1344,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="5">
         <v>44860</v>
       </c>
@@ -1229,112 +1358,112 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
       <c r="C4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="3"/>
       <c r="C13" s="1"/>
       <c r="D13" s="4"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
       <c r="C14" s="1"/>
       <c r="D14" s="4"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
       <c r="C15" s="1"/>
       <c r="D15" s="4"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
       <c r="C16" s="1"/>
       <c r="D16" s="4"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="3"/>
       <c r="C17" s="1"/>
       <c r="D17" s="4"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
       <c r="C18" s="1"/>
       <c r="D18" s="4"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
       <c r="C19" s="1"/>
       <c r="D19" s="4"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
       <c r="C20" s="1"/>
       <c r="D20" s="4"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
       <c r="C21" s="1"/>
       <c r="D21" s="4"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
       <c r="C22" s="1"/>
       <c r="D22" s="4"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
       <c r="C23" s="1"/>
       <c r="D23" s="4"/>
@@ -1359,24 +1488,24 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B1" s="9" t="s">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1390,7 +1519,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
         <v>44860</v>
       </c>
@@ -1404,7 +1533,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>44861</v>
       </c>
@@ -1418,7 +1547,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>44861</v>
       </c>
@@ -1432,7 +1561,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>44864</v>
       </c>
@@ -1446,7 +1575,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>44864</v>
       </c>
@@ -1460,7 +1589,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>44865</v>
       </c>
@@ -1474,7 +1603,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>44865</v>
       </c>
@@ -1488,7 +1617,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <v>44865</v>
       </c>
@@ -1502,7 +1631,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>44865</v>
       </c>
@@ -1516,72 +1645,72 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="3"/>
       <c r="C13" s="1"/>
       <c r="D13" s="4"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
       <c r="C14" s="1"/>
       <c r="D14" s="4"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
       <c r="C15" s="1"/>
       <c r="D15" s="4"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
       <c r="C16" s="1"/>
       <c r="D16" s="4"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="3"/>
       <c r="C17" s="1"/>
       <c r="D17" s="4"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
       <c r="C18" s="1"/>
       <c r="D18" s="4"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
       <c r="C19" s="1"/>
       <c r="D19" s="4"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
       <c r="C20" s="1"/>
       <c r="D20" s="4"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
       <c r="C21" s="1"/>
       <c r="D21" s="4"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
       <c r="C22" s="1"/>
       <c r="D22" s="4"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
       <c r="C23" s="1"/>
       <c r="D23" s="4"/>
@@ -1602,28 +1731,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69F97323-D4EC-FD45-9D8F-7A5F3A227394}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView zoomScale="135" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B1" s="9" t="s">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1637,7 +1766,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
         <v>44860</v>
       </c>
@@ -1651,7 +1780,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>44871</v>
       </c>
@@ -1665,112 +1794,121 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="2"/>
-      <c r="C5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <v>44875</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
       <c r="C14" s="1"/>
       <c r="D14" s="4"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
       <c r="C15" s="1"/>
       <c r="D15" s="4"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
       <c r="C16" s="1"/>
       <c r="D16" s="4"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="3"/>
       <c r="C17" s="1"/>
       <c r="D17" s="4"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
       <c r="C18" s="1"/>
       <c r="D18" s="4"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
       <c r="C19" s="1"/>
       <c r="D19" s="4"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
       <c r="C20" s="1"/>
       <c r="D20" s="4"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
       <c r="C21" s="1"/>
       <c r="D21" s="4"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
       <c r="C22" s="1"/>
       <c r="D22" s="4"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
       <c r="C23" s="1"/>
       <c r="D23" s="4"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="1"/>
       <c r="D24" s="4"/>
@@ -1795,24 +1933,24 @@
       <selection activeCell="B3" sqref="B3:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B1" s="9" t="s">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1826,7 +1964,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="5">
         <v>44860</v>
       </c>
@@ -1840,112 +1978,112 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
       <c r="C4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="3"/>
       <c r="C13" s="1"/>
       <c r="D13" s="4"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
       <c r="C14" s="1"/>
       <c r="D14" s="4"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
       <c r="C15" s="1"/>
       <c r="D15" s="4"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
       <c r="C16" s="1"/>
       <c r="D16" s="4"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="3"/>
       <c r="C17" s="1"/>
       <c r="D17" s="4"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
       <c r="C18" s="1"/>
       <c r="D18" s="4"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
       <c r="C19" s="1"/>
       <c r="D19" s="4"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
       <c r="C20" s="1"/>
       <c r="D20" s="4"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
       <c r="C21" s="1"/>
       <c r="D21" s="4"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
       <c r="C22" s="1"/>
       <c r="D22" s="4"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
       <c r="C23" s="1"/>
       <c r="D23" s="4"/>
@@ -1970,24 +2108,24 @@
       <selection activeCell="B3" sqref="B3:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B1" s="9" t="s">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2001,7 +2139,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="5">
         <v>44860</v>
       </c>
@@ -2015,112 +2153,112 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
       <c r="C4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="3"/>
       <c r="C13" s="1"/>
       <c r="D13" s="4"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
       <c r="C14" s="1"/>
       <c r="D14" s="4"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
       <c r="C15" s="1"/>
       <c r="D15" s="4"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
       <c r="C16" s="1"/>
       <c r="D16" s="4"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="3"/>
       <c r="C17" s="1"/>
       <c r="D17" s="4"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
       <c r="C18" s="1"/>
       <c r="D18" s="4"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
       <c r="C19" s="1"/>
       <c r="D19" s="4"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
       <c r="C20" s="1"/>
       <c r="D20" s="4"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
       <c r="C21" s="1"/>
       <c r="D21" s="4"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
       <c r="C22" s="1"/>
       <c r="D22" s="4"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
       <c r="C23" s="1"/>
       <c r="D23" s="4"/>

--- a/Documenti di Progetto/Revision History - Figma.xlsx
+++ b/Documenti di Progetto/Revision History - Figma.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salva\GitHub\WoodLot\Documenti di Progetto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raffaella/Documents/WoodLot/Documenti di Progetto/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D95D9A-1EBE-4640-96ED-E02D5C61739B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A78B37F6-D98D-E64A-8E36-B7B3735A3D7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{4A92E1C4-0C03-B648-8F37-4C727B03EE17}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" activeTab="3" xr2:uid="{4A92E1C4-0C03-B648-8F37-4C727B03EE17}"/>
   </bookViews>
   <sheets>
     <sheet name="Sequence Diagram" sheetId="9" r:id="rId1"/>
@@ -202,7 +202,7 @@
     <t>Modifica SD - Aggiornare dati</t>
   </si>
   <si>
-    <t>Modifica StateChart Diagram</t>
+    <t>Correzione StateChart Diagram</t>
   </si>
 </sst>
 </file>
@@ -856,16 +856,16 @@
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B1" s="10" t="s">
         <v>20</v>
       </c>
@@ -873,7 +873,7 @@
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -887,7 +887,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="5">
         <v>44860</v>
       </c>
@@ -901,7 +901,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
         <v>44872</v>
       </c>
@@ -915,7 +915,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <v>44873</v>
       </c>
@@ -929,7 +929,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="2">
         <v>44873</v>
       </c>
@@ -943,7 +943,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="2">
         <v>44873</v>
       </c>
@@ -957,7 +957,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="2">
         <v>44873</v>
       </c>
@@ -971,7 +971,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="2">
         <v>44873</v>
       </c>
@@ -985,7 +985,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="2">
         <v>44873</v>
       </c>
@@ -999,7 +999,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="2">
         <v>44873</v>
       </c>
@@ -1013,7 +1013,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="2">
         <v>44873</v>
       </c>
@@ -1027,7 +1027,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="2">
         <v>44873</v>
       </c>
@@ -1041,7 +1041,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="2">
         <v>44873</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="5">
         <v>44873</v>
       </c>
@@ -1069,7 +1069,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="9">
         <v>44873</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="9">
         <v>44873</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="9">
         <v>44873</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="9">
         <v>44873</v>
       </c>
@@ -1125,7 +1125,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="9">
         <v>44873</v>
       </c>
@@ -1139,7 +1139,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="9">
         <v>44873</v>
       </c>
@@ -1153,7 +1153,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="9">
         <v>44873</v>
       </c>
@@ -1167,7 +1167,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="9">
         <v>44873</v>
       </c>
@@ -1181,7 +1181,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="9">
         <v>44873</v>
       </c>
@@ -1195,7 +1195,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="2">
         <v>44875</v>
       </c>
@@ -1209,7 +1209,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="2">
         <v>44875</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="2">
         <v>44875</v>
       </c>
@@ -1237,7 +1237,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B28" s="2">
         <v>44875</v>
       </c>
@@ -1251,7 +1251,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" s="2">
         <v>44875</v>
       </c>
@@ -1265,7 +1265,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B30" s="2">
         <v>44875</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B31" s="2">
         <v>44875</v>
       </c>
@@ -1313,16 +1313,16 @@
       <selection activeCell="B3" sqref="B3:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B1" s="10" t="s">
         <v>17</v>
       </c>
@@ -1330,7 +1330,7 @@
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1344,7 +1344,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="5">
         <v>44860</v>
       </c>
@@ -1358,112 +1358,112 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="2"/>
       <c r="C4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
       <c r="C5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="2"/>
       <c r="C6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="2"/>
       <c r="C7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
       <c r="C8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="2"/>
       <c r="C9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="2"/>
       <c r="C10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="2"/>
       <c r="C11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="2"/>
       <c r="C12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="3"/>
       <c r="C13" s="1"/>
       <c r="D13" s="4"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="3"/>
       <c r="C14" s="1"/>
       <c r="D14" s="4"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="3"/>
       <c r="C15" s="1"/>
       <c r="D15" s="4"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="3"/>
       <c r="C16" s="1"/>
       <c r="D16" s="4"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="3"/>
       <c r="C17" s="1"/>
       <c r="D17" s="4"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="3"/>
       <c r="C18" s="1"/>
       <c r="D18" s="4"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="3"/>
       <c r="C19" s="1"/>
       <c r="D19" s="4"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="3"/>
       <c r="C20" s="1"/>
       <c r="D20" s="4"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="3"/>
       <c r="C21" s="1"/>
       <c r="D21" s="4"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="3"/>
       <c r="C22" s="1"/>
       <c r="D22" s="4"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="3"/>
       <c r="C23" s="1"/>
       <c r="D23" s="4"/>
@@ -1488,16 +1488,16 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B1" s="10" t="s">
         <v>7</v>
       </c>
@@ -1505,7 +1505,7 @@
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1519,7 +1519,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="2">
         <v>44860</v>
       </c>
@@ -1533,7 +1533,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
         <v>44861</v>
       </c>
@@ -1547,7 +1547,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <v>44861</v>
       </c>
@@ -1561,7 +1561,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="2">
         <v>44864</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="2">
         <v>44864</v>
       </c>
@@ -1589,7 +1589,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="2">
         <v>44865</v>
       </c>
@@ -1603,7 +1603,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="2">
         <v>44865</v>
       </c>
@@ -1617,7 +1617,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="2">
         <v>44865</v>
       </c>
@@ -1631,7 +1631,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="2">
         <v>44865</v>
       </c>
@@ -1645,72 +1645,72 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="2"/>
       <c r="C12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="3"/>
       <c r="C13" s="1"/>
       <c r="D13" s="4"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="3"/>
       <c r="C14" s="1"/>
       <c r="D14" s="4"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="3"/>
       <c r="C15" s="1"/>
       <c r="D15" s="4"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="3"/>
       <c r="C16" s="1"/>
       <c r="D16" s="4"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="3"/>
       <c r="C17" s="1"/>
       <c r="D17" s="4"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="3"/>
       <c r="C18" s="1"/>
       <c r="D18" s="4"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="3"/>
       <c r="C19" s="1"/>
       <c r="D19" s="4"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="3"/>
       <c r="C20" s="1"/>
       <c r="D20" s="4"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="3"/>
       <c r="C21" s="1"/>
       <c r="D21" s="4"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="3"/>
       <c r="C22" s="1"/>
       <c r="D22" s="4"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="3"/>
       <c r="C23" s="1"/>
       <c r="D23" s="4"/>
@@ -1735,16 +1735,16 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B1" s="10" t="s">
         <v>16</v>
       </c>
@@ -1752,7 +1752,7 @@
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1766,7 +1766,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="2">
         <v>44860</v>
       </c>
@@ -1780,7 +1780,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
         <v>44871</v>
       </c>
@@ -1794,7 +1794,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <v>44875</v>
       </c>
@@ -1805,110 +1805,110 @@
         <v>53</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="2"/>
       <c r="C6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="2"/>
       <c r="C7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
       <c r="C8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="2"/>
       <c r="C9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="2"/>
       <c r="C10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="2"/>
       <c r="C11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="2"/>
       <c r="C12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
       <c r="C13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="3"/>
       <c r="C14" s="1"/>
       <c r="D14" s="4"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="3"/>
       <c r="C15" s="1"/>
       <c r="D15" s="4"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="3"/>
       <c r="C16" s="1"/>
       <c r="D16" s="4"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="3"/>
       <c r="C17" s="1"/>
       <c r="D17" s="4"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="3"/>
       <c r="C18" s="1"/>
       <c r="D18" s="4"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="3"/>
       <c r="C19" s="1"/>
       <c r="D19" s="4"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="3"/>
       <c r="C20" s="1"/>
       <c r="D20" s="4"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="3"/>
       <c r="C21" s="1"/>
       <c r="D21" s="4"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="3"/>
       <c r="C22" s="1"/>
       <c r="D22" s="4"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="3"/>
       <c r="C23" s="1"/>
       <c r="D23" s="4"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="3"/>
       <c r="C24" s="1"/>
       <c r="D24" s="4"/>
@@ -1933,16 +1933,16 @@
       <selection activeCell="B3" sqref="B3:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B1" s="10" t="s">
         <v>19</v>
       </c>
@@ -1950,7 +1950,7 @@
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1964,7 +1964,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="5">
         <v>44860</v>
       </c>
@@ -1978,112 +1978,112 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="2"/>
       <c r="C4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
       <c r="C5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="2"/>
       <c r="C6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="2"/>
       <c r="C7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
       <c r="C8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="2"/>
       <c r="C9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="2"/>
       <c r="C10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="2"/>
       <c r="C11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="2"/>
       <c r="C12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="3"/>
       <c r="C13" s="1"/>
       <c r="D13" s="4"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="3"/>
       <c r="C14" s="1"/>
       <c r="D14" s="4"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="3"/>
       <c r="C15" s="1"/>
       <c r="D15" s="4"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="3"/>
       <c r="C16" s="1"/>
       <c r="D16" s="4"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="3"/>
       <c r="C17" s="1"/>
       <c r="D17" s="4"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="3"/>
       <c r="C18" s="1"/>
       <c r="D18" s="4"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="3"/>
       <c r="C19" s="1"/>
       <c r="D19" s="4"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="3"/>
       <c r="C20" s="1"/>
       <c r="D20" s="4"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="3"/>
       <c r="C21" s="1"/>
       <c r="D21" s="4"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="3"/>
       <c r="C22" s="1"/>
       <c r="D22" s="4"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="3"/>
       <c r="C23" s="1"/>
       <c r="D23" s="4"/>
@@ -2108,16 +2108,16 @@
       <selection activeCell="B3" sqref="B3:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B1" s="10" t="s">
         <v>18</v>
       </c>
@@ -2125,7 +2125,7 @@
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2139,7 +2139,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="5">
         <v>44860</v>
       </c>
@@ -2153,112 +2153,112 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="2"/>
       <c r="C4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
       <c r="C5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="2"/>
       <c r="C6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="2"/>
       <c r="C7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
       <c r="C8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="2"/>
       <c r="C9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="2"/>
       <c r="C10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="2"/>
       <c r="C11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="2"/>
       <c r="C12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="3"/>
       <c r="C13" s="1"/>
       <c r="D13" s="4"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="3"/>
       <c r="C14" s="1"/>
       <c r="D14" s="4"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="3"/>
       <c r="C15" s="1"/>
       <c r="D15" s="4"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="3"/>
       <c r="C16" s="1"/>
       <c r="D16" s="4"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="3"/>
       <c r="C17" s="1"/>
       <c r="D17" s="4"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="3"/>
       <c r="C18" s="1"/>
       <c r="D18" s="4"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="3"/>
       <c r="C19" s="1"/>
       <c r="D19" s="4"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="3"/>
       <c r="C20" s="1"/>
       <c r="D20" s="4"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="3"/>
       <c r="C21" s="1"/>
       <c r="D21" s="4"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="3"/>
       <c r="C22" s="1"/>
       <c r="D22" s="4"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="3"/>
       <c r="C23" s="1"/>
       <c r="D23" s="4"/>

--- a/Documenti di Progetto/Revision History - Figma.xlsx
+++ b/Documenti di Progetto/Revision History - Figma.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raffaella/Documents/WoodLot/Documenti di Progetto/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alessiature/Desktop/WoodLot/Documenti di Progetto/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A78B37F6-D98D-E64A-8E36-B7B3735A3D7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B7FD7AA-D0B9-2B4B-B791-15C6A4A1C221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" activeTab="3" xr2:uid="{4A92E1C4-0C03-B648-8F37-4C727B03EE17}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{4A92E1C4-0C03-B648-8F37-4C727B03EE17}"/>
   </bookViews>
   <sheets>
     <sheet name="Sequence Diagram" sheetId="9" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="50">
   <si>
     <t>DATA</t>
   </si>
@@ -181,35 +181,23 @@
     <t>Creazione SD - Riscattare TreeCode</t>
   </si>
   <si>
-    <t>Modifica SD - Effettuare una ricerca</t>
-  </si>
-  <si>
-    <t>Modifica SD - Aggiungere prodotto</t>
-  </si>
-  <si>
-    <t>Modifica SD - Modificare quantita</t>
-  </si>
-  <si>
-    <t>Modifica SD - Eliminare prodotto</t>
-  </si>
-  <si>
-    <t>Modifica SD - Svuotare carrello</t>
-  </si>
-  <si>
-    <t>Modifica SD - Effettuare ordine</t>
-  </si>
-  <si>
-    <t>Modifica SD - Aggiornare dati</t>
-  </si>
-  <si>
     <t>Correzione StateChart Diagram</t>
+  </si>
+  <si>
+    <t>Vanno inserite solo le modifiche significative, quando sbagli a scrivere non è una modifica</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>Revisione SD - Registrazione utente</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -234,6 +222,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -302,7 +298,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -333,6 +329,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -850,10 +849,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4FF433-BE28-5B49-A7A6-6E0656AE40B0}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="108" zoomScaleNormal="163" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -865,7 +864,7 @@
     <col min="5" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B1" s="10" t="s">
         <v>20</v>
       </c>
@@ -873,7 +872,7 @@
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -887,7 +886,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" s="5">
         <v>44860</v>
       </c>
@@ -901,7 +900,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
         <v>44872</v>
       </c>
@@ -915,7 +914,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <v>44873</v>
       </c>
@@ -929,7 +928,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B6" s="2">
         <v>44873</v>
       </c>
@@ -943,7 +942,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B7" s="2">
         <v>44873</v>
       </c>
@@ -957,7 +956,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B8" s="2">
         <v>44873</v>
       </c>
@@ -971,7 +970,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B9" s="2">
         <v>44873</v>
       </c>
@@ -985,7 +984,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B10" s="2">
         <v>44873</v>
       </c>
@@ -999,7 +998,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B11" s="2">
         <v>44873</v>
       </c>
@@ -1012,8 +1011,17 @@
       <c r="E11" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G11" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B12" s="2">
         <v>44873</v>
       </c>
@@ -1027,7 +1035,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B13" s="2">
         <v>44873</v>
       </c>
@@ -1041,7 +1049,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B14" s="2">
         <v>44873</v>
       </c>
@@ -1055,7 +1063,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B15" s="5">
         <v>44873</v>
       </c>
@@ -1069,7 +1077,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B16" s="9">
         <v>44873</v>
       </c>
@@ -1197,105 +1205,52 @@
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="2">
-        <v>44875</v>
+        <v>44876</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B26" s="2">
-        <v>44875</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="1"/>
+      <c r="E26" s="1"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B27" s="2">
-        <v>44875</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="1"/>
+      <c r="E27" s="1"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B28" s="2">
-        <v>44875</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="1"/>
+      <c r="E28" s="1"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B29" s="2">
-        <v>44875</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="1"/>
+      <c r="E29" s="1"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="2">
-        <v>44875</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="1"/>
+      <c r="E30" s="1"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B31" s="2">
-        <v>44875</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="1"/>
+      <c r="E31" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B1:E1"/>
+    <mergeCell ref="G11:M11"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1731,7 +1686,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69F97323-D4EC-FD45-9D8F-7A5F3A227394}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
+    <sheetView zoomScale="135" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -1802,7 +1757,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>10</v>

--- a/Documenti di Progetto/Revision History - Figma.xlsx
+++ b/Documenti di Progetto/Revision History - Figma.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alessiature/Desktop/WoodLot/Documenti di Progetto/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raffaella/Documents/WoodLot/Documenti di Progetto/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B7FD7AA-D0B9-2B4B-B791-15C6A4A1C221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{374C8B76-D6E7-8E49-89F9-948D785FF89E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{4A92E1C4-0C03-B648-8F37-4C727B03EE17}"/>
+    <workbookView xWindow="3420" yWindow="500" windowWidth="25380" windowHeight="15720" xr2:uid="{4A92E1C4-0C03-B648-8F37-4C727B03EE17}"/>
   </bookViews>
   <sheets>
     <sheet name="Sequence Diagram" sheetId="9" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="57">
   <si>
     <t>DATA</t>
   </si>
@@ -191,6 +191,27 @@
   </si>
   <si>
     <t>Revisione SD - Registrazione utente</t>
+  </si>
+  <si>
+    <t>Revisione SD - Registrazione contadino</t>
+  </si>
+  <si>
+    <t>Eliminazione SD - Effettuare una ricerca</t>
+  </si>
+  <si>
+    <t>Creazione SD - Visualizzare catalogo</t>
+  </si>
+  <si>
+    <t>Creazione SD - Ricercare foresta</t>
+  </si>
+  <si>
+    <t>Revisione SD - Visualizzare catalogo</t>
+  </si>
+  <si>
+    <t>Revisione SD - Login</t>
+  </si>
+  <si>
+    <t>Revisione SD - Reimposta Password</t>
   </si>
 </sst>
 </file>
@@ -298,7 +319,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -333,6 +354,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -445,8 +475,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A7DC815F-E9FE-7F4D-BB4C-8E30E115A67B}" name="Tabella1463" displayName="Tabella1463" ref="B2:E31" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
-  <autoFilter ref="B2:E31" xr:uid="{BFD3B3F1-39AF-574B-B4E2-6DD2F98814AC}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A7DC815F-E9FE-7F4D-BB4C-8E30E115A67B}" name="Tabella1463" displayName="Tabella1463" ref="B2:E32" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
+  <autoFilter ref="B2:E32" xr:uid="{BFD3B3F1-39AF-574B-B4E2-6DD2F98814AC}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -849,10 +879,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4FF433-BE28-5B49-A7A6-6E0656AE40B0}">
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="108" zoomScaleNormal="163" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="168" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1218,34 +1248,102 @@
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B26" s="2"/>
-      <c r="C26" s="1"/>
-      <c r="E26" s="1"/>
+      <c r="B26" s="2">
+        <v>44879</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B27" s="2"/>
-      <c r="C27" s="1"/>
-      <c r="E27" s="1"/>
+      <c r="B27" s="2">
+        <v>44879</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B28" s="2"/>
-      <c r="C28" s="1"/>
-      <c r="E28" s="1"/>
+      <c r="B28" s="2">
+        <v>44879</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B29" s="2"/>
-      <c r="C29" s="1"/>
-      <c r="E29" s="1"/>
+      <c r="B29" s="2">
+        <v>44879</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="2"/>
-      <c r="C30" s="1"/>
-      <c r="E30" s="1"/>
+      <c r="B30" s="2">
+        <v>44879</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B31" s="2"/>
-      <c r="C31" s="1"/>
-      <c r="E31" s="1"/>
+      <c r="B31" s="12">
+        <v>44879</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B32" s="12">
+        <v>44879</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Documenti di Progetto/Revision History - Figma.xlsx
+++ b/Documenti di Progetto/Revision History - Figma.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raffaella/Documents/WoodLot/Documenti di Progetto/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{374C8B76-D6E7-8E49-89F9-948D785FF89E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F32131A-821A-3043-B17A-57DB634FEC3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="500" windowWidth="25380" windowHeight="15720" xr2:uid="{4A92E1C4-0C03-B648-8F37-4C727B03EE17}"/>
+    <workbookView xWindow="3420" yWindow="500" windowWidth="25380" windowHeight="15720" activeTab="1" xr2:uid="{4A92E1C4-0C03-B648-8F37-4C727B03EE17}"/>
   </bookViews>
   <sheets>
     <sheet name="Sequence Diagram" sheetId="9" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="69">
   <si>
     <t>DATA</t>
   </si>
@@ -212,6 +212,42 @@
   </si>
   <si>
     <t>Revisione SD - Reimposta Password</t>
+  </si>
+  <si>
+    <t>Creazione pagina Home</t>
+  </si>
+  <si>
+    <t>Creazione pagina Chi siamo</t>
+  </si>
+  <si>
+    <t>Creazione pagina Catalogo</t>
+  </si>
+  <si>
+    <t>Creazione pagina Checkout</t>
+  </si>
+  <si>
+    <t>Creazione pagina Carrello</t>
+  </si>
+  <si>
+    <t>Creazione pagina Prodotto</t>
+  </si>
+  <si>
+    <t>Creazione pagina Responsabile catalogo</t>
+  </si>
+  <si>
+    <t>Creazione pagina Profilo Contadino</t>
+  </si>
+  <si>
+    <t>Creazione pagina Profilo Utente</t>
+  </si>
+  <si>
+    <t>Creazione form Registrazione</t>
+  </si>
+  <si>
+    <t>Creazione form Login</t>
+  </si>
+  <si>
+    <t>Creazione form TreeCode</t>
   </si>
 </sst>
 </file>
@@ -348,12 +384,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -362,6 +392,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -881,7 +917,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4FF433-BE28-5B49-A7A6-6E0656AE40B0}">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="168" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="85" zoomScaleNormal="168" workbookViewId="0">
       <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
@@ -895,12 +931,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
@@ -1041,15 +1077,15 @@
       <c r="E11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B12" s="2">
@@ -1318,30 +1354,30 @@
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B31" s="12">
+      <c r="B31" s="10">
         <v>44879</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E31" s="14" t="s">
+      <c r="E31" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B32" s="12">
+      <c r="B32" s="10">
         <v>44879</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D32" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="E32" s="14" t="s">
+      <c r="E32" s="12" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1362,8 +1398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256147BA-D926-674E-96C3-5C4EE21DE2A0}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView zoomScale="135" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:E3"/>
+    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1376,12 +1412,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
@@ -1412,67 +1448,172 @@
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="2"/>
-      <c r="C4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="B4" s="2">
+        <v>44880</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="2"/>
-      <c r="C5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="B5" s="2">
+        <v>44880</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="2"/>
-      <c r="C6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="B6" s="2">
+        <v>44880</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="2"/>
-      <c r="C7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="B7" s="2">
+        <v>44880</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="2"/>
-      <c r="C8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="B8" s="2">
+        <v>44880</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="2"/>
-      <c r="C9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="B9" s="2">
+        <v>44880</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="2"/>
-      <c r="C10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="B10" s="2">
+        <v>44880</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="2"/>
-      <c r="C11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="B11" s="2">
+        <v>44880</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="2"/>
-      <c r="C12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="B12" s="2">
+        <v>44880</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="3"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="1"/>
+      <c r="B13" s="2">
+        <v>44880</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="3"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="1"/>
+      <c r="B14" s="2">
+        <v>44880</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="3"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="1"/>
+      <c r="B15" s="2">
+        <v>44880</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="3"/>
@@ -1551,12 +1692,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
@@ -1798,12 +1939,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
@@ -1996,12 +2137,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
@@ -2171,12 +2312,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">

--- a/Documenti di Progetto/Revision History - Figma.xlsx
+++ b/Documenti di Progetto/Revision History - Figma.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raffaella/Documents/WoodLot/Documenti di Progetto/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F32131A-821A-3043-B17A-57DB634FEC3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE95B3AE-ED08-8443-A26D-B9FCAE2C6ABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="500" windowWidth="25380" windowHeight="15720" activeTab="1" xr2:uid="{4A92E1C4-0C03-B648-8F37-4C727B03EE17}"/>
+    <workbookView xWindow="3420" yWindow="500" windowWidth="25380" windowHeight="15720" activeTab="5" xr2:uid="{4A92E1C4-0C03-B648-8F37-4C727B03EE17}"/>
   </bookViews>
   <sheets>
     <sheet name="Sequence Diagram" sheetId="9" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="76">
   <si>
     <t>DATA</t>
   </si>
@@ -248,6 +248,27 @@
   </si>
   <si>
     <t>Creazione form TreeCode</t>
+  </si>
+  <si>
+    <t>Revisione SD - Logout</t>
+  </si>
+  <si>
+    <t>Revisione SD - Aggiungere Prodotto</t>
+  </si>
+  <si>
+    <t>Revisione SD - Modificare Quantità</t>
+  </si>
+  <si>
+    <t>Revisione SD - Eliminare Prodotto</t>
+  </si>
+  <si>
+    <t>Revisione SD - Svuotare Carrello</t>
+  </si>
+  <si>
+    <t>Aggiunta NavigationalPath</t>
+  </si>
+  <si>
+    <t>Aggiunta Class Diagram</t>
   </si>
 </sst>
 </file>
@@ -511,8 +532,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A7DC815F-E9FE-7F4D-BB4C-8E30E115A67B}" name="Tabella1463" displayName="Tabella1463" ref="B2:E32" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
-  <autoFilter ref="B2:E32" xr:uid="{BFD3B3F1-39AF-574B-B4E2-6DD2F98814AC}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A7DC815F-E9FE-7F4D-BB4C-8E30E115A67B}" name="Tabella1463" displayName="Tabella1463" ref="B2:E38" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
+  <autoFilter ref="B2:E38" xr:uid="{BFD3B3F1-39AF-574B-B4E2-6DD2F98814AC}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -915,10 +936,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4FF433-BE28-5B49-A7A6-6E0656AE40B0}">
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="85" zoomScaleNormal="168" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView topLeftCell="A8" zoomScaleNormal="168" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1380,6 +1401,80 @@
       <c r="E32" s="12" t="s">
         <v>10</v>
       </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B33" s="2">
+        <v>44881</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B34" s="2">
+        <v>44881</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B35" s="2">
+        <v>44881</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B36" s="10">
+        <v>44881</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B37" s="10">
+        <v>44881</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C38" s="1"/>
+      <c r="E38" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1398,7 +1493,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256147BA-D926-674E-96C3-5C4EE21DE2A0}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
+    <sheetView zoomScale="135" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -2124,7 +2219,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView zoomScale="135" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:E3"/>
+      <selection activeCell="B4" sqref="B4:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2173,9 +2268,18 @@
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="2"/>
-      <c r="C4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="B4" s="2">
+        <v>44880</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
@@ -2298,8 +2402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC713557-CF4C-3449-B7F2-607954CE9E41}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView zoomScale="135" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:E3"/>
+    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2348,9 +2452,18 @@
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="2"/>
-      <c r="C4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="B4" s="2">
+        <v>44880</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>

--- a/Documenti di Progetto/Revision History - Figma.xlsx
+++ b/Documenti di Progetto/Revision History - Figma.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raffaella/Documents/WoodLot/Documenti di Progetto/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE95B3AE-ED08-8443-A26D-B9FCAE2C6ABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85CE7EBC-3EBD-EC47-BB6A-DF8EDFFB8BE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3420" yWindow="500" windowWidth="25380" windowHeight="15720" activeTab="5" xr2:uid="{4A92E1C4-0C03-B648-8F37-4C727B03EE17}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="85">
   <si>
     <t>DATA</t>
   </si>
@@ -145,9 +145,6 @@
     <t>Creazione SD - Effettuare ordine</t>
   </si>
   <si>
-    <t>Creazione SD - Aggiornare dati</t>
-  </si>
-  <si>
     <t>Creazione SD - Login</t>
   </si>
   <si>
@@ -184,9 +181,6 @@
     <t>Correzione StateChart Diagram</t>
   </si>
   <si>
-    <t>Vanno inserite solo le modifiche significative, quando sbagli a scrivere non è una modifica</t>
-  </si>
-  <si>
     <t>1.0</t>
   </si>
   <si>
@@ -241,9 +235,6 @@
     <t>Creazione pagina Profilo Utente</t>
   </si>
   <si>
-    <t>Creazione form Registrazione</t>
-  </si>
-  <si>
     <t>Creazione form Login</t>
   </si>
   <si>
@@ -269,6 +260,42 @@
   </si>
   <si>
     <t>Aggiunta Class Diagram</t>
+  </si>
+  <si>
+    <t>Revisione SD - Effettuare Ordine</t>
+  </si>
+  <si>
+    <t>Revisione SD - Creare Foresta</t>
+  </si>
+  <si>
+    <t>Revisione SD - Modificare Dati Foresta</t>
+  </si>
+  <si>
+    <t>Revisione SD - Modificare Dati Pagamento</t>
+  </si>
+  <si>
+    <t>Revisione SD - Inseririe Nuovo Prodotto</t>
+  </si>
+  <si>
+    <t>Revisione SD - Modificare Prodotto</t>
+  </si>
+  <si>
+    <t>Eliminazione SD - Codice sconto</t>
+  </si>
+  <si>
+    <t>Creazione form Registrazione Utente</t>
+  </si>
+  <si>
+    <t>Creazione form Registrazione Contadino</t>
+  </si>
+  <si>
+    <t>Creazione menu</t>
+  </si>
+  <si>
+    <t>Creazione Pagina diventa un contadino</t>
+  </si>
+  <si>
+    <t>Creazione SD - Aggiornare stato</t>
   </si>
 </sst>
 </file>
@@ -414,11 +441,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -438,6 +465,9 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -511,9 +541,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -532,25 +559,43 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A7DC815F-E9FE-7F4D-BB4C-8E30E115A67B}" name="Tabella1463" displayName="Tabella1463" ref="B2:E38" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
-  <autoFilter ref="B2:E38" xr:uid="{BFD3B3F1-39AF-574B-B4E2-6DD2F98814AC}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A7DC815F-E9FE-7F4D-BB4C-8E30E115A67B}" name="Tabella1463" displayName="Tabella1463" ref="B2:E44" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="B2:E44" xr:uid="{BFD3B3F1-39AF-574B-B4E2-6DD2F98814AC}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{384C1BB0-92F1-D249-A07F-24B79BF81468}" name="DATA" dataDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{BBB4116C-4BFC-784D-A0B1-DBEA2E540F59}" name="VERSIONE" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{BBBB8EDF-7DF2-314C-8CD7-5E5A336EABD5}" name="DESCRIZIONE" dataDxfId="26"/>
-    <tableColumn id="4" xr3:uid="{E0EC0EC0-B349-A946-BCE1-53CDEA9E5021}" name="AUTORE" dataDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{384C1BB0-92F1-D249-A07F-24B79BF81468}" name="DATA" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{BBB4116C-4BFC-784D-A0B1-DBEA2E540F59}" name="VERSIONE" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{BBBB8EDF-7DF2-314C-8CD7-5E5A336EABD5}" name="DESCRIZIONE" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{E0EC0EC0-B349-A946-BCE1-53CDEA9E5021}" name="AUTORE" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{04D74344-D276-384C-86AC-E6FCBC66F272}" name="Tabella15" displayName="Tabella15" ref="B2:E23" totalsRowShown="0" headerRowDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{04D74344-D276-384C-86AC-E6FCBC66F272}" name="Tabella15" displayName="Tabella15" ref="B2:E18" totalsRowShown="0" headerRowDxfId="30">
+  <autoFilter ref="B2:E18" xr:uid="{BFD3B3F1-39AF-574B-B4E2-6DD2F98814AC}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{9CE3F216-5F00-C949-B764-1C474BC4E6F7}" name="DATA" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{B65B1588-D391-084E-B362-96ACBB55D55F}" name="VERSIONE" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{5A35C614-6143-2E41-B770-E9159B831AC1}" name="DESCRIZIONE" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{9279B9EE-E335-9A4B-A08C-E21EB6909A98}" name="AUTORE" dataDxfId="26"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BFD3B3F1-39AF-574B-B4E2-6DD2F98814AC}" name="Tabella1" displayName="Tabella1" ref="B2:E23" totalsRowShown="0" headerRowDxfId="25">
   <autoFilter ref="B2:E23" xr:uid="{BFD3B3F1-39AF-574B-B4E2-6DD2F98814AC}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -558,17 +603,35 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{9CE3F216-5F00-C949-B764-1C474BC4E6F7}" name="DATA" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{B65B1588-D391-084E-B362-96ACBB55D55F}" name="VERSIONE" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{5A35C614-6143-2E41-B770-E9159B831AC1}" name="DESCRIZIONE" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{9279B9EE-E335-9A4B-A08C-E21EB6909A98}" name="AUTORE" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{D2472224-3F02-2744-8657-6A872C869000}" name="DATA" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{7FA9BCB9-E897-B440-9BF5-675437705F38}" name="VERSIONE" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{287F26B4-1CCD-AC44-AD6B-D76F16EAB32B}" name="DESCRIZIONE" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{8213545A-71F5-B24E-B9A1-3418391DCE22}" name="AUTORE" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BFD3B3F1-39AF-574B-B4E2-6DD2F98814AC}" name="Tabella1" displayName="Tabella1" ref="B2:E23" totalsRowShown="0" headerRowDxfId="19">
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8E559B2E-DA0D-F143-8EFE-D37F837E0651}" name="Tabella14" displayName="Tabella14" ref="B2:E24" totalsRowShown="0" headerRowDxfId="20">
+  <autoFilter ref="B2:E24" xr:uid="{BFD3B3F1-39AF-574B-B4E2-6DD2F98814AC}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{378C1216-916E-5544-9728-AA01BCB8B490}" name="DATA" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{C0CC21E6-1BDA-674A-BF46-2171B580AC90}" name="VERSIONE" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{120155EA-3E0E-6B4B-A0E1-2E2B0D2F3140}" name="DESCRIZIONE" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{93260112-5814-1241-B832-6563BE25C71F}" name="AUTORE" dataDxfId="16"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{54B71CEB-3BE9-2D43-9426-5BB1E770D4EF}" name="Tabella1467" displayName="Tabella1467" ref="B2:E23" totalsRowShown="0" headerRowDxfId="15">
   <autoFilter ref="B2:E23" xr:uid="{BFD3B3F1-39AF-574B-B4E2-6DD2F98814AC}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -576,35 +639,17 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{D2472224-3F02-2744-8657-6A872C869000}" name="DATA" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{7FA9BCB9-E897-B440-9BF5-675437705F38}" name="VERSIONE" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{287F26B4-1CCD-AC44-AD6B-D76F16EAB32B}" name="DESCRIZIONE" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{8213545A-71F5-B24E-B9A1-3418391DCE22}" name="AUTORE" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{EFC912E6-D157-384A-99D5-25B94006AD03}" name="DATA" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{047CD72C-0FBB-A641-99FF-B5F32B6A45C6}" name="VERSIONE" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{57F48B9D-75F1-C546-BE4B-0968141ED3E5}" name="DESCRIZIONE" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{9D7F8A0A-9573-854B-88DF-998DF658CB24}" name="AUTORE" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8E559B2E-DA0D-F143-8EFE-D37F837E0651}" name="Tabella14" displayName="Tabella14" ref="B2:E24" totalsRowShown="0" headerRowDxfId="14">
-  <autoFilter ref="B2:E24" xr:uid="{BFD3B3F1-39AF-574B-B4E2-6DD2F98814AC}">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-    <filterColumn colId="2" hiddenButton="1"/>
-    <filterColumn colId="3" hiddenButton="1"/>
-  </autoFilter>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{378C1216-916E-5544-9728-AA01BCB8B490}" name="DATA" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{C0CC21E6-1BDA-674A-BF46-2171B580AC90}" name="VERSIONE" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{120155EA-3E0E-6B4B-A0E1-2E2B0D2F3140}" name="DESCRIZIONE" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{93260112-5814-1241-B832-6563BE25C71F}" name="AUTORE" dataDxfId="10"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{54B71CEB-3BE9-2D43-9426-5BB1E770D4EF}" name="Tabella1467" displayName="Tabella1467" ref="B2:E23" totalsRowShown="0" headerRowDxfId="9">
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C631A97A-F7D8-594B-B7D2-25620C66AA81}" name="Tabella146" displayName="Tabella146" ref="B2:E23" totalsRowShown="0" headerRowDxfId="10">
   <autoFilter ref="B2:E23" xr:uid="{BFD3B3F1-39AF-574B-B4E2-6DD2F98814AC}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -612,28 +657,10 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{EFC912E6-D157-384A-99D5-25B94006AD03}" name="DATA" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{047CD72C-0FBB-A641-99FF-B5F32B6A45C6}" name="VERSIONE" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{57F48B9D-75F1-C546-BE4B-0968141ED3E5}" name="DESCRIZIONE" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{9D7F8A0A-9573-854B-88DF-998DF658CB24}" name="AUTORE" dataDxfId="5"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C631A97A-F7D8-594B-B7D2-25620C66AA81}" name="Tabella146" displayName="Tabella146" ref="B2:E23" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="B2:E23" xr:uid="{BFD3B3F1-39AF-574B-B4E2-6DD2F98814AC}">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-    <filterColumn colId="2" hiddenButton="1"/>
-    <filterColumn colId="3" hiddenButton="1"/>
-  </autoFilter>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{7C7AFF3E-F623-924D-A0B4-16386F27322B}" name="DATA" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{1C2CD86D-9E3B-5A4A-9634-44B2F9F64A34}" name="VERSIONE" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{6B5D89E2-E9F3-0348-AC4F-276719705EF0}" name="DESCRIZIONE" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{6F8E928E-C13E-3441-945B-4D39C4C14E21}" name="AUTORE" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{7C7AFF3E-F623-924D-A0B4-16386F27322B}" name="DATA" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{1C2CD86D-9E3B-5A4A-9634-44B2F9F64A34}" name="VERSIONE" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{6B5D89E2-E9F3-0348-AC4F-276719705EF0}" name="DESCRIZIONE" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{6F8E928E-C13E-3441-945B-4D39C4C14E21}" name="AUTORE" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -936,10 +963,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4FF433-BE28-5B49-A7A6-6E0656AE40B0}">
-  <dimension ref="A1:M38"/>
+  <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="168" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView zoomScale="56" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -952,12 +979,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
@@ -1098,15 +1125,13 @@
       <c r="E11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B12" s="2">
@@ -1119,7 +1144,7 @@
         <v>34</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.2">
@@ -1151,17 +1176,17 @@
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B15" s="5">
+      <c r="B15" s="9">
         <v>44873</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="6" t="s">
+      <c r="C15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="8" t="s">
-        <v>10</v>
+      <c r="E15" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
@@ -1242,7 +1267,7 @@
         <v>9</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>6</v>
@@ -1256,7 +1281,7 @@
         <v>9</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>6</v>
@@ -1277,28 +1302,28 @@
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B24" s="9">
-        <v>44873</v>
+      <c r="B24" s="2">
+        <v>44876</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="2">
-        <v>44876</v>
+        <v>44879</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>10</v>
@@ -1309,10 +1334,10 @@
         <v>44879</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>10</v>
@@ -1323,10 +1348,10 @@
         <v>44879</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>10</v>
@@ -1337,10 +1362,10 @@
         <v>44879</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>10</v>
@@ -1351,10 +1376,10 @@
         <v>44879</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>10</v>
@@ -1365,10 +1390,10 @@
         <v>44879</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>10</v>
@@ -1379,10 +1404,10 @@
         <v>44879</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>10</v>
@@ -1393,10 +1418,10 @@
         <v>44879</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E32" s="12" t="s">
         <v>10</v>
@@ -1407,10 +1432,10 @@
         <v>44881</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>10</v>
@@ -1421,10 +1446,10 @@
         <v>44881</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>10</v>
@@ -1435,10 +1460,10 @@
         <v>44881</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>10</v>
@@ -1449,10 +1474,10 @@
         <v>44881</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E36" s="12" t="s">
         <v>10</v>
@@ -1463,23 +1488,116 @@
         <v>44881</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D37" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B38" s="10">
+        <v>44882</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="E37" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C38" s="1"/>
-      <c r="E38" s="1"/>
+      <c r="E38" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B39" s="10">
+        <v>44882</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B40" s="10">
+        <v>44882</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B41" s="10">
+        <v>44883</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B42" s="10">
+        <v>44883</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B43" s="10">
+        <v>44883</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B44" s="10">
+        <v>44883</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="B1:E1"/>
-    <mergeCell ref="G11:M11"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1493,8 +1611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256147BA-D926-674E-96C3-5C4EE21DE2A0}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView zoomScale="135" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView zoomScale="112" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1507,12 +1625,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
@@ -1550,7 +1668,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>6</v>
@@ -1564,7 +1682,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>6</v>
@@ -1578,7 +1696,7 @@
         <v>9</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>6</v>
@@ -1592,7 +1710,7 @@
         <v>9</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>6</v>
@@ -1606,7 +1724,7 @@
         <v>9</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>6</v>
@@ -1620,7 +1738,7 @@
         <v>9</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>6</v>
@@ -1634,7 +1752,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>10</v>
@@ -1648,7 +1766,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>10</v>
@@ -1662,7 +1780,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>10</v>
@@ -1676,7 +1794,7 @@
         <v>9</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>10</v>
@@ -1690,7 +1808,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>10</v>
@@ -1704,29 +1822,53 @@
         <v>9</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="3"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="1"/>
+      <c r="B16" s="2">
+        <v>44882</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="3"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="1"/>
+      <c r="B17" s="5">
+        <v>44882</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="3"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="1"/>
+      <c r="B18" s="2">
+        <v>44882</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="3"/>
@@ -1787,12 +1929,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
@@ -2034,12 +2176,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
@@ -2091,7 +2233,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>10</v>
@@ -2232,12 +2374,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
@@ -2275,7 +2417,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>6</v>
@@ -2403,7 +2545,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2416,12 +2558,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
@@ -2459,7 +2601,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>6</v>

--- a/Documenti di Progetto/Revision History - Figma.xlsx
+++ b/Documenti di Progetto/Revision History - Figma.xlsx
@@ -5,20 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raffaella/Documents/WoodLot/Documenti di Progetto/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alessiature/Desktop/WoodLot/Documenti di Progetto/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85CE7EBC-3EBD-EC47-BB6A-DF8EDFFB8BE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2FC8EAF-F0B8-B34E-8956-642E55379FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="500" windowWidth="25380" windowHeight="15720" activeTab="5" xr2:uid="{4A92E1C4-0C03-B648-8F37-4C727B03EE17}"/>
+    <workbookView xWindow="3420" yWindow="500" windowWidth="25380" windowHeight="15720" activeTab="4" xr2:uid="{4A92E1C4-0C03-B648-8F37-4C727B03EE17}"/>
   </bookViews>
   <sheets>
     <sheet name="Sequence Diagram" sheetId="9" r:id="rId1"/>
     <sheet name="Mock-up" sheetId="5" r:id="rId2"/>
     <sheet name="Use Case Diagram" sheetId="1" r:id="rId3"/>
     <sheet name="Statechart Diagram" sheetId="3" r:id="rId4"/>
-    <sheet name="Navigational Path" sheetId="7" r:id="rId5"/>
-    <sheet name="Class Diagram" sheetId="6" r:id="rId6"/>
+    <sheet name="Class Diagram" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="83">
   <si>
     <t>DATA</t>
   </si>
@@ -100,9 +99,6 @@
     <t>REVISON HISTORY - CLASS DIAGRAM</t>
   </si>
   <si>
-    <t>REVISON HISTORY - NAVIGATIONAL PATH</t>
-  </si>
-  <si>
     <t>REVISON HISTORY - SEQUENCE DIAGRAM</t>
   </si>
   <si>
@@ -254,9 +250,6 @@
   </si>
   <si>
     <t>Revisione SD - Svuotare Carrello</t>
-  </si>
-  <si>
-    <t>Aggiunta NavigationalPath</t>
   </si>
   <si>
     <t>Aggiunta Class Diagram</t>
@@ -451,25 +444,7 @@
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="31">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="26">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -543,6 +518,9 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -559,7 +537,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A7DC815F-E9FE-7F4D-BB4C-8E30E115A67B}" name="Tabella1463" displayName="Tabella1463" ref="B2:E44" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A7DC815F-E9FE-7F4D-BB4C-8E30E115A67B}" name="Tabella1463" displayName="Tabella1463" ref="B2:E44" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
   <autoFilter ref="B2:E44" xr:uid="{BFD3B3F1-39AF-574B-B4E2-6DD2F98814AC}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -567,17 +545,17 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{384C1BB0-92F1-D249-A07F-24B79BF81468}" name="DATA" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{BBB4116C-4BFC-784D-A0B1-DBEA2E540F59}" name="VERSIONE" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{BBBB8EDF-7DF2-314C-8CD7-5E5A336EABD5}" name="DESCRIZIONE" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{E0EC0EC0-B349-A946-BCE1-53CDEA9E5021}" name="AUTORE" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{384C1BB0-92F1-D249-A07F-24B79BF81468}" name="DATA" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{BBB4116C-4BFC-784D-A0B1-DBEA2E540F59}" name="VERSIONE" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{BBBB8EDF-7DF2-314C-8CD7-5E5A336EABD5}" name="DESCRIZIONE" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{E0EC0EC0-B349-A946-BCE1-53CDEA9E5021}" name="AUTORE" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{04D74344-D276-384C-86AC-E6FCBC66F272}" name="Tabella15" displayName="Tabella15" ref="B2:E18" totalsRowShown="0" headerRowDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{04D74344-D276-384C-86AC-E6FCBC66F272}" name="Tabella15" displayName="Tabella15" ref="B2:E18" totalsRowShown="0" headerRowDxfId="19">
   <autoFilter ref="B2:E18" xr:uid="{BFD3B3F1-39AF-574B-B4E2-6DD2F98814AC}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -585,17 +563,17 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{9CE3F216-5F00-C949-B764-1C474BC4E6F7}" name="DATA" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{B65B1588-D391-084E-B362-96ACBB55D55F}" name="VERSIONE" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{5A35C614-6143-2E41-B770-E9159B831AC1}" name="DESCRIZIONE" dataDxfId="27"/>
-    <tableColumn id="4" xr3:uid="{9279B9EE-E335-9A4B-A08C-E21EB6909A98}" name="AUTORE" dataDxfId="26"/>
+    <tableColumn id="1" xr3:uid="{9CE3F216-5F00-C949-B764-1C474BC4E6F7}" name="DATA" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{B65B1588-D391-084E-B362-96ACBB55D55F}" name="VERSIONE" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{5A35C614-6143-2E41-B770-E9159B831AC1}" name="DESCRIZIONE" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{9279B9EE-E335-9A4B-A08C-E21EB6909A98}" name="AUTORE" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BFD3B3F1-39AF-574B-B4E2-6DD2F98814AC}" name="Tabella1" displayName="Tabella1" ref="B2:E23" totalsRowShown="0" headerRowDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BFD3B3F1-39AF-574B-B4E2-6DD2F98814AC}" name="Tabella1" displayName="Tabella1" ref="B2:E23" totalsRowShown="0" headerRowDxfId="14">
   <autoFilter ref="B2:E23" xr:uid="{BFD3B3F1-39AF-574B-B4E2-6DD2F98814AC}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -603,17 +581,17 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{D2472224-3F02-2744-8657-6A872C869000}" name="DATA" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{7FA9BCB9-E897-B440-9BF5-675437705F38}" name="VERSIONE" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{287F26B4-1CCD-AC44-AD6B-D76F16EAB32B}" name="DESCRIZIONE" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{8213545A-71F5-B24E-B9A1-3418391DCE22}" name="AUTORE" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{D2472224-3F02-2744-8657-6A872C869000}" name="DATA" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{7FA9BCB9-E897-B440-9BF5-675437705F38}" name="VERSIONE" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{287F26B4-1CCD-AC44-AD6B-D76F16EAB32B}" name="DESCRIZIONE" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{8213545A-71F5-B24E-B9A1-3418391DCE22}" name="AUTORE" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8E559B2E-DA0D-F143-8EFE-D37F837E0651}" name="Tabella14" displayName="Tabella14" ref="B2:E24" totalsRowShown="0" headerRowDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8E559B2E-DA0D-F143-8EFE-D37F837E0651}" name="Tabella14" displayName="Tabella14" ref="B2:E24" totalsRowShown="0" headerRowDxfId="9">
   <autoFilter ref="B2:E24" xr:uid="{BFD3B3F1-39AF-574B-B4E2-6DD2F98814AC}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -621,17 +599,17 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{378C1216-916E-5544-9728-AA01BCB8B490}" name="DATA" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{C0CC21E6-1BDA-674A-BF46-2171B580AC90}" name="VERSIONE" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{120155EA-3E0E-6B4B-A0E1-2E2B0D2F3140}" name="DESCRIZIONE" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{93260112-5814-1241-B832-6563BE25C71F}" name="AUTORE" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{378C1216-916E-5544-9728-AA01BCB8B490}" name="DATA" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{C0CC21E6-1BDA-674A-BF46-2171B580AC90}" name="VERSIONE" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{120155EA-3E0E-6B4B-A0E1-2E2B0D2F3140}" name="DESCRIZIONE" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{93260112-5814-1241-B832-6563BE25C71F}" name="AUTORE" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{54B71CEB-3BE9-2D43-9426-5BB1E770D4EF}" name="Tabella1467" displayName="Tabella1467" ref="B2:E23" totalsRowShown="0" headerRowDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C631A97A-F7D8-594B-B7D2-25620C66AA81}" name="Tabella146" displayName="Tabella146" ref="B2:E23" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="B2:E23" xr:uid="{BFD3B3F1-39AF-574B-B4E2-6DD2F98814AC}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -639,28 +617,10 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{EFC912E6-D157-384A-99D5-25B94006AD03}" name="DATA" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{047CD72C-0FBB-A641-99FF-B5F32B6A45C6}" name="VERSIONE" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{57F48B9D-75F1-C546-BE4B-0968141ED3E5}" name="DESCRIZIONE" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{9D7F8A0A-9573-854B-88DF-998DF658CB24}" name="AUTORE" dataDxfId="11"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C631A97A-F7D8-594B-B7D2-25620C66AA81}" name="Tabella146" displayName="Tabella146" ref="B2:E23" totalsRowShown="0" headerRowDxfId="10">
-  <autoFilter ref="B2:E23" xr:uid="{BFD3B3F1-39AF-574B-B4E2-6DD2F98814AC}">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-    <filterColumn colId="2" hiddenButton="1"/>
-    <filterColumn colId="3" hiddenButton="1"/>
-  </autoFilter>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{7C7AFF3E-F623-924D-A0B4-16386F27322B}" name="DATA" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{1C2CD86D-9E3B-5A4A-9634-44B2F9F64A34}" name="VERSIONE" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{6B5D89E2-E9F3-0348-AC4F-276719705EF0}" name="DESCRIZIONE" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{6F8E928E-C13E-3441-945B-4D39C4C14E21}" name="AUTORE" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{7C7AFF3E-F623-924D-A0B4-16386F27322B}" name="DATA" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{1C2CD86D-9E3B-5A4A-9634-44B2F9F64A34}" name="VERSIONE" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{6B5D89E2-E9F3-0348-AC4F-276719705EF0}" name="DESCRIZIONE" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{6F8E928E-C13E-3441-945B-4D39C4C14E21}" name="AUTORE" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -980,7 +940,7 @@
   <sheetData>
     <row r="1" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B1" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
@@ -1022,7 +982,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>10</v>
@@ -1036,7 +996,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>10</v>
@@ -1050,7 +1010,7 @@
         <v>9</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>8</v>
@@ -1064,7 +1024,7 @@
         <v>9</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>8</v>
@@ -1078,7 +1038,7 @@
         <v>9</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>8</v>
@@ -1092,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>8</v>
@@ -1106,7 +1066,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>8</v>
@@ -1120,7 +1080,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>8</v>
@@ -1141,7 +1101,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>10</v>
@@ -1155,7 +1115,7 @@
         <v>9</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>10</v>
@@ -1169,7 +1129,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>10</v>
@@ -1183,7 +1143,7 @@
         <v>9</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>6</v>
@@ -1197,7 +1157,7 @@
         <v>9</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>6</v>
@@ -1211,7 +1171,7 @@
         <v>9</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>6</v>
@@ -1225,7 +1185,7 @@
         <v>9</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>6</v>
@@ -1239,7 +1199,7 @@
         <v>9</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>6</v>
@@ -1253,7 +1213,7 @@
         <v>9</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>6</v>
@@ -1267,7 +1227,7 @@
         <v>9</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>6</v>
@@ -1281,7 +1241,7 @@
         <v>9</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>6</v>
@@ -1295,7 +1255,7 @@
         <v>9</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>6</v>
@@ -1306,10 +1266,10 @@
         <v>44876</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>10</v>
@@ -1320,10 +1280,10 @@
         <v>44879</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>10</v>
@@ -1334,10 +1294,10 @@
         <v>44879</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>10</v>
@@ -1348,10 +1308,10 @@
         <v>44879</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>10</v>
@@ -1362,10 +1322,10 @@
         <v>44879</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>10</v>
@@ -1376,10 +1336,10 @@
         <v>44879</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>10</v>
@@ -1390,10 +1350,10 @@
         <v>44879</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>10</v>
@@ -1404,10 +1364,10 @@
         <v>44879</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>10</v>
@@ -1418,10 +1378,10 @@
         <v>44879</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E32" s="12" t="s">
         <v>10</v>
@@ -1432,10 +1392,10 @@
         <v>44881</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>10</v>
@@ -1446,10 +1406,10 @@
         <v>44881</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>10</v>
@@ -1460,10 +1420,10 @@
         <v>44881</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>10</v>
@@ -1474,10 +1434,10 @@
         <v>44881</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E36" s="12" t="s">
         <v>10</v>
@@ -1488,10 +1448,10 @@
         <v>44881</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E37" s="12" t="s">
         <v>10</v>
@@ -1502,10 +1462,10 @@
         <v>44882</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E38" s="12" t="s">
         <v>10</v>
@@ -1516,10 +1476,10 @@
         <v>44882</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E39" s="12" t="s">
         <v>10</v>
@@ -1530,10 +1490,10 @@
         <v>44882</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E40" s="12" t="s">
         <v>10</v>
@@ -1544,10 +1504,10 @@
         <v>44883</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E41" s="12" t="s">
         <v>6</v>
@@ -1558,10 +1518,10 @@
         <v>44883</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E42" s="12" t="s">
         <v>6</v>
@@ -1572,10 +1532,10 @@
         <v>44883</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E43" s="12" t="s">
         <v>6</v>
@@ -1586,10 +1546,10 @@
         <v>44883</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E44" s="12" t="s">
         <v>6</v>
@@ -1668,7 +1628,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>6</v>
@@ -1682,7 +1642,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>6</v>
@@ -1696,7 +1656,7 @@
         <v>9</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>6</v>
@@ -1710,7 +1670,7 @@
         <v>9</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>6</v>
@@ -1724,7 +1684,7 @@
         <v>9</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>6</v>
@@ -1738,7 +1698,7 @@
         <v>9</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>6</v>
@@ -1752,7 +1712,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>10</v>
@@ -1766,7 +1726,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>10</v>
@@ -1780,7 +1740,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>10</v>
@@ -1794,7 +1754,7 @@
         <v>9</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>10</v>
@@ -1808,7 +1768,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>10</v>
@@ -1822,7 +1782,7 @@
         <v>9</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>6</v>
@@ -1836,7 +1796,7 @@
         <v>9</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>10</v>
@@ -1850,7 +1810,7 @@
         <v>9</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>10</v>
@@ -1864,7 +1824,7 @@
         <v>9</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>6</v>
@@ -1972,7 +1932,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>8</v>
@@ -1986,7 +1946,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>8</v>
@@ -2000,7 +1960,7 @@
         <v>9</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
@@ -2014,7 +1974,7 @@
         <v>9</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>6</v>
@@ -2219,7 +2179,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>8</v>
@@ -2233,7 +2193,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>10</v>
@@ -2357,190 +2317,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AF668EB-F66C-0745-B382-56EACCF4771A}">
-  <dimension ref="A1:E23"/>
-  <sheetViews>
-    <sheetView zoomScale="135" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="17" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B1" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="5">
-        <v>44860</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="2">
-        <v>44880</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="2"/>
-      <c r="C5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="2"/>
-      <c r="C6" s="1"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="2"/>
-      <c r="C7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="2"/>
-      <c r="C8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="2"/>
-      <c r="C9" s="1"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="2"/>
-      <c r="C10" s="1"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="2"/>
-      <c r="C11" s="1"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="2"/>
-      <c r="C12" s="1"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="3"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="3"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="3"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="3"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="3"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="3"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="3"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="3"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="3"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="3"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="3"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:E1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC713557-CF4C-3449-B7F2-607954CE9E41}">
   <dimension ref="A1:E23"/>
   <sheetViews>
@@ -2601,7 +2377,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>6</v>

--- a/Documenti di Progetto/Revision History - Figma.xlsx
+++ b/Documenti di Progetto/Revision History - Figma.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alessiature/Desktop/WoodLot/Documenti di Progetto/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2FC8EAF-F0B8-B34E-8956-642E55379FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75EC5EAC-DD04-1C42-8B48-920B587E5C83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="500" windowWidth="25380" windowHeight="15720" activeTab="4" xr2:uid="{4A92E1C4-0C03-B648-8F37-4C727B03EE17}"/>
+    <workbookView xWindow="3420" yWindow="500" windowWidth="25380" windowHeight="15720" activeTab="3" xr2:uid="{4A92E1C4-0C03-B648-8F37-4C727B03EE17}"/>
   </bookViews>
   <sheets>
     <sheet name="Sequence Diagram" sheetId="9" r:id="rId1"/>
@@ -2122,7 +2122,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69F97323-D4EC-FD45-9D8F-7A5F3A227394}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView zoomScale="135" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -2320,8 +2320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC713557-CF4C-3449-B7F2-607954CE9E41}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView zoomScale="135" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2371,7 +2371,7 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
-        <v>44880</v>
+        <v>44878</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>9</v>

--- a/Documenti di Progetto/Revision History - Figma.xlsx
+++ b/Documenti di Progetto/Revision History - Figma.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alessiature/Desktop/WoodLot/Documenti di Progetto/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salva\GitHub\WoodLot\Documenti di Progetto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75EC5EAC-DD04-1C42-8B48-920B587E5C83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D39A48-DFDA-48D7-9B2B-28A9F5E6AF9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="500" windowWidth="25380" windowHeight="15720" activeTab="3" xr2:uid="{4A92E1C4-0C03-B648-8F37-4C727B03EE17}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{4A92E1C4-0C03-B648-8F37-4C727B03EE17}"/>
   </bookViews>
   <sheets>
     <sheet name="Sequence Diagram" sheetId="9" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Use Case Diagram" sheetId="1" r:id="rId3"/>
     <sheet name="Statechart Diagram" sheetId="3" r:id="rId4"/>
     <sheet name="Class Diagram" sheetId="6" r:id="rId5"/>
+    <sheet name="Mappatura" sheetId="10" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="86">
   <si>
     <t>DATA</t>
   </si>
@@ -289,6 +290,15 @@
   </si>
   <si>
     <t>Creazione SD - Aggiornare stato</t>
+  </si>
+  <si>
+    <t>Creazione Mappatura Hardware/Software</t>
+  </si>
+  <si>
+    <t>Modifica Mappatura Hardware/Software</t>
+  </si>
+  <si>
+    <t>REVISON HISTORY - MAPPATURA HARDWARE/SOFTWARE</t>
   </si>
 </sst>
 </file>
@@ -629,7 +639,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Verde">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -637,34 +647,34 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="455F51"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E3DED1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="549E39"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="8AB833"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="C0CF3A"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="029676"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4AB5C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="0989B1"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="6B9F25"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="BA6906"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
@@ -929,16 +939,16 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B1" s="14" t="s">
         <v>19</v>
       </c>
@@ -946,7 +956,7 @@
       <c r="D1" s="14"/>
       <c r="E1" s="14"/>
     </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -960,7 +970,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="5">
         <v>44860</v>
       </c>
@@ -974,7 +984,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>44872</v>
       </c>
@@ -988,7 +998,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>44873</v>
       </c>
@@ -1002,7 +1012,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>44873</v>
       </c>
@@ -1016,7 +1026,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>44873</v>
       </c>
@@ -1030,7 +1040,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>44873</v>
       </c>
@@ -1044,7 +1054,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>44873</v>
       </c>
@@ -1058,7 +1068,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <v>44873</v>
       </c>
@@ -1072,7 +1082,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>44873</v>
       </c>
@@ -1093,7 +1103,7 @@
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <v>44873</v>
       </c>
@@ -1107,7 +1117,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <v>44873</v>
       </c>
@@ -1121,7 +1131,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <v>44873</v>
       </c>
@@ -1135,7 +1145,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="9">
         <v>44873</v>
       </c>
@@ -1149,7 +1159,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="9">
         <v>44873</v>
       </c>
@@ -1163,7 +1173,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="9">
         <v>44873</v>
       </c>
@@ -1177,7 +1187,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="9">
         <v>44873</v>
       </c>
@@ -1191,7 +1201,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="9">
         <v>44873</v>
       </c>
@@ -1205,7 +1215,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="9">
         <v>44873</v>
       </c>
@@ -1219,7 +1229,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="9">
         <v>44873</v>
       </c>
@@ -1233,7 +1243,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="9">
         <v>44873</v>
       </c>
@@ -1247,7 +1257,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="9">
         <v>44873</v>
       </c>
@@ -1261,7 +1271,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="2">
         <v>44876</v>
       </c>
@@ -1275,7 +1285,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="2">
         <v>44879</v>
       </c>
@@ -1289,7 +1299,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="2">
         <v>44879</v>
       </c>
@@ -1303,7 +1313,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="2">
         <v>44879</v>
       </c>
@@ -1317,7 +1327,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
         <v>44879</v>
       </c>
@@ -1331,7 +1341,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="2">
         <v>44879</v>
       </c>
@@ -1345,7 +1355,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="2">
         <v>44879</v>
       </c>
@@ -1359,7 +1369,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="10">
         <v>44879</v>
       </c>
@@ -1373,7 +1383,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" s="10">
         <v>44879</v>
       </c>
@@ -1387,7 +1397,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" s="2">
         <v>44881</v>
       </c>
@@ -1401,7 +1411,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" s="2">
         <v>44881</v>
       </c>
@@ -1415,7 +1425,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" s="2">
         <v>44881</v>
       </c>
@@ -1429,7 +1439,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" s="10">
         <v>44881</v>
       </c>
@@ -1443,7 +1453,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" s="10">
         <v>44881</v>
       </c>
@@ -1457,7 +1467,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" s="10">
         <v>44882</v>
       </c>
@@ -1471,7 +1481,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" s="10">
         <v>44882</v>
       </c>
@@ -1485,7 +1495,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40" s="10">
         <v>44882</v>
       </c>
@@ -1499,7 +1509,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41" s="10">
         <v>44883</v>
       </c>
@@ -1513,7 +1523,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42" s="10">
         <v>44883</v>
       </c>
@@ -1527,7 +1537,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43" s="10">
         <v>44883</v>
       </c>
@@ -1541,7 +1551,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44" s="10">
         <v>44883</v>
       </c>
@@ -1572,19 +1582,19 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView zoomScale="112" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B1" s="14" t="s">
         <v>17</v>
       </c>
@@ -1592,7 +1602,7 @@
       <c r="D1" s="14"/>
       <c r="E1" s="14"/>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1606,7 +1616,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="5">
         <v>44860</v>
       </c>
@@ -1620,7 +1630,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>44880</v>
       </c>
@@ -1634,7 +1644,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>44880</v>
       </c>
@@ -1648,7 +1658,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>44880</v>
       </c>
@@ -1662,7 +1672,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>44880</v>
       </c>
@@ -1676,7 +1686,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>44880</v>
       </c>
@@ -1690,7 +1700,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>44880</v>
       </c>
@@ -1704,7 +1714,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <v>44880</v>
       </c>
@@ -1718,7 +1728,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>44880</v>
       </c>
@@ -1732,7 +1742,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <v>44880</v>
       </c>
@@ -1746,7 +1756,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <v>44880</v>
       </c>
@@ -1760,7 +1770,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <v>44880</v>
       </c>
@@ -1774,7 +1784,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <v>44880</v>
       </c>
@@ -1788,7 +1798,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <v>44882</v>
       </c>
@@ -1802,7 +1812,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="5">
         <v>44882</v>
       </c>
@@ -1816,7 +1826,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
         <v>44882</v>
       </c>
@@ -1830,31 +1840,31 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
       <c r="C19" s="1"/>
       <c r="D19" s="4"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
       <c r="C20" s="1"/>
       <c r="D20" s="4"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
       <c r="C21" s="1"/>
       <c r="D21" s="4"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
       <c r="C22" s="1"/>
       <c r="D22" s="4"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
       <c r="C23" s="1"/>
       <c r="D23" s="4"/>
@@ -1879,16 +1889,16 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B1" s="14" t="s">
         <v>7</v>
       </c>
@@ -1896,7 +1906,7 @@
       <c r="D1" s="14"/>
       <c r="E1" s="14"/>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1910,7 +1920,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
         <v>44860</v>
       </c>
@@ -1924,7 +1934,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>44861</v>
       </c>
@@ -1938,7 +1948,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>44861</v>
       </c>
@@ -1952,7 +1962,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>44864</v>
       </c>
@@ -1966,7 +1976,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>44864</v>
       </c>
@@ -1980,7 +1990,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>44865</v>
       </c>
@@ -1994,7 +2004,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>44865</v>
       </c>
@@ -2008,7 +2018,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <v>44865</v>
       </c>
@@ -2022,7 +2032,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>44865</v>
       </c>
@@ -2036,72 +2046,72 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="3"/>
       <c r="C13" s="1"/>
       <c r="D13" s="4"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
       <c r="C14" s="1"/>
       <c r="D14" s="4"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
       <c r="C15" s="1"/>
       <c r="D15" s="4"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
       <c r="C16" s="1"/>
       <c r="D16" s="4"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="3"/>
       <c r="C17" s="1"/>
       <c r="D17" s="4"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
       <c r="C18" s="1"/>
       <c r="D18" s="4"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
       <c r="C19" s="1"/>
       <c r="D19" s="4"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
       <c r="C20" s="1"/>
       <c r="D20" s="4"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
       <c r="C21" s="1"/>
       <c r="D21" s="4"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
       <c r="C22" s="1"/>
       <c r="D22" s="4"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
       <c r="C23" s="1"/>
       <c r="D23" s="4"/>
@@ -2122,20 +2132,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69F97323-D4EC-FD45-9D8F-7A5F3A227394}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView zoomScale="135" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B1" s="14" t="s">
         <v>16</v>
       </c>
@@ -2143,7 +2153,7 @@
       <c r="D1" s="14"/>
       <c r="E1" s="14"/>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2157,7 +2167,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
         <v>44860</v>
       </c>
@@ -2171,7 +2181,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>44871</v>
       </c>
@@ -2185,7 +2195,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>44875</v>
       </c>
@@ -2199,107 +2209,107 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
       <c r="C14" s="1"/>
       <c r="D14" s="4"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
       <c r="C15" s="1"/>
       <c r="D15" s="4"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
       <c r="C16" s="1"/>
       <c r="D16" s="4"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="3"/>
       <c r="C17" s="1"/>
       <c r="D17" s="4"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
       <c r="C18" s="1"/>
       <c r="D18" s="4"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
       <c r="C19" s="1"/>
       <c r="D19" s="4"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
       <c r="C20" s="1"/>
       <c r="D20" s="4"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
       <c r="C21" s="1"/>
       <c r="D21" s="4"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
       <c r="C22" s="1"/>
       <c r="D22" s="4"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
       <c r="C23" s="1"/>
       <c r="D23" s="4"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="1"/>
       <c r="D24" s="4"/>
@@ -2324,16 +2334,16 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B1" s="14" t="s">
         <v>18</v>
       </c>
@@ -2341,7 +2351,7 @@
       <c r="D1" s="14"/>
       <c r="E1" s="14"/>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2355,7 +2365,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="5">
         <v>44860</v>
       </c>
@@ -2369,7 +2379,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>44878</v>
       </c>
@@ -2383,107 +2393,107 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="3"/>
       <c r="C13" s="1"/>
       <c r="D13" s="4"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
       <c r="C14" s="1"/>
       <c r="D14" s="4"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
       <c r="C15" s="1"/>
       <c r="D15" s="4"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
       <c r="C16" s="1"/>
       <c r="D16" s="4"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="3"/>
       <c r="C17" s="1"/>
       <c r="D17" s="4"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
       <c r="C18" s="1"/>
       <c r="D18" s="4"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
       <c r="C19" s="1"/>
       <c r="D19" s="4"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
       <c r="C20" s="1"/>
       <c r="D20" s="4"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
       <c r="C21" s="1"/>
       <c r="D21" s="4"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
       <c r="C22" s="1"/>
       <c r="D22" s="4"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
       <c r="C23" s="1"/>
       <c r="D23" s="4"/>
@@ -2498,4 +2508,84 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F08A07EC-8CB7-4D4A-9BB5-5C795FDF800A}">
+  <dimension ref="B2:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="15.625" customWidth="1"/>
+    <col min="4" max="4" width="43.125" customWidth="1"/>
+    <col min="5" max="5" width="13.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="2">
+        <v>44895</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <v>44896</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="2"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:E2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Documenti di Progetto/Revision History - Figma.xlsx
+++ b/Documenti di Progetto/Revision History - Figma.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salva\GitHub\WoodLot\Documenti di Progetto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alessiature/Desktop/WoodLot/Documenti di Progetto/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D39A48-DFDA-48D7-9B2B-28A9F5E6AF9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8293513A-437F-934E-B937-98D52D95FE3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{4A92E1C4-0C03-B648-8F37-4C727B03EE17}"/>
+    <workbookView xWindow="3420" yWindow="500" windowWidth="25380" windowHeight="15720" activeTab="5" xr2:uid="{4A92E1C4-0C03-B648-8F37-4C727B03EE17}"/>
   </bookViews>
   <sheets>
     <sheet name="Sequence Diagram" sheetId="9" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="86">
   <si>
     <t>DATA</t>
   </si>
@@ -295,17 +295,17 @@
     <t>Creazione Mappatura Hardware/Software</t>
   </si>
   <si>
-    <t>Modifica Mappatura Hardware/Software</t>
-  </si>
-  <si>
     <t>REVISON HISTORY - MAPPATURA HARDWARE/SOFTWARE</t>
+  </si>
+  <si>
+    <t>1.1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -342,6 +342,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -352,8 +359,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE2EFDA"/>
-        <bgColor rgb="FFE2EFDA"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -403,8 +410,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -419,18 +427,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -450,11 +446,43 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="40% - Colore 1" xfId="1" builtinId="31"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="32">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -547,25 +575,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A7DC815F-E9FE-7F4D-BB4C-8E30E115A67B}" name="Tabella1463" displayName="Tabella1463" ref="B2:E44" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
-  <autoFilter ref="B2:E44" xr:uid="{BFD3B3F1-39AF-574B-B4E2-6DD2F98814AC}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A7DC815F-E9FE-7F4D-BB4C-8E30E115A67B}" name="Tabella1463" displayName="Tabella1463" ref="B2:E45" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+  <autoFilter ref="B2:E45" xr:uid="{BFD3B3F1-39AF-574B-B4E2-6DD2F98814AC}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{384C1BB0-92F1-D249-A07F-24B79BF81468}" name="DATA" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{BBB4116C-4BFC-784D-A0B1-DBEA2E540F59}" name="VERSIONE" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{BBBB8EDF-7DF2-314C-8CD7-5E5A336EABD5}" name="DESCRIZIONE" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{E0EC0EC0-B349-A946-BCE1-53CDEA9E5021}" name="AUTORE" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{384C1BB0-92F1-D249-A07F-24B79BF81468}" name="DATA" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{BBB4116C-4BFC-784D-A0B1-DBEA2E540F59}" name="VERSIONE" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{BBBB8EDF-7DF2-314C-8CD7-5E5A336EABD5}" name="DESCRIZIONE" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{E0EC0EC0-B349-A946-BCE1-53CDEA9E5021}" name="AUTORE" dataDxfId="26"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{04D74344-D276-384C-86AC-E6FCBC66F272}" name="Tabella15" displayName="Tabella15" ref="B2:E18" totalsRowShown="0" headerRowDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{04D74344-D276-384C-86AC-E6FCBC66F272}" name="Tabella15" displayName="Tabella15" ref="B2:E18" totalsRowShown="0" headerRowDxfId="25">
   <autoFilter ref="B2:E18" xr:uid="{BFD3B3F1-39AF-574B-B4E2-6DD2F98814AC}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -573,17 +601,17 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{9CE3F216-5F00-C949-B764-1C474BC4E6F7}" name="DATA" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{B65B1588-D391-084E-B362-96ACBB55D55F}" name="VERSIONE" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{5A35C614-6143-2E41-B770-E9159B831AC1}" name="DESCRIZIONE" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{9279B9EE-E335-9A4B-A08C-E21EB6909A98}" name="AUTORE" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{9CE3F216-5F00-C949-B764-1C474BC4E6F7}" name="DATA" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{B65B1588-D391-084E-B362-96ACBB55D55F}" name="VERSIONE" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{5A35C614-6143-2E41-B770-E9159B831AC1}" name="DESCRIZIONE" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{9279B9EE-E335-9A4B-A08C-E21EB6909A98}" name="AUTORE" dataDxfId="21"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BFD3B3F1-39AF-574B-B4E2-6DD2F98814AC}" name="Tabella1" displayName="Tabella1" ref="B2:E23" totalsRowShown="0" headerRowDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BFD3B3F1-39AF-574B-B4E2-6DD2F98814AC}" name="Tabella1" displayName="Tabella1" ref="B2:E23" totalsRowShown="0" headerRowDxfId="20">
   <autoFilter ref="B2:E23" xr:uid="{BFD3B3F1-39AF-574B-B4E2-6DD2F98814AC}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -591,17 +619,17 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{D2472224-3F02-2744-8657-6A872C869000}" name="DATA" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{7FA9BCB9-E897-B440-9BF5-675437705F38}" name="VERSIONE" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{287F26B4-1CCD-AC44-AD6B-D76F16EAB32B}" name="DESCRIZIONE" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{8213545A-71F5-B24E-B9A1-3418391DCE22}" name="AUTORE" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{D2472224-3F02-2744-8657-6A872C869000}" name="DATA" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{7FA9BCB9-E897-B440-9BF5-675437705F38}" name="VERSIONE" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{287F26B4-1CCD-AC44-AD6B-D76F16EAB32B}" name="DESCRIZIONE" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{8213545A-71F5-B24E-B9A1-3418391DCE22}" name="AUTORE" dataDxfId="16"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8E559B2E-DA0D-F143-8EFE-D37F837E0651}" name="Tabella14" displayName="Tabella14" ref="B2:E24" totalsRowShown="0" headerRowDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8E559B2E-DA0D-F143-8EFE-D37F837E0651}" name="Tabella14" displayName="Tabella14" ref="B2:E24" totalsRowShown="0" headerRowDxfId="15">
   <autoFilter ref="B2:E24" xr:uid="{BFD3B3F1-39AF-574B-B4E2-6DD2F98814AC}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -609,17 +637,17 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{378C1216-916E-5544-9728-AA01BCB8B490}" name="DATA" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{C0CC21E6-1BDA-674A-BF46-2171B580AC90}" name="VERSIONE" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{120155EA-3E0E-6B4B-A0E1-2E2B0D2F3140}" name="DESCRIZIONE" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{93260112-5814-1241-B832-6563BE25C71F}" name="AUTORE" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{378C1216-916E-5544-9728-AA01BCB8B490}" name="DATA" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{C0CC21E6-1BDA-674A-BF46-2171B580AC90}" name="VERSIONE" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{120155EA-3E0E-6B4B-A0E1-2E2B0D2F3140}" name="DESCRIZIONE" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{93260112-5814-1241-B832-6563BE25C71F}" name="AUTORE" dataDxfId="11"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C631A97A-F7D8-594B-B7D2-25620C66AA81}" name="Tabella146" displayName="Tabella146" ref="B2:E23" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C631A97A-F7D8-594B-B7D2-25620C66AA81}" name="Tabella146" displayName="Tabella146" ref="B2:E23" totalsRowShown="0" headerRowDxfId="10">
   <autoFilter ref="B2:E23" xr:uid="{BFD3B3F1-39AF-574B-B4E2-6DD2F98814AC}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -627,12 +655,25 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{7C7AFF3E-F623-924D-A0B4-16386F27322B}" name="DATA" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{1C2CD86D-9E3B-5A4A-9634-44B2F9F64A34}" name="VERSIONE" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{6B5D89E2-E9F3-0348-AC4F-276719705EF0}" name="DESCRIZIONE" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{6F8E928E-C13E-3441-945B-4D39C4C14E21}" name="AUTORE" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{7C7AFF3E-F623-924D-A0B4-16386F27322B}" name="DATA" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{1C2CD86D-9E3B-5A4A-9634-44B2F9F64A34}" name="VERSIONE" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{6B5D89E2-E9F3-0348-AC4F-276719705EF0}" name="DESCRIZIONE" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{6F8E928E-C13E-3441-945B-4D39C4C14E21}" name="AUTORE" dataDxfId="6"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{5413D084-ABF2-0443-9027-8070A35FA6B7}" name="Tabella11" displayName="Tabella11" ref="B3:E4" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <autoFilter ref="B3:E4" xr:uid="{5413D084-ABF2-0443-9027-8070A35FA6B7}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{C16B526B-0298-0245-9456-72C3FA2F9D63}" name="DATA" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{0C6B9568-5233-6349-ACB4-4C58DAE6B9E5}" name="VERSIONE" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{FA1B81B3-062C-CA4B-8142-9116B54F9AF8}" name="DESCRIZIONE" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{67619222-90AD-064C-802F-C3685FABE144}" name="AUTORE" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -933,30 +974,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4FF433-BE28-5B49-A7A6-6E0656AE40B0}">
-  <dimension ref="A1:M44"/>
+  <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView zoomScale="56" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B1" s="14" t="s">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-    </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+    </row>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -970,21 +1011,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="5">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B3" s="11">
         <v>44860</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E3" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
         <v>44872</v>
       </c>
@@ -998,7 +1039,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <v>44873</v>
       </c>
@@ -1012,7 +1053,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B6" s="2">
         <v>44873</v>
       </c>
@@ -1026,7 +1067,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B7" s="2">
         <v>44873</v>
       </c>
@@ -1040,7 +1081,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B8" s="2">
         <v>44873</v>
       </c>
@@ -1054,7 +1095,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B9" s="2">
         <v>44873</v>
       </c>
@@ -1068,7 +1109,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B10" s="2">
         <v>44873</v>
       </c>
@@ -1082,7 +1123,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B11" s="2">
         <v>44873</v>
       </c>
@@ -1095,15 +1136,15 @@
       <c r="E11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B12" s="2">
         <v>44873</v>
       </c>
@@ -1117,7 +1158,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B13" s="2">
         <v>44873</v>
       </c>
@@ -1131,7 +1172,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B14" s="2">
         <v>44873</v>
       </c>
@@ -1145,8 +1186,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="9">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B15" s="5">
         <v>44873</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -1159,8 +1200,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="9">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B16" s="5">
         <v>44873</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -1173,8 +1214,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="9">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="5">
         <v>44873</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -1187,8 +1228,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="9">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="5">
         <v>44873</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -1201,8 +1242,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="9">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="5">
         <v>44873</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -1215,8 +1256,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="9">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="5">
         <v>44873</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -1229,8 +1270,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="9">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B21" s="5">
         <v>44873</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -1243,8 +1284,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="9">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B22" s="5">
         <v>44873</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -1257,8 +1298,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="9">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23" s="5">
         <v>44873</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -1271,7 +1312,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="2">
         <v>44876</v>
       </c>
@@ -1285,7 +1326,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="2">
         <v>44879</v>
       </c>
@@ -1299,7 +1340,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="2">
         <v>44879</v>
       </c>
@@ -1313,7 +1354,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="2">
         <v>44879</v>
       </c>
@@ -1327,7 +1368,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B28" s="2">
         <v>44879</v>
       </c>
@@ -1341,7 +1382,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" s="2">
         <v>44879</v>
       </c>
@@ -1355,7 +1396,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B30" s="2">
         <v>44879</v>
       </c>
@@ -1369,35 +1410,35 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="10">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B31" s="6">
         <v>44879</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="D31" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E31" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="10">
+      <c r="E31" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B32" s="6">
         <v>44879</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E32" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E32" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B33" s="2">
         <v>44881</v>
       </c>
@@ -1411,7 +1452,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" s="2">
         <v>44881</v>
       </c>
@@ -1425,7 +1466,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B35" s="2">
         <v>44881</v>
       </c>
@@ -1439,129 +1480,143 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="10">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B36" s="6">
         <v>44881</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="D36" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E36" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="10">
+      <c r="E36" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B37" s="6">
         <v>44881</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="D37" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E37" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="10">
+      <c r="E37" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B38" s="6">
         <v>44882</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D38" s="11" t="s">
+      <c r="D38" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="E38" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="10">
+      <c r="E38" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B39" s="6">
         <v>44882</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D39" s="11" t="s">
+      <c r="D39" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="E39" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B40" s="10">
+      <c r="E39" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B40" s="6">
         <v>44882</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C40" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D40" s="11" t="s">
+      <c r="D40" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="E40" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B41" s="10">
+      <c r="E40" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B41" s="6">
         <v>44883</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D41" s="11" t="s">
+      <c r="D41" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E41" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B42" s="10">
+      <c r="E41" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B42" s="6">
         <v>44883</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C42" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D42" s="11" t="s">
+      <c r="D42" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="E42" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B43" s="10">
+      <c r="E42" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B43" s="6">
         <v>44883</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C43" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D43" s="11" t="s">
+      <c r="D43" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="E43" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B44" s="10">
+      <c r="E43" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B44" s="6">
         <v>44883</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="C44" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D44" s="11" t="s">
+      <c r="D44" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E44" s="12" t="s">
+      <c r="E44" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B45" s="2">
+        <v>44903</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1581,28 +1636,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256147BA-D926-674E-96C3-5C4EE21DE2A0}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView zoomScale="112" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="A3" zoomScale="168" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="14" t="s">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1616,21 +1671,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="5">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="11">
         <v>44860</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E3" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
         <v>44880</v>
       </c>
@@ -1644,7 +1699,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <v>44880</v>
       </c>
@@ -1658,7 +1713,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="2">
         <v>44880</v>
       </c>
@@ -1672,7 +1727,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="2">
         <v>44880</v>
       </c>
@@ -1686,7 +1741,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="2">
         <v>44880</v>
       </c>
@@ -1700,7 +1755,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="2">
         <v>44880</v>
       </c>
@@ -1714,7 +1769,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="2">
         <v>44880</v>
       </c>
@@ -1728,7 +1783,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="2">
         <v>44880</v>
       </c>
@@ -1742,7 +1797,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="2">
         <v>44880</v>
       </c>
@@ -1756,7 +1811,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="2">
         <v>44880</v>
       </c>
@@ -1770,7 +1825,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="2">
         <v>44880</v>
       </c>
@@ -1784,7 +1839,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="2">
         <v>44880</v>
       </c>
@@ -1798,7 +1853,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="2">
         <v>44882</v>
       </c>
@@ -1812,21 +1867,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="5">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="11">
         <v>44882</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="6" t="s">
+      <c r="C17" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="E17" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E17" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="2">
         <v>44882</v>
       </c>
@@ -1840,31 +1895,31 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="3"/>
       <c r="C19" s="1"/>
       <c r="D19" s="4"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="3"/>
       <c r="C20" s="1"/>
       <c r="D20" s="4"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="3"/>
       <c r="C21" s="1"/>
       <c r="D21" s="4"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="3"/>
       <c r="C22" s="1"/>
       <c r="D22" s="4"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="3"/>
       <c r="C23" s="1"/>
       <c r="D23" s="4"/>
@@ -1885,28 +1940,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9A7717B-E787-F440-A477-62CF32499A0B}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView zoomScale="135" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="14" t="s">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1920,7 +1975,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="2">
         <v>44860</v>
       </c>
@@ -1934,7 +1989,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
         <v>44861</v>
       </c>
@@ -1948,7 +2003,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <v>44861</v>
       </c>
@@ -1962,7 +2017,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="2">
         <v>44864</v>
       </c>
@@ -1976,7 +2031,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="2">
         <v>44864</v>
       </c>
@@ -1990,7 +2045,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="2">
         <v>44865</v>
       </c>
@@ -2004,7 +2059,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="2">
         <v>44865</v>
       </c>
@@ -2018,7 +2073,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="2">
         <v>44865</v>
       </c>
@@ -2032,7 +2087,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="2">
         <v>44865</v>
       </c>
@@ -2046,72 +2101,72 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="2"/>
       <c r="C12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="3"/>
       <c r="C13" s="1"/>
       <c r="D13" s="4"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="3"/>
       <c r="C14" s="1"/>
       <c r="D14" s="4"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="3"/>
       <c r="C15" s="1"/>
       <c r="D15" s="4"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="3"/>
       <c r="C16" s="1"/>
       <c r="D16" s="4"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="3"/>
       <c r="C17" s="1"/>
       <c r="D17" s="4"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="3"/>
       <c r="C18" s="1"/>
       <c r="D18" s="4"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="3"/>
       <c r="C19" s="1"/>
       <c r="D19" s="4"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="3"/>
       <c r="C20" s="1"/>
       <c r="D20" s="4"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="3"/>
       <c r="C21" s="1"/>
       <c r="D21" s="4"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="3"/>
       <c r="C22" s="1"/>
       <c r="D22" s="4"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="3"/>
       <c r="C23" s="1"/>
       <c r="D23" s="4"/>
@@ -2132,28 +2187,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69F97323-D4EC-FD45-9D8F-7A5F3A227394}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView zoomScale="135" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E5"/>
+    <sheetView zoomScale="106" zoomScaleNormal="141" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="14" t="s">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2167,7 +2222,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="2">
         <v>44860</v>
       </c>
@@ -2181,7 +2236,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
         <v>44871</v>
       </c>
@@ -2195,7 +2250,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <v>44875</v>
       </c>
@@ -2209,107 +2264,107 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="2"/>
       <c r="C6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="2"/>
       <c r="C7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
       <c r="C8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="2"/>
       <c r="C9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="2"/>
       <c r="C10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="2"/>
       <c r="C11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="2"/>
       <c r="C12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
       <c r="C13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="3"/>
       <c r="C14" s="1"/>
       <c r="D14" s="4"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="3"/>
       <c r="C15" s="1"/>
       <c r="D15" s="4"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="3"/>
       <c r="C16" s="1"/>
       <c r="D16" s="4"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="3"/>
       <c r="C17" s="1"/>
       <c r="D17" s="4"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="3"/>
       <c r="C18" s="1"/>
       <c r="D18" s="4"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="3"/>
       <c r="C19" s="1"/>
       <c r="D19" s="4"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="3"/>
       <c r="C20" s="1"/>
       <c r="D20" s="4"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="3"/>
       <c r="C21" s="1"/>
       <c r="D21" s="4"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="3"/>
       <c r="C22" s="1"/>
       <c r="D22" s="4"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="3"/>
       <c r="C23" s="1"/>
       <c r="D23" s="4"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="3"/>
       <c r="C24" s="1"/>
       <c r="D24" s="4"/>
@@ -2330,28 +2385,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC713557-CF4C-3449-B7F2-607954CE9E41}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView zoomScale="135" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView zoomScale="138" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="14" t="s">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2365,21 +2420,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="5">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="11">
         <v>44860</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D3" s="11">
+        <v>44862</v>
+      </c>
+      <c r="E3" s="11">
+        <v>44863</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
         <v>44878</v>
       </c>
@@ -2393,107 +2448,107 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
       <c r="C5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="2"/>
       <c r="C6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="2"/>
       <c r="C7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
       <c r="C8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="2"/>
       <c r="C9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="2"/>
       <c r="C10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="2"/>
       <c r="C11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="2"/>
       <c r="C12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="3"/>
       <c r="C13" s="1"/>
       <c r="D13" s="4"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="3"/>
       <c r="C14" s="1"/>
       <c r="D14" s="4"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="3"/>
       <c r="C15" s="1"/>
       <c r="D15" s="4"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="3"/>
       <c r="C16" s="1"/>
       <c r="D16" s="4"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="3"/>
       <c r="C17" s="1"/>
       <c r="D17" s="4"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="3"/>
       <c r="C18" s="1"/>
       <c r="D18" s="4"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="3"/>
       <c r="C19" s="1"/>
       <c r="D19" s="4"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="3"/>
       <c r="C20" s="1"/>
       <c r="D20" s="4"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="3"/>
       <c r="C21" s="1"/>
       <c r="D21" s="4"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="3"/>
       <c r="C22" s="1"/>
       <c r="D22" s="4"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="3"/>
       <c r="C23" s="1"/>
       <c r="D23" s="4"/>
@@ -2512,29 +2567,29 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F08A07EC-8CB7-4D4A-9BB5-5C795FDF800A}">
-  <dimension ref="B2:E6"/>
+  <dimension ref="B2:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="18.5" customWidth="1"/>
-    <col min="3" max="3" width="15.625" customWidth="1"/>
-    <col min="4" max="4" width="43.125" customWidth="1"/>
-    <col min="5" max="5" width="13.25" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="43.1640625" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B2" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2548,9 +2603,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
-        <v>44895</v>
+        <v>37590</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
@@ -2562,30 +2617,165 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="2">
-        <v>44896</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="2"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="2"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="2"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="2"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="2"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="2"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="2"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="2"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="2"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="2"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="2"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="2"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="3"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="3"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B21" s="3"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B22" s="3"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23" s="3"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B24" s="3"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B25" s="3"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B26" s="3"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B27" s="3"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B28" s="3"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B29" s="3"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B6:E6"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Documenti di Progetto/Revision History - Figma.xlsx
+++ b/Documenti di Progetto/Revision History - Figma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alessiature/Desktop/WoodLot/Documenti di Progetto/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8293513A-437F-934E-B937-98D52D95FE3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF6920E-B5C4-104C-9BD6-FC031DCA616D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3420" yWindow="500" windowWidth="25380" windowHeight="15720" activeTab="5" xr2:uid="{4A92E1C4-0C03-B648-8F37-4C727B03EE17}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Use Case Diagram" sheetId="1" r:id="rId3"/>
     <sheet name="Statechart Diagram" sheetId="3" r:id="rId4"/>
     <sheet name="Class Diagram" sheetId="6" r:id="rId5"/>
-    <sheet name="Mappatura" sheetId="10" r:id="rId6"/>
+    <sheet name="Varie" sheetId="10" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="87">
   <si>
     <t>DATA</t>
   </si>
@@ -295,10 +295,13 @@
     <t>Creazione Mappatura Hardware/Software</t>
   </si>
   <si>
-    <t>REVISON HISTORY - MAPPATURA HARDWARE/SOFTWARE</t>
-  </si>
-  <si>
     <t>1.1</t>
+  </si>
+  <si>
+    <t>REVISON HISTORY - VARIE</t>
+  </si>
+  <si>
+    <t>Creazione Schema sottosistemi</t>
   </si>
 </sst>
 </file>
@@ -443,9 +446,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -458,6 +458,9 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="40% - Colore 1" xfId="1" builtinId="31"/>
@@ -474,13 +477,13 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -665,15 +668,15 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{5413D084-ABF2-0443-9027-8070A35FA6B7}" name="Tabella11" displayName="Tabella11" ref="B3:E4" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
-  <autoFilter ref="B3:E4" xr:uid="{5413D084-ABF2-0443-9027-8070A35FA6B7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{5413D084-ABF2-0443-9027-8070A35FA6B7}" name="Tabella11" displayName="Tabella11" ref="B3:E5" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="B3:E5" xr:uid="{5413D084-ABF2-0443-9027-8070A35FA6B7}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{C16B526B-0298-0245-9456-72C3FA2F9D63}" name="DATA" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{0C6B9568-5233-6349-ACB4-4C58DAE6B9E5}" name="VERSIONE" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{FA1B81B3-062C-CA4B-8142-9116B54F9AF8}" name="DESCRIZIONE" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{67619222-90AD-064C-802F-C3685FABE144}" name="AUTORE" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{C16B526B-0298-0245-9456-72C3FA2F9D63}" name="DATA" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{0C6B9568-5233-6349-ACB4-4C58DAE6B9E5}" name="VERSIONE" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{FA1B81B3-062C-CA4B-8142-9116B54F9AF8}" name="DESCRIZIONE" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{67619222-90AD-064C-802F-C3685FABE144}" name="AUTORE" dataDxfId="0"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -976,7 +979,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4FF433-BE28-5B49-A7A6-6E0656AE40B0}">
   <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="81" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
@@ -990,12 +993,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
@@ -1012,16 +1015,16 @@
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B3" s="11">
+      <c r="B3" s="10">
         <v>44860</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="12" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1611,7 +1614,7 @@
         <v>44903</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>71</v>
@@ -1636,7 +1639,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256147BA-D926-674E-96C3-5C4EE21DE2A0}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="168" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -1650,12 +1653,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
@@ -1672,16 +1675,16 @@
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="11">
+      <c r="B3" s="10">
         <v>44860</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="12" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1868,16 +1871,16 @@
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="11">
+      <c r="B17" s="10">
         <v>44882</v>
       </c>
-      <c r="C17" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="12" t="s">
+      <c r="C17" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="12" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1954,12 +1957,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
@@ -2201,12 +2204,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
@@ -2399,12 +2402,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
@@ -2421,16 +2424,16 @@
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="11">
+      <c r="B3" s="10">
         <v>44860</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="10">
         <v>44862</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="10">
         <v>44863</v>
       </c>
     </row>
@@ -2569,8 +2572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F08A07EC-8CB7-4D4A-9BB5-5C795FDF800A}">
   <dimension ref="B2:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" zoomScale="119" zoomScaleNormal="107" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2582,12 +2585,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B2" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="B2" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
@@ -2605,7 +2608,7 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
-        <v>37590</v>
+        <v>44895</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
@@ -2618,16 +2621,24 @@
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="B5" s="2">
+        <v>44896</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="1"/>

--- a/Documenti di Progetto/Revision History - Figma.xlsx
+++ b/Documenti di Progetto/Revision History - Figma.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alessiature/Desktop/WoodLot/Documenti di Progetto/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raffaella/Documents/WoodLot/Documenti di Progetto/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF6920E-B5C4-104C-9BD6-FC031DCA616D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE8CC297-77BE-404A-B662-2928B06FC8B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="500" windowWidth="25380" windowHeight="15720" activeTab="5" xr2:uid="{4A92E1C4-0C03-B648-8F37-4C727B03EE17}"/>
+    <workbookView xWindow="520" yWindow="500" windowWidth="28280" windowHeight="15720" activeTab="5" xr2:uid="{4A92E1C4-0C03-B648-8F37-4C727B03EE17}"/>
   </bookViews>
   <sheets>
     <sheet name="Sequence Diagram" sheetId="9" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Use Case Diagram" sheetId="1" r:id="rId3"/>
     <sheet name="Statechart Diagram" sheetId="3" r:id="rId4"/>
     <sheet name="Class Diagram" sheetId="6" r:id="rId5"/>
-    <sheet name="Varie" sheetId="10" r:id="rId6"/>
+    <sheet name="Varie" sheetId="11" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="87">
   <si>
     <t>DATA</t>
   </si>
@@ -292,16 +292,16 @@
     <t>Creazione SD - Aggiornare stato</t>
   </si>
   <si>
-    <t>Creazione Mappatura Hardware/Software</t>
-  </si>
-  <si>
     <t>1.1</t>
   </si>
   <si>
     <t>REVISON HISTORY - VARIE</t>
   </si>
   <si>
-    <t>Creazione Schema sottosistemi</t>
+    <t xml:space="preserve">Creazione </t>
+  </si>
+  <si>
+    <t>Creazione Schema Sottosistemi</t>
   </si>
 </sst>
 </file>
@@ -466,22 +466,18 @@
     <cellStyle name="40% - Colore 1" xfId="1" builtinId="31"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="31">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -578,7 +574,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A7DC815F-E9FE-7F4D-BB4C-8E30E115A67B}" name="Tabella1463" displayName="Tabella1463" ref="B2:E45" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A7DC815F-E9FE-7F4D-BB4C-8E30E115A67B}" name="Tabella1463" displayName="Tabella1463" ref="B2:E45" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
   <autoFilter ref="B2:E45" xr:uid="{BFD3B3F1-39AF-574B-B4E2-6DD2F98814AC}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -586,17 +582,17 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{384C1BB0-92F1-D249-A07F-24B79BF81468}" name="DATA" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{BBB4116C-4BFC-784D-A0B1-DBEA2E540F59}" name="VERSIONE" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{BBBB8EDF-7DF2-314C-8CD7-5E5A336EABD5}" name="DESCRIZIONE" dataDxfId="27"/>
-    <tableColumn id="4" xr3:uid="{E0EC0EC0-B349-A946-BCE1-53CDEA9E5021}" name="AUTORE" dataDxfId="26"/>
+    <tableColumn id="1" xr3:uid="{384C1BB0-92F1-D249-A07F-24B79BF81468}" name="DATA" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{BBB4116C-4BFC-784D-A0B1-DBEA2E540F59}" name="VERSIONE" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{BBBB8EDF-7DF2-314C-8CD7-5E5A336EABD5}" name="DESCRIZIONE" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{E0EC0EC0-B349-A946-BCE1-53CDEA9E5021}" name="AUTORE" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{04D74344-D276-384C-86AC-E6FCBC66F272}" name="Tabella15" displayName="Tabella15" ref="B2:E18" totalsRowShown="0" headerRowDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{04D74344-D276-384C-86AC-E6FCBC66F272}" name="Tabella15" displayName="Tabella15" ref="B2:E18" totalsRowShown="0" headerRowDxfId="24">
   <autoFilter ref="B2:E18" xr:uid="{BFD3B3F1-39AF-574B-B4E2-6DD2F98814AC}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -604,17 +600,17 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{9CE3F216-5F00-C949-B764-1C474BC4E6F7}" name="DATA" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{B65B1588-D391-084E-B362-96ACBB55D55F}" name="VERSIONE" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{5A35C614-6143-2E41-B770-E9159B831AC1}" name="DESCRIZIONE" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{9279B9EE-E335-9A4B-A08C-E21EB6909A98}" name="AUTORE" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{9CE3F216-5F00-C949-B764-1C474BC4E6F7}" name="DATA" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{B65B1588-D391-084E-B362-96ACBB55D55F}" name="VERSIONE" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{5A35C614-6143-2E41-B770-E9159B831AC1}" name="DESCRIZIONE" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{9279B9EE-E335-9A4B-A08C-E21EB6909A98}" name="AUTORE" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BFD3B3F1-39AF-574B-B4E2-6DD2F98814AC}" name="Tabella1" displayName="Tabella1" ref="B2:E23" totalsRowShown="0" headerRowDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BFD3B3F1-39AF-574B-B4E2-6DD2F98814AC}" name="Tabella1" displayName="Tabella1" ref="B2:E23" totalsRowShown="0" headerRowDxfId="19">
   <autoFilter ref="B2:E23" xr:uid="{BFD3B3F1-39AF-574B-B4E2-6DD2F98814AC}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -622,17 +618,17 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{D2472224-3F02-2744-8657-6A872C869000}" name="DATA" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{7FA9BCB9-E897-B440-9BF5-675437705F38}" name="VERSIONE" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{287F26B4-1CCD-AC44-AD6B-D76F16EAB32B}" name="DESCRIZIONE" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{8213545A-71F5-B24E-B9A1-3418391DCE22}" name="AUTORE" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{D2472224-3F02-2744-8657-6A872C869000}" name="DATA" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{7FA9BCB9-E897-B440-9BF5-675437705F38}" name="VERSIONE" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{287F26B4-1CCD-AC44-AD6B-D76F16EAB32B}" name="DESCRIZIONE" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{8213545A-71F5-B24E-B9A1-3418391DCE22}" name="AUTORE" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8E559B2E-DA0D-F143-8EFE-D37F837E0651}" name="Tabella14" displayName="Tabella14" ref="B2:E24" totalsRowShown="0" headerRowDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8E559B2E-DA0D-F143-8EFE-D37F837E0651}" name="Tabella14" displayName="Tabella14" ref="B2:E24" totalsRowShown="0" headerRowDxfId="14">
   <autoFilter ref="B2:E24" xr:uid="{BFD3B3F1-39AF-574B-B4E2-6DD2F98814AC}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -640,17 +636,17 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{378C1216-916E-5544-9728-AA01BCB8B490}" name="DATA" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{C0CC21E6-1BDA-674A-BF46-2171B580AC90}" name="VERSIONE" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{120155EA-3E0E-6B4B-A0E1-2E2B0D2F3140}" name="DESCRIZIONE" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{93260112-5814-1241-B832-6563BE25C71F}" name="AUTORE" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{378C1216-916E-5544-9728-AA01BCB8B490}" name="DATA" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{C0CC21E6-1BDA-674A-BF46-2171B580AC90}" name="VERSIONE" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{120155EA-3E0E-6B4B-A0E1-2E2B0D2F3140}" name="DESCRIZIONE" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{93260112-5814-1241-B832-6563BE25C71F}" name="AUTORE" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C631A97A-F7D8-594B-B7D2-25620C66AA81}" name="Tabella146" displayName="Tabella146" ref="B2:E23" totalsRowShown="0" headerRowDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C631A97A-F7D8-594B-B7D2-25620C66AA81}" name="Tabella146" displayName="Tabella146" ref="B2:E23" totalsRowShown="0" headerRowDxfId="9">
   <autoFilter ref="B2:E23" xr:uid="{BFD3B3F1-39AF-574B-B4E2-6DD2F98814AC}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -658,23 +654,28 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{7C7AFF3E-F623-924D-A0B4-16386F27322B}" name="DATA" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{1C2CD86D-9E3B-5A4A-9634-44B2F9F64A34}" name="VERSIONE" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{6B5D89E2-E9F3-0348-AC4F-276719705EF0}" name="DESCRIZIONE" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{6F8E928E-C13E-3441-945B-4D39C4C14E21}" name="AUTORE" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{7C7AFF3E-F623-924D-A0B4-16386F27322B}" name="DATA" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{1C2CD86D-9E3B-5A4A-9634-44B2F9F64A34}" name="VERSIONE" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{6B5D89E2-E9F3-0348-AC4F-276719705EF0}" name="DESCRIZIONE" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{6F8E928E-C13E-3441-945B-4D39C4C14E21}" name="AUTORE" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{5413D084-ABF2-0443-9027-8070A35FA6B7}" name="Tabella11" displayName="Tabella11" ref="B3:E5" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="B3:E5" xr:uid="{5413D084-ABF2-0443-9027-8070A35FA6B7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{8AAA9C5B-3B86-6344-8D85-A506823F000A}" name="Tabella1467" displayName="Tabella1467" ref="B2:E23" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="B2:E23" xr:uid="{BFD3B3F1-39AF-574B-B4E2-6DD2F98814AC}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+  </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{C16B526B-0298-0245-9456-72C3FA2F9D63}" name="DATA" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{0C6B9568-5233-6349-ACB4-4C58DAE6B9E5}" name="VERSIONE" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{FA1B81B3-062C-CA4B-8142-9116B54F9AF8}" name="DESCRIZIONE" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{67619222-90AD-064C-802F-C3685FABE144}" name="AUTORE" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{CA23B27E-B45F-6D4C-96F9-76FF1A2039A1}" name="DATA" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{D87D0F3F-0546-4847-9DD1-94208FAF0441}" name="VERSIONE" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{494F3035-F7D2-FB49-B359-595E10E93AF2}" name="DESCRIZIONE" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{76B3B800-73AB-1A41-A281-C3BB2CDC028E}" name="AUTORE" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -979,7 +980,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4FF433-BE28-5B49-A7A6-6E0656AE40B0}">
   <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="81" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView zoomScale="81" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
@@ -1614,7 +1615,7 @@
         <v>44903</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>71</v>
@@ -2191,7 +2192,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView zoomScale="106" zoomScaleNormal="141" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2388,8 +2389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC713557-CF4C-3449-B7F2-607954CE9E41}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView zoomScale="138" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2430,11 +2431,11 @@
       <c r="C3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="10">
-        <v>44862</v>
-      </c>
-      <c r="E3" s="10">
-        <v>44863</v>
+      <c r="D3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
@@ -2569,147 +2570,146 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F08A07EC-8CB7-4D4A-9BB5-5C795FDF800A}">
-  <dimension ref="B2:E29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B28848AC-B2BF-0941-B6A8-62D75E077910}">
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="119" zoomScaleNormal="107" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="18.5" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="43.1640625" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" customWidth="1"/>
+    <col min="1" max="1" width="17" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B1" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+    </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="10">
+        <v>44895</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>3</v>
+      <c r="E3" s="10" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
-        <v>44895</v>
+        <v>44896</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="2">
-        <v>44896</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="1"/>
+      <c r="E5" s="1"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="1"/>
+      <c r="E6" s="1"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="1"/>
+      <c r="B7" s="2"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="2"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="2"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="2"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="2"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="2"/>
+      <c r="B13" s="3"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="D13" s="4"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="2"/>
+      <c r="B14" s="3"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="D14" s="4"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="2"/>
+      <c r="B15" s="3"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="D15" s="4"/>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="2"/>
+      <c r="B16" s="3"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="D16" s="4"/>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="2"/>
+      <c r="B17" s="3"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="D17" s="4"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="2"/>
+      <c r="B18" s="3"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+      <c r="D18" s="4"/>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
@@ -2742,48 +2742,10 @@
       <c r="D23" s="4"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B24" s="3"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B25" s="3"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="1"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B26" s="3"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="1"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B27" s="3"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="1"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B28" s="3"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="1"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B29" s="3"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B6:E6"/>
+  <mergeCells count="1">
+    <mergeCell ref="B1:E1"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/Documenti di Progetto/Revision History - Figma.xlsx
+++ b/Documenti di Progetto/Revision History - Figma.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raffaella/Documents/WoodLot/Documenti di Progetto/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alessiature/Desktop/WoodLot/Documenti di Progetto/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE8CC297-77BE-404A-B662-2928B06FC8B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F74802EF-9892-1F48-B2DA-6760A9319373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="520" yWindow="500" windowWidth="28280" windowHeight="15720" activeTab="5" xr2:uid="{4A92E1C4-0C03-B648-8F37-4C727B03EE17}"/>
+    <workbookView xWindow="3420" yWindow="500" windowWidth="25380" windowHeight="15720" xr2:uid="{4A92E1C4-0C03-B648-8F37-4C727B03EE17}"/>
   </bookViews>
   <sheets>
     <sheet name="Sequence Diagram" sheetId="9" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="89">
   <si>
     <t>DATA</t>
   </si>
@@ -302,6 +302,12 @@
   </si>
   <si>
     <t>Creazione Schema Sottosistemi</t>
+  </si>
+  <si>
+    <t>Creazione Mock-up Lo-Fi</t>
+  </si>
+  <si>
+    <t>Creazione Mock-up Hi-Fi</t>
   </si>
 </sst>
 </file>
@@ -353,7 +359,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -363,6 +369,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -413,11 +425,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -458,11 +471,27 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="20% - Colore 1" xfId="2" builtinId="30"/>
     <cellStyle name="40% - Colore 1" xfId="1" builtinId="31"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -592,8 +621,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{04D74344-D276-384C-86AC-E6FCBC66F272}" name="Tabella15" displayName="Tabella15" ref="B2:E18" totalsRowShown="0" headerRowDxfId="24">
-  <autoFilter ref="B2:E18" xr:uid="{BFD3B3F1-39AF-574B-B4E2-6DD2F98814AC}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{04D74344-D276-384C-86AC-E6FCBC66F272}" name="Tabella15" displayName="Tabella15" ref="B2:E20" totalsRowShown="0" headerRowDxfId="24">
+  <autoFilter ref="B2:E20" xr:uid="{BFD3B3F1-39AF-574B-B4E2-6DD2F98814AC}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -980,7 +1009,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4FF433-BE28-5B49-A7A6-6E0656AE40B0}">
   <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView zoomScale="81" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
@@ -994,12 +1023,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
@@ -1638,10 +1667,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256147BA-D926-674E-96C3-5C4EE21DE2A0}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView zoomScale="118" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1654,12 +1683,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
@@ -1682,7 +1711,7 @@
       <c r="C3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="12" t="s">
@@ -1690,17 +1719,17 @@
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="2">
-        <v>44880</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>6</v>
+      <c r="B4" s="15">
+        <v>44879</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
@@ -1711,7 +1740,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>6</v>
@@ -1725,7 +1754,7 @@
         <v>9</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>6</v>
@@ -1739,7 +1768,7 @@
         <v>9</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>6</v>
@@ -1753,7 +1782,7 @@
         <v>9</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>6</v>
@@ -1767,7 +1796,7 @@
         <v>9</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>6</v>
@@ -1781,10 +1810,10 @@
         <v>9</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
@@ -1795,7 +1824,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>10</v>
@@ -1809,7 +1838,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>10</v>
@@ -1823,7 +1852,7 @@
         <v>9</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>10</v>
@@ -1837,7 +1866,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>10</v>
@@ -1851,65 +1880,81 @@
         <v>9</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="2">
+        <v>44880</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="2">
         <v>44882</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="1" t="s">
+      <c r="C17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="10">
+      <c r="E17" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="17">
         <v>44882</v>
       </c>
-      <c r="C17" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="11" t="s">
+      <c r="C18" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="E17" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="2">
+      <c r="E18" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="2">
         <v>44882</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="1" t="s">
+      <c r="C19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="3"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="1"/>
+      <c r="E19" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="3"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="1"/>
+      <c r="B20" s="2">
+        <v>44893</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="3"/>
@@ -1928,6 +1973,12 @@
       <c r="C23" s="1"/>
       <c r="D23" s="4"/>
       <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B24" s="3"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1958,12 +2009,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
@@ -2205,12 +2256,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
@@ -2389,7 +2440,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC713557-CF4C-3449-B7F2-607954CE9E41}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -2403,12 +2454,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
@@ -2573,7 +2624,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B28848AC-B2BF-0941-B6A8-62D75E077910}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="110" workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
@@ -2587,12 +2638,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">

--- a/Documenti di Progetto/Revision History - Figma.xlsx
+++ b/Documenti di Progetto/Revision History - Figma.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alessiature/Desktop/WoodLot/Documenti di Progetto/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raffaella/Documents/WoodLot/Documenti di Progetto/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F74802EF-9892-1F48-B2DA-6760A9319373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DFC8380-6D8F-DC47-9572-450C83B91858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="500" windowWidth="25380" windowHeight="15720" xr2:uid="{4A92E1C4-0C03-B648-8F37-4C727B03EE17}"/>
+    <workbookView xWindow="3420" yWindow="500" windowWidth="25380" windowHeight="15720" activeTab="3" xr2:uid="{4A92E1C4-0C03-B648-8F37-4C727B03EE17}"/>
   </bookViews>
   <sheets>
     <sheet name="Sequence Diagram" sheetId="9" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="95">
   <si>
     <t>DATA</t>
   </si>
@@ -308,6 +308,24 @@
   </si>
   <si>
     <t>Creazione Mock-up Hi-Fi</t>
+  </si>
+  <si>
+    <t>Revisione Use Case Diagram Ospite</t>
+  </si>
+  <si>
+    <t>Revisione Use Case Diagram Utente</t>
+  </si>
+  <si>
+    <t>Revisione Use Case Diagram Contadino</t>
+  </si>
+  <si>
+    <t>Revisione Use Case Diagram Catalogo</t>
+  </si>
+  <si>
+    <t>Revisione Use Case Diagram Ordini</t>
+  </si>
+  <si>
+    <t>Revisione StateChart Diagram</t>
   </si>
 </sst>
 </file>
@@ -477,9 +495,6 @@
     <xf numFmtId="14" fontId="5" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="5" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -487,6 +502,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1009,7 +1027,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4FF433-BE28-5B49-A7A6-6E0656AE40B0}">
   <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView zoomScale="81" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
@@ -1023,12 +1041,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
@@ -1683,12 +1701,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
@@ -1915,16 +1933,16 @@
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="17">
+      <c r="B18" s="16">
         <v>44882</v>
       </c>
-      <c r="C18" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="18" t="s">
+      <c r="C18" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="18" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1996,7 +2014,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2009,12 +2027,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
@@ -2157,33 +2175,74 @@
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="2"/>
-      <c r="C12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="B12" s="2">
+        <v>44991</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="3"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="1"/>
+      <c r="B13" s="2">
+        <v>44991</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="3"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="1"/>
+      <c r="B14" s="2">
+        <v>44991</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="3"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="1"/>
+      <c r="B15" s="2">
+        <v>44991</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="3"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="1"/>
+      <c r="B16" s="2">
+        <v>44991</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="3"/>
@@ -2242,8 +2301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69F97323-D4EC-FD45-9D8F-7A5F3A227394}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView zoomScale="106" zoomScaleNormal="141" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="141" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2256,12 +2315,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
@@ -2320,9 +2379,18 @@
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="2"/>
-      <c r="C6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="B6" s="2">
+        <v>44991</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="2"/>
@@ -2454,12 +2522,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
@@ -2638,12 +2706,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">

--- a/Documenti di Progetto/Revision History - Figma.xlsx
+++ b/Documenti di Progetto/Revision History - Figma.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raffaella/Documents/WoodLot/Documenti di Progetto/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DFC8380-6D8F-DC47-9572-450C83B91858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E1951F7-4DBA-8545-B822-FF3605F52723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="500" windowWidth="25380" windowHeight="15720" activeTab="3" xr2:uid="{4A92E1C4-0C03-B648-8F37-4C727B03EE17}"/>
+    <workbookView xWindow="13060" yWindow="500" windowWidth="15480" windowHeight="15720" xr2:uid="{4A92E1C4-0C03-B648-8F37-4C727B03EE17}"/>
   </bookViews>
   <sheets>
     <sheet name="Sequence Diagram" sheetId="9" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="103">
   <si>
     <t>DATA</t>
   </si>
@@ -326,6 +326,30 @@
   </si>
   <si>
     <t>Revisione StateChart Diagram</t>
+  </si>
+  <si>
+    <t>Revisione Class Diagram</t>
+  </si>
+  <si>
+    <t>AT, RS</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>RS, AT</t>
+  </si>
+  <si>
+    <t>Creazione SD - Aggiornare stato: assegnato</t>
+  </si>
+  <si>
+    <t>Creazione SD - Assegnare alberi</t>
+  </si>
+  <si>
+    <t>Creazione SD - Riassegnare alberi</t>
+  </si>
+  <si>
+    <t>Creazione SD - Validare piantumazione</t>
   </si>
 </sst>
 </file>
@@ -621,8 +645,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A7DC815F-E9FE-7F4D-BB4C-8E30E115A67B}" name="Tabella1463" displayName="Tabella1463" ref="B2:E45" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
-  <autoFilter ref="B2:E45" xr:uid="{BFD3B3F1-39AF-574B-B4E2-6DD2F98814AC}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A7DC815F-E9FE-7F4D-BB4C-8E30E115A67B}" name="Tabella1463" displayName="Tabella1463" ref="B2:E63" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
+  <autoFilter ref="B2:E63" xr:uid="{BFD3B3F1-39AF-574B-B4E2-6DD2F98814AC}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1025,10 +1049,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4FF433-BE28-5B49-A7A6-6E0656AE40B0}">
-  <dimension ref="A1:M45"/>
+  <dimension ref="A1:M63"/>
   <sheetViews>
-    <sheetView zoomScale="81" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="81" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1670,6 +1694,178 @@
       <c r="E45" s="1" t="s">
         <v>6</v>
       </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B46" s="2">
+        <v>44993</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B47" s="2">
+        <v>44993</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B48" s="2">
+        <v>44993</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B49" s="2">
+        <v>44993</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B50" s="2">
+        <v>44993</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B51" s="2">
+        <v>44993</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B52" s="2">
+        <v>44993</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B53" s="2">
+        <v>44993</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B54" s="3"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="1"/>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B55" s="3"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="1"/>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B56" s="3"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="1"/>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B57" s="3"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="1"/>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B58" s="3"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="1"/>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B59" s="3"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="1"/>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B60" s="3"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="1"/>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B61" s="3"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="1"/>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B62" s="3"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="1"/>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B63" s="3"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2301,7 +2497,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69F97323-D4EC-FD45-9D8F-7A5F3A227394}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="141" workbookViewId="0">
+    <sheetView zoomScale="106" zoomScaleNormal="141" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -2509,7 +2705,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2572,9 +2768,18 @@
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="2"/>
-      <c r="C5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="B5" s="2">
+        <v>44993</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="2"/>

--- a/Documenti di Progetto/Revision History - Figma.xlsx
+++ b/Documenti di Progetto/Revision History - Figma.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raffaella/Documents/WoodLot/Documenti di Progetto/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E1951F7-4DBA-8545-B822-FF3605F52723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3855082-7FEF-1E4B-8A79-03CE3F35DFF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13060" yWindow="500" windowWidth="15480" windowHeight="15720" xr2:uid="{4A92E1C4-0C03-B648-8F37-4C727B03EE17}"/>
+    <workbookView xWindow="5800" yWindow="500" windowWidth="22740" windowHeight="15720" activeTab="5" xr2:uid="{4A92E1C4-0C03-B648-8F37-4C727B03EE17}"/>
   </bookViews>
   <sheets>
     <sheet name="Sequence Diagram" sheetId="9" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="102">
   <si>
     <t>DATA</t>
   </si>
@@ -296,9 +296,6 @@
   </si>
   <si>
     <t>REVISON HISTORY - VARIE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Creazione </t>
   </si>
   <si>
     <t>Creazione Schema Sottosistemi</t>
@@ -1051,7 +1048,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4FF433-BE28-5B49-A7A6-6E0656AE40B0}">
   <dimension ref="A1:M63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="81" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView topLeftCell="A23" zoomScale="81" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
@@ -1700,13 +1697,13 @@
         <v>44993</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.2">
@@ -1714,13 +1711,13 @@
         <v>44993</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.2">
@@ -1728,13 +1725,13 @@
         <v>44993</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>66</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.2">
@@ -1742,13 +1739,13 @@
         <v>44993</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>71</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.2">
@@ -1756,13 +1753,13 @@
         <v>44993</v>
       </c>
       <c r="C50" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.2">
@@ -1770,13 +1767,13 @@
         <v>44993</v>
       </c>
       <c r="C51" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.2">
@@ -1784,13 +1781,13 @@
         <v>44993</v>
       </c>
       <c r="C52" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.2">
@@ -1798,13 +1795,13 @@
         <v>44993</v>
       </c>
       <c r="C53" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.2">
@@ -1883,7 +1880,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256147BA-D926-674E-96C3-5C4EE21DE2A0}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView zoomScale="118" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="118" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
@@ -1940,7 +1937,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>10</v>
@@ -2164,7 +2161,7 @@
         <v>11</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>6</v>
@@ -2378,7 +2375,7 @@
         <v>45</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>10</v>
@@ -2392,7 +2389,7 @@
         <v>45</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>10</v>
@@ -2406,7 +2403,7 @@
         <v>45</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>10</v>
@@ -2420,7 +2417,7 @@
         <v>45</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>10</v>
@@ -2434,7 +2431,7 @@
         <v>45</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>10</v>
@@ -2582,7 +2579,7 @@
         <v>45</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
@@ -2775,10 +2772,10 @@
         <v>45</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
@@ -2897,8 +2894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B28848AC-B2BF-0941-B6A8-62D75E077910}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView zoomScale="110" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2933,32 +2930,23 @@
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="10">
-        <v>44895</v>
-      </c>
-      <c r="C3" s="10" t="s">
+      <c r="B3" s="2">
+        <v>44896</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>8</v>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="2">
-        <v>44896</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="1"/>
+      <c r="E4" s="1"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
